--- a/turbodoc/dataset/dataset_turbo-doc.xlsx
+++ b/turbodoc/dataset/dataset_turbo-doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\90004698\Documents\GitHub\project-ai\turbodoc\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57662C34-0697-45C9-BB64-484ABF09BEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458E3CFB-F59B-49BF-A493-348A7EE8D272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7160,36 +7160,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -7204,6 +7174,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7760,8 +7760,8 @@
   <dimension ref="A1:G432"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7776,35 +7776,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="8.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:7" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="45" t="s">
         <v>832</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="78" t="s">
         <v>833</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
     </row>
     <row r="3" spans="1:7" ht="8.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="46"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" ht="134.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
@@ -17716,10 +17716,10 @@
       <c r="B2" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="83" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2" s="80" t="s">
+      <c r="C2" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="85" t="s">
         <v>382</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -17733,8 +17733,8 @@
       <c r="B3" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="85"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="86"/>
       <c r="E3" s="23" t="s">
         <v>383</v>
       </c>
@@ -17746,8 +17746,8 @@
       <c r="B4" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="85"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="23" t="s">
         <v>383</v>
       </c>
@@ -17759,8 +17759,8 @@
       <c r="B5" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="85"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="23" t="s">
         <v>383</v>
       </c>
@@ -17772,8 +17772,8 @@
       <c r="B6" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="85"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="23" t="s">
         <v>383</v>
       </c>
@@ -17785,8 +17785,8 @@
       <c r="B7" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="85"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="23" t="s">
         <v>383</v>
       </c>
@@ -17798,8 +17798,8 @@
       <c r="B8" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="85"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="23" t="s">
         <v>383</v>
       </c>
@@ -17811,8 +17811,8 @@
       <c r="B9" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="86"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="28" t="s">
         <v>383</v>
       </c>
@@ -17824,10 +17824,10 @@
       <c r="B10" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="85" t="s">
         <v>392</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="85" t="s">
         <v>393</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -17841,8 +17841,8 @@
       <c r="B11" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="23" t="s">
         <v>394</v>
       </c>
@@ -17854,8 +17854,8 @@
       <c r="B12" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="23" t="s">
         <v>394</v>
       </c>
@@ -17867,8 +17867,8 @@
       <c r="B13" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="23" t="s">
         <v>394</v>
       </c>
@@ -17880,8 +17880,8 @@
       <c r="B14" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="23" t="s">
         <v>394</v>
       </c>
@@ -17893,8 +17893,8 @@
       <c r="B15" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="23" t="s">
         <v>394</v>
       </c>
@@ -17906,8 +17906,8 @@
       <c r="B16" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="23" t="s">
         <v>394</v>
       </c>
@@ -17919,8 +17919,8 @@
       <c r="B17" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="23" t="s">
         <v>394</v>
       </c>
@@ -17932,8 +17932,8 @@
       <c r="B18" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="23" t="s">
         <v>394</v>
       </c>
@@ -17945,8 +17945,8 @@
       <c r="B19" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="23" t="s">
         <v>394</v>
       </c>
@@ -17958,8 +17958,8 @@
       <c r="B20" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="23" t="s">
         <v>394</v>
       </c>
@@ -17971,8 +17971,8 @@
       <c r="B21" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="23" t="s">
         <v>394</v>
       </c>
@@ -17984,8 +17984,8 @@
       <c r="B22" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="23" t="s">
         <v>394</v>
       </c>
@@ -17997,8 +17997,8 @@
       <c r="B23" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="23" t="s">
         <v>394</v>
       </c>
@@ -18010,8 +18010,8 @@
       <c r="B24" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="23" t="s">
         <v>394</v>
       </c>
@@ -18023,8 +18023,8 @@
       <c r="B25" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="23" t="s">
         <v>394</v>
       </c>
@@ -18036,8 +18036,8 @@
       <c r="B26" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="23" t="s">
         <v>394</v>
       </c>
@@ -18049,8 +18049,8 @@
       <c r="B27" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="23" t="s">
         <v>394</v>
       </c>
@@ -18062,8 +18062,8 @@
       <c r="B28" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
       <c r="E28" s="23" t="s">
         <v>394</v>
       </c>
@@ -18075,8 +18075,8 @@
       <c r="B29" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
       <c r="E29" s="23" t="s">
         <v>394</v>
       </c>
@@ -18088,8 +18088,8 @@
       <c r="B30" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
       <c r="E30" s="23" t="s">
         <v>394</v>
       </c>
@@ -18101,8 +18101,8 @@
       <c r="B31" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="23" t="s">
         <v>394</v>
       </c>
@@ -18114,8 +18114,8 @@
       <c r="B32" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="23" t="s">
         <v>394</v>
       </c>
@@ -18127,8 +18127,8 @@
       <c r="B33" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="23" t="s">
         <v>394</v>
       </c>
@@ -18140,8 +18140,8 @@
       <c r="B34" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="23" t="s">
         <v>394</v>
       </c>
@@ -18153,8 +18153,8 @@
       <c r="B35" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
       <c r="E35" s="23" t="s">
         <v>394</v>
       </c>
@@ -18166,8 +18166,8 @@
       <c r="B36" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="23" t="s">
         <v>394</v>
       </c>
@@ -18179,8 +18179,8 @@
       <c r="B37" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
       <c r="E37" s="23" t="s">
         <v>394</v>
       </c>
@@ -18192,8 +18192,8 @@
       <c r="B38" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="23" t="s">
         <v>394</v>
       </c>
@@ -18205,8 +18205,8 @@
       <c r="B39" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
       <c r="E39" s="23" t="s">
         <v>394</v>
       </c>
@@ -18218,8 +18218,8 @@
       <c r="B40" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="23" t="s">
         <v>394</v>
       </c>
@@ -18231,8 +18231,8 @@
       <c r="B41" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
       <c r="E41" s="23" t="s">
         <v>394</v>
       </c>
@@ -18244,8 +18244,8 @@
       <c r="B42" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
       <c r="E42" s="23" t="s">
         <v>394</v>
       </c>
@@ -18257,8 +18257,8 @@
       <c r="B43" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
       <c r="E43" s="23" t="s">
         <v>394</v>
       </c>
@@ -18270,8 +18270,8 @@
       <c r="B44" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
       <c r="E44" s="23" t="s">
         <v>394</v>
       </c>
@@ -18283,8 +18283,8 @@
       <c r="B45" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
       <c r="E45" s="23" t="s">
         <v>394</v>
       </c>
@@ -18296,8 +18296,8 @@
       <c r="B46" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
       <c r="E46" s="23" t="s">
         <v>394</v>
       </c>
@@ -18309,8 +18309,8 @@
       <c r="B47" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
       <c r="E47" s="23" t="s">
         <v>394</v>
       </c>
@@ -18322,8 +18322,8 @@
       <c r="B48" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
       <c r="E48" s="23" t="s">
         <v>394</v>
       </c>
@@ -18335,8 +18335,8 @@
       <c r="B49" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
       <c r="E49" s="23" t="s">
         <v>394</v>
       </c>
@@ -18348,8 +18348,8 @@
       <c r="B50" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
       <c r="E50" s="23" t="s">
         <v>394</v>
       </c>
@@ -18361,8 +18361,8 @@
       <c r="B51" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
       <c r="E51" s="23" t="s">
         <v>394</v>
       </c>
@@ -18374,8 +18374,8 @@
       <c r="B52" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
       <c r="E52" s="23" t="s">
         <v>394</v>
       </c>
@@ -18387,8 +18387,8 @@
       <c r="B53" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
       <c r="E53" s="23" t="s">
         <v>394</v>
       </c>
@@ -18400,8 +18400,8 @@
       <c r="B54" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
       <c r="E54" s="23" t="s">
         <v>394</v>
       </c>
@@ -18413,8 +18413,8 @@
       <c r="B55" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="23" t="s">
         <v>394</v>
       </c>
@@ -18426,8 +18426,8 @@
       <c r="B56" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
       <c r="E56" s="23" t="s">
         <v>394</v>
       </c>
@@ -18439,8 +18439,8 @@
       <c r="B57" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
       <c r="E57" s="23" t="s">
         <v>394</v>
       </c>
@@ -18452,8 +18452,8 @@
       <c r="B58" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
       <c r="E58" s="23" t="s">
         <v>394</v>
       </c>
@@ -18465,8 +18465,8 @@
       <c r="B59" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
       <c r="E59" s="23" t="s">
         <v>394</v>
       </c>
@@ -18478,8 +18478,8 @@
       <c r="B60" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
       <c r="E60" s="23" t="s">
         <v>394</v>
       </c>
@@ -18491,8 +18491,8 @@
       <c r="B61" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
       <c r="E61" s="23" t="s">
         <v>394</v>
       </c>
@@ -18504,8 +18504,8 @@
       <c r="B62" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
       <c r="E62" s="23" t="s">
         <v>394</v>
       </c>
@@ -18517,8 +18517,8 @@
       <c r="B63" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
       <c r="E63" s="23" t="s">
         <v>394</v>
       </c>
@@ -18530,8 +18530,8 @@
       <c r="B64" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
       <c r="E64" s="23" t="s">
         <v>394</v>
       </c>
@@ -18543,8 +18543,8 @@
       <c r="B65" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
       <c r="E65" s="23" t="s">
         <v>394</v>
       </c>
@@ -18556,8 +18556,8 @@
       <c r="B66" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
       <c r="E66" s="23" t="s">
         <v>394</v>
       </c>
@@ -18569,8 +18569,8 @@
       <c r="B67" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
       <c r="E67" s="23" t="s">
         <v>394</v>
       </c>
@@ -18582,8 +18582,8 @@
       <c r="B68" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
       <c r="E68" s="23" t="s">
         <v>394</v>
       </c>
@@ -18595,8 +18595,8 @@
       <c r="B69" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
       <c r="E69" s="23" t="s">
         <v>394</v>
       </c>
@@ -18608,8 +18608,8 @@
       <c r="B70" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C70" s="81"/>
-      <c r="D70" s="81"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="83"/>
       <c r="E70" s="23" t="s">
         <v>394</v>
       </c>
@@ -18621,8 +18621,8 @@
       <c r="B71" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
       <c r="E71" s="23" t="s">
         <v>394</v>
       </c>
@@ -18634,8 +18634,8 @@
       <c r="B72" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C72" s="81"/>
-      <c r="D72" s="81"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
       <c r="E72" s="23" t="s">
         <v>394</v>
       </c>
@@ -18647,8 +18647,8 @@
       <c r="B73" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C73" s="81"/>
-      <c r="D73" s="81"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
       <c r="E73" s="23" t="s">
         <v>394</v>
       </c>
@@ -18660,8 +18660,8 @@
       <c r="B74" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C74" s="81"/>
-      <c r="D74" s="81"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
       <c r="E74" s="23" t="s">
         <v>394</v>
       </c>
@@ -18673,8 +18673,8 @@
       <c r="B75" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C75" s="81"/>
-      <c r="D75" s="81"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
       <c r="E75" s="23" t="s">
         <v>394</v>
       </c>
@@ -18686,8 +18686,8 @@
       <c r="B76" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C76" s="81"/>
-      <c r="D76" s="81"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
       <c r="E76" s="23" t="s">
         <v>394</v>
       </c>
@@ -18699,8 +18699,8 @@
       <c r="B77" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C77" s="81"/>
-      <c r="D77" s="81"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
       <c r="E77" s="23" t="s">
         <v>394</v>
       </c>
@@ -18712,8 +18712,8 @@
       <c r="B78" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C78" s="81"/>
-      <c r="D78" s="81"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="83"/>
       <c r="E78" s="23" t="s">
         <v>394</v>
       </c>
@@ -18725,8 +18725,8 @@
       <c r="B79" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C79" s="81"/>
-      <c r="D79" s="81"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="83"/>
       <c r="E79" s="23" t="s">
         <v>394</v>
       </c>
@@ -18738,8 +18738,8 @@
       <c r="B80" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C80" s="81"/>
-      <c r="D80" s="81"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="83"/>
       <c r="E80" s="23" t="s">
         <v>394</v>
       </c>
@@ -18751,8 +18751,8 @@
       <c r="B81" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C81" s="81"/>
-      <c r="D81" s="81"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="83"/>
       <c r="E81" s="23" t="s">
         <v>394</v>
       </c>
@@ -18764,8 +18764,8 @@
       <c r="B82" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C82" s="81"/>
-      <c r="D82" s="81"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="83"/>
       <c r="E82" s="23" t="s">
         <v>394</v>
       </c>
@@ -18777,8 +18777,8 @@
       <c r="B83" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C83" s="81"/>
-      <c r="D83" s="81"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
       <c r="E83" s="23" t="s">
         <v>394</v>
       </c>
@@ -18790,8 +18790,8 @@
       <c r="B84" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C84" s="81"/>
-      <c r="D84" s="81"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
       <c r="E84" s="23" t="s">
         <v>394</v>
       </c>
@@ -18803,8 +18803,8 @@
       <c r="B85" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C85" s="81"/>
-      <c r="D85" s="81"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="83"/>
       <c r="E85" s="23" t="s">
         <v>394</v>
       </c>
@@ -18816,8 +18816,8 @@
       <c r="B86" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C86" s="81"/>
-      <c r="D86" s="81"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="83"/>
       <c r="E86" s="23" t="s">
         <v>394</v>
       </c>
@@ -18829,8 +18829,8 @@
       <c r="B87" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C87" s="81"/>
-      <c r="D87" s="81"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="83"/>
       <c r="E87" s="23" t="s">
         <v>394</v>
       </c>
@@ -18842,8 +18842,8 @@
       <c r="B88" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C88" s="81"/>
-      <c r="D88" s="81"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
       <c r="E88" s="23" t="s">
         <v>394</v>
       </c>
@@ -18855,8 +18855,8 @@
       <c r="B89" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C89" s="81"/>
-      <c r="D89" s="81"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="83"/>
       <c r="E89" s="23" t="s">
         <v>394</v>
       </c>
@@ -18868,8 +18868,8 @@
       <c r="B90" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C90" s="81"/>
-      <c r="D90" s="81"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="83"/>
       <c r="E90" s="23" t="s">
         <v>394</v>
       </c>
@@ -18881,8 +18881,8 @@
       <c r="B91" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C91" s="81"/>
-      <c r="D91" s="81"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="83"/>
       <c r="E91" s="23" t="s">
         <v>394</v>
       </c>
@@ -18894,8 +18894,8 @@
       <c r="B92" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C92" s="81"/>
-      <c r="D92" s="81"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="83"/>
       <c r="E92" s="23" t="s">
         <v>394</v>
       </c>
@@ -18907,8 +18907,8 @@
       <c r="B93" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C93" s="82"/>
-      <c r="D93" s="82"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="84"/>
       <c r="E93" s="28" t="s">
         <v>394</v>
       </c>
@@ -18920,10 +18920,10 @@
       <c r="B94" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C94" s="80" t="s">
+      <c r="C94" s="85" t="s">
         <v>479</v>
       </c>
-      <c r="D94" s="80" t="s">
+      <c r="D94" s="85" t="s">
         <v>480</v>
       </c>
       <c r="E94" s="19" t="s">
@@ -18937,8 +18937,8 @@
       <c r="B95" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C95" s="81"/>
-      <c r="D95" s="81"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="83"/>
       <c r="E95" s="23" t="s">
         <v>481</v>
       </c>
@@ -18950,8 +18950,8 @@
       <c r="B96" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C96" s="81"/>
-      <c r="D96" s="81"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="83"/>
       <c r="E96" s="23" t="s">
         <v>481</v>
       </c>
@@ -18963,8 +18963,8 @@
       <c r="B97" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C97" s="81"/>
-      <c r="D97" s="81"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="83"/>
       <c r="E97" s="23" t="s">
         <v>481</v>
       </c>
@@ -18976,8 +18976,8 @@
       <c r="B98" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C98" s="81"/>
-      <c r="D98" s="81"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="83"/>
       <c r="E98" s="23" t="s">
         <v>481</v>
       </c>
@@ -18989,8 +18989,8 @@
       <c r="B99" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C99" s="81"/>
-      <c r="D99" s="81"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="83"/>
       <c r="E99" s="23" t="s">
         <v>481</v>
       </c>
@@ -19002,8 +19002,8 @@
       <c r="B100" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C100" s="81"/>
-      <c r="D100" s="81"/>
+      <c r="C100" s="83"/>
+      <c r="D100" s="83"/>
       <c r="E100" s="23" t="s">
         <v>481</v>
       </c>
@@ -19015,21 +19015,21 @@
       <c r="B101" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C101" s="81"/>
-      <c r="D101" s="81"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="83"/>
       <c r="E101" s="23" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="26" x14ac:dyDescent="0.3">
       <c r="A102" s="31" t="s">
         <v>489</v>
       </c>
       <c r="B102" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C102" s="81"/>
-      <c r="D102" s="81"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="83"/>
       <c r="E102" s="23" t="s">
         <v>481</v>
       </c>
@@ -19041,8 +19041,8 @@
       <c r="B103" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C103" s="81"/>
-      <c r="D103" s="81"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="83"/>
       <c r="E103" s="23" t="s">
         <v>481</v>
       </c>
@@ -19054,8 +19054,8 @@
       <c r="B104" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C104" s="81"/>
-      <c r="D104" s="81"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="83"/>
       <c r="E104" s="23" t="s">
         <v>481</v>
       </c>
@@ -19067,8 +19067,8 @@
       <c r="B105" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C105" s="81"/>
-      <c r="D105" s="81"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="83"/>
       <c r="E105" s="23" t="s">
         <v>481</v>
       </c>
@@ -19080,8 +19080,8 @@
       <c r="B106" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C106" s="81"/>
-      <c r="D106" s="81"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="83"/>
       <c r="E106" s="23" t="s">
         <v>481</v>
       </c>
@@ -19093,8 +19093,8 @@
       <c r="B107" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C107" s="81"/>
-      <c r="D107" s="81"/>
+      <c r="C107" s="83"/>
+      <c r="D107" s="83"/>
       <c r="E107" s="23" t="s">
         <v>481</v>
       </c>
@@ -19106,8 +19106,8 @@
       <c r="B108" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C108" s="81"/>
-      <c r="D108" s="81"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="83"/>
       <c r="E108" s="23" t="s">
         <v>481</v>
       </c>
@@ -19119,8 +19119,8 @@
       <c r="B109" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C109" s="81"/>
-      <c r="D109" s="81"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="83"/>
       <c r="E109" s="23" t="s">
         <v>481</v>
       </c>
@@ -19132,8 +19132,8 @@
       <c r="B110" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C110" s="81"/>
-      <c r="D110" s="81"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="83"/>
       <c r="E110" s="23" t="s">
         <v>481</v>
       </c>
@@ -19145,8 +19145,8 @@
       <c r="B111" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C111" s="81"/>
-      <c r="D111" s="81"/>
+      <c r="C111" s="83"/>
+      <c r="D111" s="83"/>
       <c r="E111" s="23" t="s">
         <v>481</v>
       </c>
@@ -19158,8 +19158,8 @@
       <c r="B112" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C112" s="81"/>
-      <c r="D112" s="81"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="83"/>
       <c r="E112" s="23" t="s">
         <v>481</v>
       </c>
@@ -19171,8 +19171,8 @@
       <c r="B113" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C113" s="81"/>
-      <c r="D113" s="81"/>
+      <c r="C113" s="83"/>
+      <c r="D113" s="83"/>
       <c r="E113" s="23" t="s">
         <v>481</v>
       </c>
@@ -19184,8 +19184,8 @@
       <c r="B114" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C114" s="81"/>
-      <c r="D114" s="81"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="83"/>
       <c r="E114" s="23" t="s">
         <v>481</v>
       </c>
@@ -19197,8 +19197,8 @@
       <c r="B115" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C115" s="81"/>
-      <c r="D115" s="81"/>
+      <c r="C115" s="83"/>
+      <c r="D115" s="83"/>
       <c r="E115" s="23" t="s">
         <v>481</v>
       </c>
@@ -19210,8 +19210,8 @@
       <c r="B116" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C116" s="81"/>
-      <c r="D116" s="81"/>
+      <c r="C116" s="83"/>
+      <c r="D116" s="83"/>
       <c r="E116" s="23" t="s">
         <v>481</v>
       </c>
@@ -19223,8 +19223,8 @@
       <c r="B117" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C117" s="81"/>
-      <c r="D117" s="81"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="83"/>
       <c r="E117" s="23" t="s">
         <v>481</v>
       </c>
@@ -19236,8 +19236,8 @@
       <c r="B118" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C118" s="81"/>
-      <c r="D118" s="81"/>
+      <c r="C118" s="83"/>
+      <c r="D118" s="83"/>
       <c r="E118" s="23" t="s">
         <v>481</v>
       </c>
@@ -19249,8 +19249,8 @@
       <c r="B119" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C119" s="81"/>
-      <c r="D119" s="81"/>
+      <c r="C119" s="83"/>
+      <c r="D119" s="83"/>
       <c r="E119" s="23" t="s">
         <v>481</v>
       </c>
@@ -19262,8 +19262,8 @@
       <c r="B120" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C120" s="81"/>
-      <c r="D120" s="81"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="83"/>
       <c r="E120" s="23" t="s">
         <v>481</v>
       </c>
@@ -19275,8 +19275,8 @@
       <c r="B121" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C121" s="82"/>
-      <c r="D121" s="82"/>
+      <c r="C121" s="84"/>
+      <c r="D121" s="84"/>
       <c r="E121" s="28" t="s">
         <v>481</v>
       </c>
@@ -19288,10 +19288,10 @@
       <c r="B122" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="C122" s="80" t="s">
+      <c r="C122" s="85" t="s">
         <v>511</v>
       </c>
-      <c r="D122" s="83" t="s">
+      <c r="D122" s="82" t="s">
         <v>348</v>
       </c>
       <c r="E122" s="19" t="s">
@@ -19305,8 +19305,8 @@
       <c r="B123" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C123" s="81"/>
-      <c r="D123" s="81"/>
+      <c r="C123" s="83"/>
+      <c r="D123" s="83"/>
       <c r="E123" s="23" t="s">
         <v>394</v>
       </c>
@@ -19318,8 +19318,8 @@
       <c r="B124" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C124" s="81"/>
-      <c r="D124" s="81"/>
+      <c r="C124" s="83"/>
+      <c r="D124" s="83"/>
       <c r="E124" s="23" t="s">
         <v>394</v>
       </c>
@@ -19331,8 +19331,8 @@
       <c r="B125" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C125" s="81"/>
-      <c r="D125" s="81"/>
+      <c r="C125" s="83"/>
+      <c r="D125" s="83"/>
       <c r="E125" s="23" t="s">
         <v>394</v>
       </c>
@@ -19344,8 +19344,8 @@
       <c r="B126" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C126" s="81"/>
-      <c r="D126" s="81"/>
+      <c r="C126" s="83"/>
+      <c r="D126" s="83"/>
       <c r="E126" s="23" t="s">
         <v>394</v>
       </c>
@@ -19357,8 +19357,8 @@
       <c r="B127" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C127" s="81"/>
-      <c r="D127" s="81"/>
+      <c r="C127" s="83"/>
+      <c r="D127" s="83"/>
       <c r="E127" s="23" t="s">
         <v>394</v>
       </c>
@@ -19370,8 +19370,8 @@
       <c r="B128" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="C128" s="82"/>
-      <c r="D128" s="82"/>
+      <c r="C128" s="84"/>
+      <c r="D128" s="84"/>
       <c r="E128" s="28" t="s">
         <v>394</v>
       </c>
@@ -19383,10 +19383,10 @@
       <c r="B129" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="C129" s="83" t="s">
-        <v>348</v>
-      </c>
-      <c r="D129" s="83" t="s">
+      <c r="C129" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="D129" s="82" t="s">
         <v>348</v>
       </c>
       <c r="E129" s="19" t="s">
@@ -19400,8 +19400,8 @@
       <c r="B130" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="C130" s="81"/>
-      <c r="D130" s="81"/>
+      <c r="C130" s="83"/>
+      <c r="D130" s="83"/>
       <c r="E130" s="23" t="s">
         <v>394</v>
       </c>
@@ -19413,8 +19413,8 @@
       <c r="B131" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="C131" s="82"/>
-      <c r="D131" s="82"/>
+      <c r="C131" s="84"/>
+      <c r="D131" s="84"/>
       <c r="E131" s="28" t="s">
         <v>394</v>
       </c>
@@ -19426,10 +19426,10 @@
       <c r="B132" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="C132" s="80" t="s">
+      <c r="C132" s="85" t="s">
         <v>524</v>
       </c>
-      <c r="D132" s="83" t="s">
+      <c r="D132" s="82" t="s">
         <v>348</v>
       </c>
       <c r="E132" s="19" t="s">
@@ -19443,8 +19443,8 @@
       <c r="B133" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C133" s="81"/>
-      <c r="D133" s="81"/>
+      <c r="C133" s="83"/>
+      <c r="D133" s="83"/>
       <c r="E133" s="23" t="s">
         <v>481</v>
       </c>
@@ -19456,8 +19456,8 @@
       <c r="B134" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C134" s="81"/>
-      <c r="D134" s="81"/>
+      <c r="C134" s="83"/>
+      <c r="D134" s="83"/>
       <c r="E134" s="23" t="s">
         <v>481</v>
       </c>
@@ -19469,8 +19469,8 @@
       <c r="B135" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C135" s="81"/>
-      <c r="D135" s="81"/>
+      <c r="C135" s="83"/>
+      <c r="D135" s="83"/>
       <c r="E135" s="23" t="s">
         <v>481</v>
       </c>
@@ -19482,8 +19482,8 @@
       <c r="B136" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C136" s="81"/>
-      <c r="D136" s="81"/>
+      <c r="C136" s="83"/>
+      <c r="D136" s="83"/>
       <c r="E136" s="23" t="s">
         <v>481</v>
       </c>
@@ -19495,8 +19495,8 @@
       <c r="B137" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C137" s="81"/>
-      <c r="D137" s="81"/>
+      <c r="C137" s="83"/>
+      <c r="D137" s="83"/>
       <c r="E137" s="23" t="s">
         <v>481</v>
       </c>
@@ -19508,8 +19508,8 @@
       <c r="B138" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C138" s="81"/>
-      <c r="D138" s="81"/>
+      <c r="C138" s="83"/>
+      <c r="D138" s="83"/>
       <c r="E138" s="23" t="s">
         <v>481</v>
       </c>
@@ -19521,8 +19521,8 @@
       <c r="B139" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C139" s="81"/>
-      <c r="D139" s="81"/>
+      <c r="C139" s="83"/>
+      <c r="D139" s="83"/>
       <c r="E139" s="23" t="s">
         <v>481</v>
       </c>
@@ -19534,8 +19534,8 @@
       <c r="B140" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C140" s="81"/>
-      <c r="D140" s="81"/>
+      <c r="C140" s="83"/>
+      <c r="D140" s="83"/>
       <c r="E140" s="23" t="s">
         <v>481</v>
       </c>
@@ -19547,8 +19547,8 @@
       <c r="B141" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C141" s="81"/>
-      <c r="D141" s="81"/>
+      <c r="C141" s="83"/>
+      <c r="D141" s="83"/>
       <c r="E141" s="23" t="s">
         <v>481</v>
       </c>
@@ -19560,8 +19560,8 @@
       <c r="B142" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C142" s="81"/>
-      <c r="D142" s="81"/>
+      <c r="C142" s="83"/>
+      <c r="D142" s="83"/>
       <c r="E142" s="23" t="s">
         <v>481</v>
       </c>
@@ -19573,8 +19573,8 @@
       <c r="B143" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C143" s="81"/>
-      <c r="D143" s="81"/>
+      <c r="C143" s="83"/>
+      <c r="D143" s="83"/>
       <c r="E143" s="23" t="s">
         <v>481</v>
       </c>
@@ -19586,8 +19586,8 @@
       <c r="B144" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C144" s="81"/>
-      <c r="D144" s="81"/>
+      <c r="C144" s="83"/>
+      <c r="D144" s="83"/>
       <c r="E144" s="23" t="s">
         <v>481</v>
       </c>
@@ -19599,8 +19599,8 @@
       <c r="B145" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C145" s="81"/>
-      <c r="D145" s="81"/>
+      <c r="C145" s="83"/>
+      <c r="D145" s="83"/>
       <c r="E145" s="23" t="s">
         <v>481</v>
       </c>
@@ -19612,8 +19612,8 @@
       <c r="B146" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C146" s="81"/>
-      <c r="D146" s="81"/>
+      <c r="C146" s="83"/>
+      <c r="D146" s="83"/>
       <c r="E146" s="23" t="s">
         <v>481</v>
       </c>
@@ -19625,8 +19625,8 @@
       <c r="B147" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C147" s="81"/>
-      <c r="D147" s="81"/>
+      <c r="C147" s="83"/>
+      <c r="D147" s="83"/>
       <c r="E147" s="23" t="s">
         <v>481</v>
       </c>
@@ -19638,8 +19638,8 @@
       <c r="B148" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C148" s="81"/>
-      <c r="D148" s="81"/>
+      <c r="C148" s="83"/>
+      <c r="D148" s="83"/>
       <c r="E148" s="23" t="s">
         <v>481</v>
       </c>
@@ -19651,8 +19651,8 @@
       <c r="B149" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C149" s="81"/>
-      <c r="D149" s="81"/>
+      <c r="C149" s="83"/>
+      <c r="D149" s="83"/>
       <c r="E149" s="23" t="s">
         <v>481</v>
       </c>
@@ -19664,8 +19664,8 @@
       <c r="B150" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C150" s="81"/>
-      <c r="D150" s="81"/>
+      <c r="C150" s="83"/>
+      <c r="D150" s="83"/>
       <c r="E150" s="23" t="s">
         <v>481</v>
       </c>
@@ -19677,8 +19677,8 @@
       <c r="B151" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C151" s="81"/>
-      <c r="D151" s="81"/>
+      <c r="C151" s="83"/>
+      <c r="D151" s="83"/>
       <c r="E151" s="23" t="s">
         <v>481</v>
       </c>
@@ -19690,8 +19690,8 @@
       <c r="B152" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C152" s="81"/>
-      <c r="D152" s="81"/>
+      <c r="C152" s="83"/>
+      <c r="D152" s="83"/>
       <c r="E152" s="23" t="s">
         <v>481</v>
       </c>
@@ -19703,8 +19703,8 @@
       <c r="B153" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C153" s="81"/>
-      <c r="D153" s="81"/>
+      <c r="C153" s="83"/>
+      <c r="D153" s="83"/>
       <c r="E153" s="23" t="s">
         <v>481</v>
       </c>
@@ -19716,8 +19716,8 @@
       <c r="B154" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C154" s="81"/>
-      <c r="D154" s="81"/>
+      <c r="C154" s="83"/>
+      <c r="D154" s="83"/>
       <c r="E154" s="23" t="s">
         <v>481</v>
       </c>
@@ -19729,8 +19729,8 @@
       <c r="B155" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C155" s="81"/>
-      <c r="D155" s="81"/>
+      <c r="C155" s="83"/>
+      <c r="D155" s="83"/>
       <c r="E155" s="23" t="s">
         <v>481</v>
       </c>
@@ -19742,8 +19742,8 @@
       <c r="B156" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C156" s="81"/>
-      <c r="D156" s="81"/>
+      <c r="C156" s="83"/>
+      <c r="D156" s="83"/>
       <c r="E156" s="23" t="s">
         <v>481</v>
       </c>
@@ -19755,8 +19755,8 @@
       <c r="B157" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C157" s="81"/>
-      <c r="D157" s="81"/>
+      <c r="C157" s="83"/>
+      <c r="D157" s="83"/>
       <c r="E157" s="23" t="s">
         <v>481</v>
       </c>
@@ -19768,8 +19768,8 @@
       <c r="B158" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C158" s="81"/>
-      <c r="D158" s="81"/>
+      <c r="C158" s="83"/>
+      <c r="D158" s="83"/>
       <c r="E158" s="23" t="s">
         <v>481</v>
       </c>
@@ -19781,8 +19781,8 @@
       <c r="B159" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C159" s="81"/>
-      <c r="D159" s="81"/>
+      <c r="C159" s="83"/>
+      <c r="D159" s="83"/>
       <c r="E159" s="23" t="s">
         <v>481</v>
       </c>
@@ -19794,8 +19794,8 @@
       <c r="B160" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C160" s="81"/>
-      <c r="D160" s="81"/>
+      <c r="C160" s="83"/>
+      <c r="D160" s="83"/>
       <c r="E160" s="23" t="s">
         <v>481</v>
       </c>
@@ -19807,8 +19807,8 @@
       <c r="B161" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C161" s="81"/>
-      <c r="D161" s="81"/>
+      <c r="C161" s="83"/>
+      <c r="D161" s="83"/>
       <c r="E161" s="23" t="s">
         <v>481</v>
       </c>
@@ -19820,8 +19820,8 @@
       <c r="B162" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C162" s="81"/>
-      <c r="D162" s="81"/>
+      <c r="C162" s="83"/>
+      <c r="D162" s="83"/>
       <c r="E162" s="23" t="s">
         <v>481</v>
       </c>
@@ -19833,8 +19833,8 @@
       <c r="B163" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="C163" s="82"/>
-      <c r="D163" s="82"/>
+      <c r="C163" s="84"/>
+      <c r="D163" s="84"/>
       <c r="E163" s="28" t="s">
         <v>481</v>
       </c>
@@ -19846,10 +19846,10 @@
       <c r="B164" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="C164" s="83" t="s">
-        <v>348</v>
-      </c>
-      <c r="D164" s="83" t="s">
+      <c r="C164" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="D164" s="82" t="s">
         <v>348</v>
       </c>
       <c r="E164" s="19" t="s">
@@ -19863,8 +19863,8 @@
       <c r="B165" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="C165" s="81"/>
-      <c r="D165" s="81"/>
+      <c r="C165" s="83"/>
+      <c r="D165" s="83"/>
       <c r="E165" s="23" t="s">
         <v>481</v>
       </c>
@@ -19876,8 +19876,8 @@
       <c r="B166" s="27" t="s">
         <v>557</v>
       </c>
-      <c r="C166" s="82"/>
-      <c r="D166" s="82"/>
+      <c r="C166" s="84"/>
+      <c r="D166" s="84"/>
       <c r="E166" s="28" t="s">
         <v>481</v>
       </c>
@@ -19889,10 +19889,10 @@
       <c r="B167" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="C167" s="83" t="s">
-        <v>348</v>
-      </c>
-      <c r="D167" s="83" t="s">
+      <c r="C167" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="D167" s="82" t="s">
         <v>348</v>
       </c>
       <c r="E167" s="19" t="s">
@@ -19906,8 +19906,8 @@
       <c r="B168" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C168" s="81"/>
-      <c r="D168" s="81"/>
+      <c r="C168" s="83"/>
+      <c r="D168" s="83"/>
       <c r="E168" s="23" t="s">
         <v>383</v>
       </c>
@@ -19919,8 +19919,8 @@
       <c r="B169" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C169" s="81"/>
-      <c r="D169" s="81"/>
+      <c r="C169" s="83"/>
+      <c r="D169" s="83"/>
       <c r="E169" s="23" t="s">
         <v>383</v>
       </c>
@@ -19932,8 +19932,8 @@
       <c r="B170" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C170" s="81"/>
-      <c r="D170" s="81"/>
+      <c r="C170" s="83"/>
+      <c r="D170" s="83"/>
       <c r="E170" s="23" t="s">
         <v>383</v>
       </c>
@@ -19945,8 +19945,8 @@
       <c r="B171" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C171" s="81"/>
-      <c r="D171" s="81"/>
+      <c r="C171" s="83"/>
+      <c r="D171" s="83"/>
       <c r="E171" s="23" t="s">
         <v>383</v>
       </c>
@@ -19958,8 +19958,8 @@
       <c r="B172" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C172" s="81"/>
-      <c r="D172" s="81"/>
+      <c r="C172" s="83"/>
+      <c r="D172" s="83"/>
       <c r="E172" s="23" t="s">
         <v>383</v>
       </c>
@@ -19971,8 +19971,8 @@
       <c r="B173" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C173" s="81"/>
-      <c r="D173" s="81"/>
+      <c r="C173" s="83"/>
+      <c r="D173" s="83"/>
       <c r="E173" s="23" t="s">
         <v>383</v>
       </c>
@@ -19984,8 +19984,8 @@
       <c r="B174" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C174" s="81"/>
-      <c r="D174" s="81"/>
+      <c r="C174" s="83"/>
+      <c r="D174" s="83"/>
       <c r="E174" s="23" t="s">
         <v>383</v>
       </c>
@@ -19997,8 +19997,8 @@
       <c r="B175" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C175" s="81"/>
-      <c r="D175" s="81"/>
+      <c r="C175" s="83"/>
+      <c r="D175" s="83"/>
       <c r="E175" s="23" t="s">
         <v>383</v>
       </c>
@@ -20010,8 +20010,8 @@
       <c r="B176" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C176" s="81"/>
-      <c r="D176" s="81"/>
+      <c r="C176" s="83"/>
+      <c r="D176" s="83"/>
       <c r="E176" s="23" t="s">
         <v>383</v>
       </c>
@@ -20023,8 +20023,8 @@
       <c r="B177" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C177" s="81"/>
-      <c r="D177" s="81"/>
+      <c r="C177" s="83"/>
+      <c r="D177" s="83"/>
       <c r="E177" s="23" t="s">
         <v>383</v>
       </c>
@@ -20036,8 +20036,8 @@
       <c r="B178" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C178" s="81"/>
-      <c r="D178" s="81"/>
+      <c r="C178" s="83"/>
+      <c r="D178" s="83"/>
       <c r="E178" s="23" t="s">
         <v>383</v>
       </c>
@@ -20049,8 +20049,8 @@
       <c r="B179" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C179" s="81"/>
-      <c r="D179" s="81"/>
+      <c r="C179" s="83"/>
+      <c r="D179" s="83"/>
       <c r="E179" s="23" t="s">
         <v>383</v>
       </c>
@@ -20062,8 +20062,8 @@
       <c r="B180" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C180" s="81"/>
-      <c r="D180" s="81"/>
+      <c r="C180" s="83"/>
+      <c r="D180" s="83"/>
       <c r="E180" s="23" t="s">
         <v>383</v>
       </c>
@@ -20075,8 +20075,8 @@
       <c r="B181" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C181" s="81"/>
-      <c r="D181" s="81"/>
+      <c r="C181" s="83"/>
+      <c r="D181" s="83"/>
       <c r="E181" s="23" t="s">
         <v>383</v>
       </c>
@@ -20088,8 +20088,8 @@
       <c r="B182" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C182" s="81"/>
-      <c r="D182" s="81"/>
+      <c r="C182" s="83"/>
+      <c r="D182" s="83"/>
       <c r="E182" s="23" t="s">
         <v>383</v>
       </c>
@@ -20101,8 +20101,8 @@
       <c r="B183" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C183" s="81"/>
-      <c r="D183" s="81"/>
+      <c r="C183" s="83"/>
+      <c r="D183" s="83"/>
       <c r="E183" s="23" t="s">
         <v>383</v>
       </c>
@@ -20114,8 +20114,8 @@
       <c r="B184" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C184" s="81"/>
-      <c r="D184" s="81"/>
+      <c r="C184" s="83"/>
+      <c r="D184" s="83"/>
       <c r="E184" s="23" t="s">
         <v>383</v>
       </c>
@@ -20127,8 +20127,8 @@
       <c r="B185" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C185" s="81"/>
-      <c r="D185" s="81"/>
+      <c r="C185" s="83"/>
+      <c r="D185" s="83"/>
       <c r="E185" s="23" t="s">
         <v>383</v>
       </c>
@@ -20140,8 +20140,8 @@
       <c r="B186" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C186" s="81"/>
-      <c r="D186" s="81"/>
+      <c r="C186" s="83"/>
+      <c r="D186" s="83"/>
       <c r="E186" s="23" t="s">
         <v>383</v>
       </c>
@@ -20153,8 +20153,8 @@
       <c r="B187" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="C187" s="82"/>
-      <c r="D187" s="82"/>
+      <c r="C187" s="84"/>
+      <c r="D187" s="84"/>
       <c r="E187" s="28" t="s">
         <v>383</v>
       </c>
@@ -20166,10 +20166,10 @@
       <c r="B188" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="C188" s="83" t="s">
+      <c r="C188" s="82" t="s">
         <v>579</v>
       </c>
-      <c r="D188" s="83" t="s">
+      <c r="D188" s="82" t="s">
         <v>348</v>
       </c>
       <c r="E188" s="19" t="s">
@@ -20183,8 +20183,8 @@
       <c r="B189" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C189" s="81"/>
-      <c r="D189" s="81"/>
+      <c r="C189" s="83"/>
+      <c r="D189" s="83"/>
       <c r="E189" s="23" t="s">
         <v>394</v>
       </c>
@@ -20196,8 +20196,8 @@
       <c r="B190" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C190" s="81"/>
-      <c r="D190" s="81"/>
+      <c r="C190" s="83"/>
+      <c r="D190" s="83"/>
       <c r="E190" s="23" t="s">
         <v>394</v>
       </c>
@@ -20209,8 +20209,8 @@
       <c r="B191" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C191" s="81"/>
-      <c r="D191" s="81"/>
+      <c r="C191" s="83"/>
+      <c r="D191" s="83"/>
       <c r="E191" s="23" t="s">
         <v>394</v>
       </c>
@@ -20222,8 +20222,8 @@
       <c r="B192" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C192" s="81"/>
-      <c r="D192" s="81"/>
+      <c r="C192" s="83"/>
+      <c r="D192" s="83"/>
       <c r="E192" s="23" t="s">
         <v>394</v>
       </c>
@@ -20235,8 +20235,8 @@
       <c r="B193" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C193" s="81"/>
-      <c r="D193" s="81"/>
+      <c r="C193" s="83"/>
+      <c r="D193" s="83"/>
       <c r="E193" s="23" t="s">
         <v>394</v>
       </c>
@@ -20248,8 +20248,8 @@
       <c r="B194" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C194" s="81"/>
-      <c r="D194" s="81"/>
+      <c r="C194" s="83"/>
+      <c r="D194" s="83"/>
       <c r="E194" s="23" t="s">
         <v>394</v>
       </c>
@@ -20261,8 +20261,8 @@
       <c r="B195" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C195" s="81"/>
-      <c r="D195" s="81"/>
+      <c r="C195" s="83"/>
+      <c r="D195" s="83"/>
       <c r="E195" s="23" t="s">
         <v>394</v>
       </c>
@@ -20274,8 +20274,8 @@
       <c r="B196" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C196" s="81"/>
-      <c r="D196" s="81"/>
+      <c r="C196" s="83"/>
+      <c r="D196" s="83"/>
       <c r="E196" s="23" t="s">
         <v>394</v>
       </c>
@@ -20287,8 +20287,8 @@
       <c r="B197" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C197" s="81"/>
-      <c r="D197" s="81"/>
+      <c r="C197" s="83"/>
+      <c r="D197" s="83"/>
       <c r="E197" s="23" t="s">
         <v>394</v>
       </c>
@@ -20300,8 +20300,8 @@
       <c r="B198" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C198" s="81"/>
-      <c r="D198" s="81"/>
+      <c r="C198" s="83"/>
+      <c r="D198" s="83"/>
       <c r="E198" s="23" t="s">
         <v>394</v>
       </c>
@@ -20313,8 +20313,8 @@
       <c r="B199" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C199" s="81"/>
-      <c r="D199" s="81"/>
+      <c r="C199" s="83"/>
+      <c r="D199" s="83"/>
       <c r="E199" s="23" t="s">
         <v>394</v>
       </c>
@@ -20326,8 +20326,8 @@
       <c r="B200" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C200" s="81"/>
-      <c r="D200" s="81"/>
+      <c r="C200" s="83"/>
+      <c r="D200" s="83"/>
       <c r="E200" s="23" t="s">
         <v>394</v>
       </c>
@@ -20339,8 +20339,8 @@
       <c r="B201" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C201" s="81"/>
-      <c r="D201" s="81"/>
+      <c r="C201" s="83"/>
+      <c r="D201" s="83"/>
       <c r="E201" s="23" t="s">
         <v>394</v>
       </c>
@@ -20352,8 +20352,8 @@
       <c r="B202" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C202" s="81"/>
-      <c r="D202" s="81"/>
+      <c r="C202" s="83"/>
+      <c r="D202" s="83"/>
       <c r="E202" s="23" t="s">
         <v>394</v>
       </c>
@@ -20365,8 +20365,8 @@
       <c r="B203" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C203" s="81"/>
-      <c r="D203" s="81"/>
+      <c r="C203" s="83"/>
+      <c r="D203" s="83"/>
       <c r="E203" s="23" t="s">
         <v>394</v>
       </c>
@@ -20378,8 +20378,8 @@
       <c r="B204" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C204" s="81"/>
-      <c r="D204" s="81"/>
+      <c r="C204" s="83"/>
+      <c r="D204" s="83"/>
       <c r="E204" s="23" t="s">
         <v>394</v>
       </c>
@@ -20391,8 +20391,8 @@
       <c r="B205" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C205" s="81"/>
-      <c r="D205" s="81"/>
+      <c r="C205" s="83"/>
+      <c r="D205" s="83"/>
       <c r="E205" s="23" t="s">
         <v>394</v>
       </c>
@@ -20404,8 +20404,8 @@
       <c r="B206" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C206" s="81"/>
-      <c r="D206" s="81"/>
+      <c r="C206" s="83"/>
+      <c r="D206" s="83"/>
       <c r="E206" s="23" t="s">
         <v>394</v>
       </c>
@@ -20417,8 +20417,8 @@
       <c r="B207" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C207" s="81"/>
-      <c r="D207" s="81"/>
+      <c r="C207" s="83"/>
+      <c r="D207" s="83"/>
       <c r="E207" s="23" t="s">
         <v>394</v>
       </c>
@@ -20430,8 +20430,8 @@
       <c r="B208" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C208" s="81"/>
-      <c r="D208" s="81"/>
+      <c r="C208" s="83"/>
+      <c r="D208" s="83"/>
       <c r="E208" s="23" t="s">
         <v>394</v>
       </c>
@@ -20443,8 +20443,8 @@
       <c r="B209" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C209" s="81"/>
-      <c r="D209" s="81"/>
+      <c r="C209" s="83"/>
+      <c r="D209" s="83"/>
       <c r="E209" s="23" t="s">
         <v>394</v>
       </c>
@@ -20456,8 +20456,8 @@
       <c r="B210" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C210" s="81"/>
-      <c r="D210" s="81"/>
+      <c r="C210" s="83"/>
+      <c r="D210" s="83"/>
       <c r="E210" s="23" t="s">
         <v>394</v>
       </c>
@@ -20469,8 +20469,8 @@
       <c r="B211" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C211" s="81"/>
-      <c r="D211" s="81"/>
+      <c r="C211" s="83"/>
+      <c r="D211" s="83"/>
       <c r="E211" s="23" t="s">
         <v>394</v>
       </c>
@@ -20482,8 +20482,8 @@
       <c r="B212" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C212" s="81"/>
-      <c r="D212" s="81"/>
+      <c r="C212" s="83"/>
+      <c r="D212" s="83"/>
       <c r="E212" s="23" t="s">
         <v>394</v>
       </c>
@@ -20495,8 +20495,8 @@
       <c r="B213" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C213" s="81"/>
-      <c r="D213" s="81"/>
+      <c r="C213" s="83"/>
+      <c r="D213" s="83"/>
       <c r="E213" s="23" t="s">
         <v>394</v>
       </c>
@@ -20508,8 +20508,8 @@
       <c r="B214" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C214" s="81"/>
-      <c r="D214" s="81"/>
+      <c r="C214" s="83"/>
+      <c r="D214" s="83"/>
       <c r="E214" s="23" t="s">
         <v>394</v>
       </c>
@@ -20521,8 +20521,8 @@
       <c r="B215" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="C215" s="82"/>
-      <c r="D215" s="82"/>
+      <c r="C215" s="84"/>
+      <c r="D215" s="84"/>
       <c r="E215" s="28" t="s">
         <v>394</v>
       </c>
@@ -20534,10 +20534,10 @@
       <c r="B216" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="C216" s="80" t="s">
+      <c r="C216" s="85" t="s">
         <v>608</v>
       </c>
-      <c r="D216" s="80" t="s">
+      <c r="D216" s="85" t="s">
         <v>609</v>
       </c>
       <c r="E216" s="19" t="s">
@@ -20551,8 +20551,8 @@
       <c r="B217" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C217" s="81"/>
-      <c r="D217" s="81"/>
+      <c r="C217" s="83"/>
+      <c r="D217" s="83"/>
       <c r="E217" s="23" t="s">
         <v>394</v>
       </c>
@@ -20564,8 +20564,8 @@
       <c r="B218" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C218" s="81"/>
-      <c r="D218" s="81"/>
+      <c r="C218" s="83"/>
+      <c r="D218" s="83"/>
       <c r="E218" s="23" t="s">
         <v>394</v>
       </c>
@@ -20577,8 +20577,8 @@
       <c r="B219" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C219" s="81"/>
-      <c r="D219" s="81"/>
+      <c r="C219" s="83"/>
+      <c r="D219" s="83"/>
       <c r="E219" s="23" t="s">
         <v>394</v>
       </c>
@@ -20590,8 +20590,8 @@
       <c r="B220" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C220" s="81"/>
-      <c r="D220" s="81"/>
+      <c r="C220" s="83"/>
+      <c r="D220" s="83"/>
       <c r="E220" s="23" t="s">
         <v>394</v>
       </c>
@@ -20603,8 +20603,8 @@
       <c r="B221" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C221" s="81"/>
-      <c r="D221" s="81"/>
+      <c r="C221" s="83"/>
+      <c r="D221" s="83"/>
       <c r="E221" s="23" t="s">
         <v>394</v>
       </c>
@@ -20616,8 +20616,8 @@
       <c r="B222" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C222" s="81"/>
-      <c r="D222" s="81"/>
+      <c r="C222" s="83"/>
+      <c r="D222" s="83"/>
       <c r="E222" s="23" t="s">
         <v>394</v>
       </c>
@@ -20629,8 +20629,8 @@
       <c r="B223" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C223" s="81"/>
-      <c r="D223" s="81"/>
+      <c r="C223" s="83"/>
+      <c r="D223" s="83"/>
       <c r="E223" s="23" t="s">
         <v>394</v>
       </c>
@@ -20642,8 +20642,8 @@
       <c r="B224" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C224" s="81"/>
-      <c r="D224" s="81"/>
+      <c r="C224" s="83"/>
+      <c r="D224" s="83"/>
       <c r="E224" s="23" t="s">
         <v>394</v>
       </c>
@@ -20655,8 +20655,8 @@
       <c r="B225" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C225" s="81"/>
-      <c r="D225" s="81"/>
+      <c r="C225" s="83"/>
+      <c r="D225" s="83"/>
       <c r="E225" s="23" t="s">
         <v>394</v>
       </c>
@@ -20668,8 +20668,8 @@
       <c r="B226" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C226" s="81"/>
-      <c r="D226" s="81"/>
+      <c r="C226" s="83"/>
+      <c r="D226" s="83"/>
       <c r="E226" s="23" t="s">
         <v>394</v>
       </c>
@@ -20681,8 +20681,8 @@
       <c r="B227" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C227" s="81"/>
-      <c r="D227" s="81"/>
+      <c r="C227" s="83"/>
+      <c r="D227" s="83"/>
       <c r="E227" s="23" t="s">
         <v>394</v>
       </c>
@@ -20694,8 +20694,8 @@
       <c r="B228" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C228" s="81"/>
-      <c r="D228" s="81"/>
+      <c r="C228" s="83"/>
+      <c r="D228" s="83"/>
       <c r="E228" s="23" t="s">
         <v>394</v>
       </c>
@@ -20707,8 +20707,8 @@
       <c r="B229" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C229" s="81"/>
-      <c r="D229" s="81"/>
+      <c r="C229" s="83"/>
+      <c r="D229" s="83"/>
       <c r="E229" s="23" t="s">
         <v>394</v>
       </c>
@@ -20720,8 +20720,8 @@
       <c r="B230" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C230" s="81"/>
-      <c r="D230" s="81"/>
+      <c r="C230" s="83"/>
+      <c r="D230" s="83"/>
       <c r="E230" s="23" t="s">
         <v>394</v>
       </c>
@@ -20733,8 +20733,8 @@
       <c r="B231" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C231" s="81"/>
-      <c r="D231" s="81"/>
+      <c r="C231" s="83"/>
+      <c r="D231" s="83"/>
       <c r="E231" s="23" t="s">
         <v>394</v>
       </c>
@@ -20746,8 +20746,8 @@
       <c r="B232" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C232" s="81"/>
-      <c r="D232" s="81"/>
+      <c r="C232" s="83"/>
+      <c r="D232" s="83"/>
       <c r="E232" s="23" t="s">
         <v>394</v>
       </c>
@@ -20759,8 +20759,8 @@
       <c r="B233" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C233" s="81"/>
-      <c r="D233" s="81"/>
+      <c r="C233" s="83"/>
+      <c r="D233" s="83"/>
       <c r="E233" s="23" t="s">
         <v>394</v>
       </c>
@@ -20772,8 +20772,8 @@
       <c r="B234" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C234" s="81"/>
-      <c r="D234" s="81"/>
+      <c r="C234" s="83"/>
+      <c r="D234" s="83"/>
       <c r="E234" s="23" t="s">
         <v>394</v>
       </c>
@@ -20785,8 +20785,8 @@
       <c r="B235" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C235" s="81"/>
-      <c r="D235" s="81"/>
+      <c r="C235" s="83"/>
+      <c r="D235" s="83"/>
       <c r="E235" s="23" t="s">
         <v>394</v>
       </c>
@@ -20798,8 +20798,8 @@
       <c r="B236" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C236" s="81"/>
-      <c r="D236" s="81"/>
+      <c r="C236" s="83"/>
+      <c r="D236" s="83"/>
       <c r="E236" s="23" t="s">
         <v>394</v>
       </c>
@@ -20811,8 +20811,8 @@
       <c r="B237" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C237" s="81"/>
-      <c r="D237" s="81"/>
+      <c r="C237" s="83"/>
+      <c r="D237" s="83"/>
       <c r="E237" s="23" t="s">
         <v>394</v>
       </c>
@@ -20824,8 +20824,8 @@
       <c r="B238" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C238" s="81"/>
-      <c r="D238" s="81"/>
+      <c r="C238" s="83"/>
+      <c r="D238" s="83"/>
       <c r="E238" s="23" t="s">
         <v>394</v>
       </c>
@@ -20837,8 +20837,8 @@
       <c r="B239" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C239" s="81"/>
-      <c r="D239" s="81"/>
+      <c r="C239" s="83"/>
+      <c r="D239" s="83"/>
       <c r="E239" s="23" t="s">
         <v>394</v>
       </c>
@@ -20850,8 +20850,8 @@
       <c r="B240" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C240" s="81"/>
-      <c r="D240" s="81"/>
+      <c r="C240" s="83"/>
+      <c r="D240" s="83"/>
       <c r="E240" s="23" t="s">
         <v>394</v>
       </c>
@@ -20863,8 +20863,8 @@
       <c r="B241" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C241" s="81"/>
-      <c r="D241" s="81"/>
+      <c r="C241" s="83"/>
+      <c r="D241" s="83"/>
       <c r="E241" s="23" t="s">
         <v>394</v>
       </c>
@@ -20876,8 +20876,8 @@
       <c r="B242" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C242" s="81"/>
-      <c r="D242" s="81"/>
+      <c r="C242" s="83"/>
+      <c r="D242" s="83"/>
       <c r="E242" s="23" t="s">
         <v>394</v>
       </c>
@@ -20889,8 +20889,8 @@
       <c r="B243" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C243" s="81"/>
-      <c r="D243" s="81"/>
+      <c r="C243" s="83"/>
+      <c r="D243" s="83"/>
       <c r="E243" s="23" t="s">
         <v>394</v>
       </c>
@@ -20902,8 +20902,8 @@
       <c r="B244" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C244" s="81"/>
-      <c r="D244" s="81"/>
+      <c r="C244" s="83"/>
+      <c r="D244" s="83"/>
       <c r="E244" s="23" t="s">
         <v>394</v>
       </c>
@@ -20915,8 +20915,8 @@
       <c r="B245" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C245" s="81"/>
-      <c r="D245" s="81"/>
+      <c r="C245" s="83"/>
+      <c r="D245" s="83"/>
       <c r="E245" s="23" t="s">
         <v>394</v>
       </c>
@@ -20928,8 +20928,8 @@
       <c r="B246" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C246" s="81"/>
-      <c r="D246" s="81"/>
+      <c r="C246" s="83"/>
+      <c r="D246" s="83"/>
       <c r="E246" s="23" t="s">
         <v>394</v>
       </c>
@@ -20941,8 +20941,8 @@
       <c r="B247" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C247" s="81"/>
-      <c r="D247" s="81"/>
+      <c r="C247" s="83"/>
+      <c r="D247" s="83"/>
       <c r="E247" s="23" t="s">
         <v>394</v>
       </c>
@@ -20954,8 +20954,8 @@
       <c r="B248" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C248" s="81"/>
-      <c r="D248" s="81"/>
+      <c r="C248" s="83"/>
+      <c r="D248" s="83"/>
       <c r="E248" s="23" t="s">
         <v>394</v>
       </c>
@@ -20967,8 +20967,8 @@
       <c r="B249" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C249" s="81"/>
-      <c r="D249" s="81"/>
+      <c r="C249" s="83"/>
+      <c r="D249" s="83"/>
       <c r="E249" s="23" t="s">
         <v>394</v>
       </c>
@@ -20980,8 +20980,8 @@
       <c r="B250" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C250" s="81"/>
-      <c r="D250" s="81"/>
+      <c r="C250" s="83"/>
+      <c r="D250" s="83"/>
       <c r="E250" s="23" t="s">
         <v>394</v>
       </c>
@@ -20993,8 +20993,8 @@
       <c r="B251" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C251" s="81"/>
-      <c r="D251" s="81"/>
+      <c r="C251" s="83"/>
+      <c r="D251" s="83"/>
       <c r="E251" s="23" t="s">
         <v>394</v>
       </c>
@@ -21006,8 +21006,8 @@
       <c r="B252" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C252" s="81"/>
-      <c r="D252" s="81"/>
+      <c r="C252" s="83"/>
+      <c r="D252" s="83"/>
       <c r="E252" s="23" t="s">
         <v>394</v>
       </c>
@@ -21019,8 +21019,8 @@
       <c r="B253" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C253" s="81"/>
-      <c r="D253" s="81"/>
+      <c r="C253" s="83"/>
+      <c r="D253" s="83"/>
       <c r="E253" s="23" t="s">
         <v>394</v>
       </c>
@@ -21032,8 +21032,8 @@
       <c r="B254" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C254" s="81"/>
-      <c r="D254" s="81"/>
+      <c r="C254" s="83"/>
+      <c r="D254" s="83"/>
       <c r="E254" s="23" t="s">
         <v>394</v>
       </c>
@@ -21045,8 +21045,8 @@
       <c r="B255" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C255" s="81"/>
-      <c r="D255" s="81"/>
+      <c r="C255" s="83"/>
+      <c r="D255" s="83"/>
       <c r="E255" s="23" t="s">
         <v>394</v>
       </c>
@@ -21058,8 +21058,8 @@
       <c r="B256" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C256" s="81"/>
-      <c r="D256" s="81"/>
+      <c r="C256" s="83"/>
+      <c r="D256" s="83"/>
       <c r="E256" s="23" t="s">
         <v>394</v>
       </c>
@@ -21071,8 +21071,8 @@
       <c r="B257" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C257" s="81"/>
-      <c r="D257" s="81"/>
+      <c r="C257" s="83"/>
+      <c r="D257" s="83"/>
       <c r="E257" s="23" t="s">
         <v>394</v>
       </c>
@@ -21084,8 +21084,8 @@
       <c r="B258" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C258" s="81"/>
-      <c r="D258" s="81"/>
+      <c r="C258" s="83"/>
+      <c r="D258" s="83"/>
       <c r="E258" s="23" t="s">
         <v>394</v>
       </c>
@@ -21097,8 +21097,8 @@
       <c r="B259" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C259" s="81"/>
-      <c r="D259" s="81"/>
+      <c r="C259" s="83"/>
+      <c r="D259" s="83"/>
       <c r="E259" s="23" t="s">
         <v>394</v>
       </c>
@@ -21110,8 +21110,8 @@
       <c r="B260" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C260" s="81"/>
-      <c r="D260" s="81"/>
+      <c r="C260" s="83"/>
+      <c r="D260" s="83"/>
       <c r="E260" s="23" t="s">
         <v>394</v>
       </c>
@@ -21123,8 +21123,8 @@
       <c r="B261" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C261" s="81"/>
-      <c r="D261" s="81"/>
+      <c r="C261" s="83"/>
+      <c r="D261" s="83"/>
       <c r="E261" s="23" t="s">
         <v>394</v>
       </c>
@@ -21136,8 +21136,8 @@
       <c r="B262" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C262" s="81"/>
-      <c r="D262" s="81"/>
+      <c r="C262" s="83"/>
+      <c r="D262" s="83"/>
       <c r="E262" s="23" t="s">
         <v>394</v>
       </c>
@@ -21149,8 +21149,8 @@
       <c r="B263" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C263" s="81"/>
-      <c r="D263" s="81"/>
+      <c r="C263" s="83"/>
+      <c r="D263" s="83"/>
       <c r="E263" s="23" t="s">
         <v>394</v>
       </c>
@@ -21162,8 +21162,8 @@
       <c r="B264" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C264" s="81"/>
-      <c r="D264" s="81"/>
+      <c r="C264" s="83"/>
+      <c r="D264" s="83"/>
       <c r="E264" s="23" t="s">
         <v>394</v>
       </c>
@@ -21175,8 +21175,8 @@
       <c r="B265" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C265" s="81"/>
-      <c r="D265" s="81"/>
+      <c r="C265" s="83"/>
+      <c r="D265" s="83"/>
       <c r="E265" s="23" t="s">
         <v>394</v>
       </c>
@@ -21188,8 +21188,8 @@
       <c r="B266" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C266" s="81"/>
-      <c r="D266" s="81"/>
+      <c r="C266" s="83"/>
+      <c r="D266" s="83"/>
       <c r="E266" s="23" t="s">
         <v>394</v>
       </c>
@@ -21201,8 +21201,8 @@
       <c r="B267" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C267" s="81"/>
-      <c r="D267" s="81"/>
+      <c r="C267" s="83"/>
+      <c r="D267" s="83"/>
       <c r="E267" s="23" t="s">
         <v>394</v>
       </c>
@@ -21214,8 +21214,8 @@
       <c r="B268" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C268" s="81"/>
-      <c r="D268" s="81"/>
+      <c r="C268" s="83"/>
+      <c r="D268" s="83"/>
       <c r="E268" s="23" t="s">
         <v>394</v>
       </c>
@@ -21227,8 +21227,8 @@
       <c r="B269" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C269" s="81"/>
-      <c r="D269" s="81"/>
+      <c r="C269" s="83"/>
+      <c r="D269" s="83"/>
       <c r="E269" s="23" t="s">
         <v>394</v>
       </c>
@@ -21240,8 +21240,8 @@
       <c r="B270" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C270" s="81"/>
-      <c r="D270" s="81"/>
+      <c r="C270" s="83"/>
+      <c r="D270" s="83"/>
       <c r="E270" s="23" t="s">
         <v>394</v>
       </c>
@@ -21253,8 +21253,8 @@
       <c r="B271" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C271" s="81"/>
-      <c r="D271" s="81"/>
+      <c r="C271" s="83"/>
+      <c r="D271" s="83"/>
       <c r="E271" s="23" t="s">
         <v>394</v>
       </c>
@@ -21266,8 +21266,8 @@
       <c r="B272" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C272" s="81"/>
-      <c r="D272" s="81"/>
+      <c r="C272" s="83"/>
+      <c r="D272" s="83"/>
       <c r="E272" s="23" t="s">
         <v>394</v>
       </c>
@@ -21279,8 +21279,8 @@
       <c r="B273" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C273" s="81"/>
-      <c r="D273" s="81"/>
+      <c r="C273" s="83"/>
+      <c r="D273" s="83"/>
       <c r="E273" s="23" t="s">
         <v>394</v>
       </c>
@@ -21292,8 +21292,8 @@
       <c r="B274" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C274" s="81"/>
-      <c r="D274" s="81"/>
+      <c r="C274" s="83"/>
+      <c r="D274" s="83"/>
       <c r="E274" s="23" t="s">
         <v>394</v>
       </c>
@@ -21305,8 +21305,8 @@
       <c r="B275" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C275" s="81"/>
-      <c r="D275" s="81"/>
+      <c r="C275" s="83"/>
+      <c r="D275" s="83"/>
       <c r="E275" s="23" t="s">
         <v>394</v>
       </c>
@@ -21318,8 +21318,8 @@
       <c r="B276" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C276" s="81"/>
-      <c r="D276" s="81"/>
+      <c r="C276" s="83"/>
+      <c r="D276" s="83"/>
       <c r="E276" s="23" t="s">
         <v>394</v>
       </c>
@@ -21331,8 +21331,8 @@
       <c r="B277" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C277" s="81"/>
-      <c r="D277" s="81"/>
+      <c r="C277" s="83"/>
+      <c r="D277" s="83"/>
       <c r="E277" s="23" t="s">
         <v>394</v>
       </c>
@@ -21344,8 +21344,8 @@
       <c r="B278" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C278" s="81"/>
-      <c r="D278" s="81"/>
+      <c r="C278" s="83"/>
+      <c r="D278" s="83"/>
       <c r="E278" s="23" t="s">
         <v>394</v>
       </c>
@@ -21357,8 +21357,8 @@
       <c r="B279" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C279" s="81"/>
-      <c r="D279" s="81"/>
+      <c r="C279" s="83"/>
+      <c r="D279" s="83"/>
       <c r="E279" s="23" t="s">
         <v>394</v>
       </c>
@@ -21370,8 +21370,8 @@
       <c r="B280" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C280" s="81"/>
-      <c r="D280" s="81"/>
+      <c r="C280" s="83"/>
+      <c r="D280" s="83"/>
       <c r="E280" s="23" t="s">
         <v>394</v>
       </c>
@@ -21383,8 +21383,8 @@
       <c r="B281" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C281" s="81"/>
-      <c r="D281" s="81"/>
+      <c r="C281" s="83"/>
+      <c r="D281" s="83"/>
       <c r="E281" s="23" t="s">
         <v>394</v>
       </c>
@@ -21396,8 +21396,8 @@
       <c r="B282" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C282" s="81"/>
-      <c r="D282" s="81"/>
+      <c r="C282" s="83"/>
+      <c r="D282" s="83"/>
       <c r="E282" s="23" t="s">
         <v>394</v>
       </c>
@@ -21409,8 +21409,8 @@
       <c r="B283" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C283" s="81"/>
-      <c r="D283" s="81"/>
+      <c r="C283" s="83"/>
+      <c r="D283" s="83"/>
       <c r="E283" s="23" t="s">
         <v>394</v>
       </c>
@@ -21422,8 +21422,8 @@
       <c r="B284" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C284" s="81"/>
-      <c r="D284" s="81"/>
+      <c r="C284" s="83"/>
+      <c r="D284" s="83"/>
       <c r="E284" s="23" t="s">
         <v>394</v>
       </c>
@@ -21435,8 +21435,8 @@
       <c r="B285" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C285" s="81"/>
-      <c r="D285" s="81"/>
+      <c r="C285" s="83"/>
+      <c r="D285" s="83"/>
       <c r="E285" s="23" t="s">
         <v>394</v>
       </c>
@@ -21448,8 +21448,8 @@
       <c r="B286" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C286" s="81"/>
-      <c r="D286" s="81"/>
+      <c r="C286" s="83"/>
+      <c r="D286" s="83"/>
       <c r="E286" s="23" t="s">
         <v>394</v>
       </c>
@@ -21461,8 +21461,8 @@
       <c r="B287" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C287" s="81"/>
-      <c r="D287" s="81"/>
+      <c r="C287" s="83"/>
+      <c r="D287" s="83"/>
       <c r="E287" s="23" t="s">
         <v>394</v>
       </c>
@@ -21474,8 +21474,8 @@
       <c r="B288" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C288" s="81"/>
-      <c r="D288" s="81"/>
+      <c r="C288" s="83"/>
+      <c r="D288" s="83"/>
       <c r="E288" s="23" t="s">
         <v>394</v>
       </c>
@@ -21487,8 +21487,8 @@
       <c r="B289" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C289" s="81"/>
-      <c r="D289" s="81"/>
+      <c r="C289" s="83"/>
+      <c r="D289" s="83"/>
       <c r="E289" s="23" t="s">
         <v>394</v>
       </c>
@@ -21500,8 +21500,8 @@
       <c r="B290" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C290" s="81"/>
-      <c r="D290" s="81"/>
+      <c r="C290" s="83"/>
+      <c r="D290" s="83"/>
       <c r="E290" s="23" t="s">
         <v>394</v>
       </c>
@@ -21513,8 +21513,8 @@
       <c r="B291" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C291" s="81"/>
-      <c r="D291" s="81"/>
+      <c r="C291" s="83"/>
+      <c r="D291" s="83"/>
       <c r="E291" s="23" t="s">
         <v>394</v>
       </c>
@@ -21526,8 +21526,8 @@
       <c r="B292" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C292" s="81"/>
-      <c r="D292" s="81"/>
+      <c r="C292" s="83"/>
+      <c r="D292" s="83"/>
       <c r="E292" s="23" t="s">
         <v>394</v>
       </c>
@@ -21539,8 +21539,8 @@
       <c r="B293" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C293" s="81"/>
-      <c r="D293" s="81"/>
+      <c r="C293" s="83"/>
+      <c r="D293" s="83"/>
       <c r="E293" s="23" t="s">
         <v>394</v>
       </c>
@@ -21552,8 +21552,8 @@
       <c r="B294" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C294" s="81"/>
-      <c r="D294" s="81"/>
+      <c r="C294" s="83"/>
+      <c r="D294" s="83"/>
       <c r="E294" s="23" t="s">
         <v>394</v>
       </c>
@@ -21565,8 +21565,8 @@
       <c r="B295" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C295" s="81"/>
-      <c r="D295" s="81"/>
+      <c r="C295" s="83"/>
+      <c r="D295" s="83"/>
       <c r="E295" s="23" t="s">
         <v>394</v>
       </c>
@@ -21578,8 +21578,8 @@
       <c r="B296" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C296" s="81"/>
-      <c r="D296" s="81"/>
+      <c r="C296" s="83"/>
+      <c r="D296" s="83"/>
       <c r="E296" s="23" t="s">
         <v>394</v>
       </c>
@@ -21591,8 +21591,8 @@
       <c r="B297" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C297" s="81"/>
-      <c r="D297" s="81"/>
+      <c r="C297" s="83"/>
+      <c r="D297" s="83"/>
       <c r="E297" s="23" t="s">
         <v>394</v>
       </c>
@@ -21604,8 +21604,8 @@
       <c r="B298" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C298" s="81"/>
-      <c r="D298" s="81"/>
+      <c r="C298" s="83"/>
+      <c r="D298" s="83"/>
       <c r="E298" s="23" t="s">
         <v>394</v>
       </c>
@@ -21617,8 +21617,8 @@
       <c r="B299" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C299" s="81"/>
-      <c r="D299" s="81"/>
+      <c r="C299" s="83"/>
+      <c r="D299" s="83"/>
       <c r="E299" s="23" t="s">
         <v>394</v>
       </c>
@@ -21630,8 +21630,8 @@
       <c r="B300" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C300" s="81"/>
-      <c r="D300" s="81"/>
+      <c r="C300" s="83"/>
+      <c r="D300" s="83"/>
       <c r="E300" s="23" t="s">
         <v>394</v>
       </c>
@@ -21643,8 +21643,8 @@
       <c r="B301" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C301" s="81"/>
-      <c r="D301" s="81"/>
+      <c r="C301" s="83"/>
+      <c r="D301" s="83"/>
       <c r="E301" s="23" t="s">
         <v>394</v>
       </c>
@@ -21656,8 +21656,8 @@
       <c r="B302" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C302" s="81"/>
-      <c r="D302" s="81"/>
+      <c r="C302" s="83"/>
+      <c r="D302" s="83"/>
       <c r="E302" s="23" t="s">
         <v>394</v>
       </c>
@@ -21669,8 +21669,8 @@
       <c r="B303" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C303" s="81"/>
-      <c r="D303" s="81"/>
+      <c r="C303" s="83"/>
+      <c r="D303" s="83"/>
       <c r="E303" s="23" t="s">
         <v>394</v>
       </c>
@@ -21682,8 +21682,8 @@
       <c r="B304" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C304" s="81"/>
-      <c r="D304" s="81"/>
+      <c r="C304" s="83"/>
+      <c r="D304" s="83"/>
       <c r="E304" s="23" t="s">
         <v>394</v>
       </c>
@@ -21695,8 +21695,8 @@
       <c r="B305" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C305" s="81"/>
-      <c r="D305" s="81"/>
+      <c r="C305" s="83"/>
+      <c r="D305" s="83"/>
       <c r="E305" s="23" t="s">
         <v>394</v>
       </c>
@@ -21708,8 +21708,8 @@
       <c r="B306" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C306" s="81"/>
-      <c r="D306" s="81"/>
+      <c r="C306" s="83"/>
+      <c r="D306" s="83"/>
       <c r="E306" s="23" t="s">
         <v>394</v>
       </c>
@@ -21721,8 +21721,8 @@
       <c r="B307" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C307" s="81"/>
-      <c r="D307" s="81"/>
+      <c r="C307" s="83"/>
+      <c r="D307" s="83"/>
       <c r="E307" s="23" t="s">
         <v>394</v>
       </c>
@@ -21734,8 +21734,8 @@
       <c r="B308" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C308" s="81"/>
-      <c r="D308" s="81"/>
+      <c r="C308" s="83"/>
+      <c r="D308" s="83"/>
       <c r="E308" s="23" t="s">
         <v>394</v>
       </c>
@@ -21747,8 +21747,8 @@
       <c r="B309" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C309" s="81"/>
-      <c r="D309" s="81"/>
+      <c r="C309" s="83"/>
+      <c r="D309" s="83"/>
       <c r="E309" s="23" t="s">
         <v>394</v>
       </c>
@@ -21760,8 +21760,8 @@
       <c r="B310" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C310" s="81"/>
-      <c r="D310" s="81"/>
+      <c r="C310" s="83"/>
+      <c r="D310" s="83"/>
       <c r="E310" s="23" t="s">
         <v>394</v>
       </c>
@@ -21773,8 +21773,8 @@
       <c r="B311" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C311" s="81"/>
-      <c r="D311" s="81"/>
+      <c r="C311" s="83"/>
+      <c r="D311" s="83"/>
       <c r="E311" s="23" t="s">
         <v>394</v>
       </c>
@@ -21786,8 +21786,8 @@
       <c r="B312" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C312" s="81"/>
-      <c r="D312" s="81"/>
+      <c r="C312" s="83"/>
+      <c r="D312" s="83"/>
       <c r="E312" s="23" t="s">
         <v>394</v>
       </c>
@@ -21799,8 +21799,8 @@
       <c r="B313" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C313" s="81"/>
-      <c r="D313" s="81"/>
+      <c r="C313" s="83"/>
+      <c r="D313" s="83"/>
       <c r="E313" s="23" t="s">
         <v>394</v>
       </c>
@@ -21812,8 +21812,8 @@
       <c r="B314" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C314" s="81"/>
-      <c r="D314" s="81"/>
+      <c r="C314" s="83"/>
+      <c r="D314" s="83"/>
       <c r="E314" s="23" t="s">
         <v>394</v>
       </c>
@@ -21825,8 +21825,8 @@
       <c r="B315" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C315" s="81"/>
-      <c r="D315" s="81"/>
+      <c r="C315" s="83"/>
+      <c r="D315" s="83"/>
       <c r="E315" s="23" t="s">
         <v>394</v>
       </c>
@@ -21838,8 +21838,8 @@
       <c r="B316" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C316" s="81"/>
-      <c r="D316" s="81"/>
+      <c r="C316" s="83"/>
+      <c r="D316" s="83"/>
       <c r="E316" s="23" t="s">
         <v>394</v>
       </c>
@@ -21851,8 +21851,8 @@
       <c r="B317" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C317" s="81"/>
-      <c r="D317" s="81"/>
+      <c r="C317" s="83"/>
+      <c r="D317" s="83"/>
       <c r="E317" s="23" t="s">
         <v>394</v>
       </c>
@@ -21864,8 +21864,8 @@
       <c r="B318" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="C318" s="82"/>
-      <c r="D318" s="82"/>
+      <c r="C318" s="84"/>
+      <c r="D318" s="84"/>
       <c r="E318" s="28" t="s">
         <v>394</v>
       </c>
@@ -21877,10 +21877,10 @@
       <c r="B319" s="18" t="s">
         <v>709</v>
       </c>
-      <c r="C319" s="80" t="s">
+      <c r="C319" s="85" t="s">
         <v>710</v>
       </c>
-      <c r="D319" s="83" t="s">
+      <c r="D319" s="82" t="s">
         <v>348</v>
       </c>
       <c r="E319" s="19" t="s">
@@ -21894,8 +21894,8 @@
       <c r="B320" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C320" s="81"/>
-      <c r="D320" s="81"/>
+      <c r="C320" s="83"/>
+      <c r="D320" s="83"/>
       <c r="E320" s="23" t="s">
         <v>481</v>
       </c>
@@ -21907,8 +21907,8 @@
       <c r="B321" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C321" s="81"/>
-      <c r="D321" s="81"/>
+      <c r="C321" s="83"/>
+      <c r="D321" s="83"/>
       <c r="E321" s="23" t="s">
         <v>481</v>
       </c>
@@ -21920,8 +21920,8 @@
       <c r="B322" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C322" s="81"/>
-      <c r="D322" s="81"/>
+      <c r="C322" s="83"/>
+      <c r="D322" s="83"/>
       <c r="E322" s="23" t="s">
         <v>481</v>
       </c>
@@ -21933,8 +21933,8 @@
       <c r="B323" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C323" s="81"/>
-      <c r="D323" s="81"/>
+      <c r="C323" s="83"/>
+      <c r="D323" s="83"/>
       <c r="E323" s="23" t="s">
         <v>481</v>
       </c>
@@ -21946,8 +21946,8 @@
       <c r="B324" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C324" s="81"/>
-      <c r="D324" s="81"/>
+      <c r="C324" s="83"/>
+      <c r="D324" s="83"/>
       <c r="E324" s="23" t="s">
         <v>481</v>
       </c>
@@ -21959,8 +21959,8 @@
       <c r="B325" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C325" s="81"/>
-      <c r="D325" s="81"/>
+      <c r="C325" s="83"/>
+      <c r="D325" s="83"/>
       <c r="E325" s="23" t="s">
         <v>481</v>
       </c>
@@ -21972,8 +21972,8 @@
       <c r="B326" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C326" s="81"/>
-      <c r="D326" s="81"/>
+      <c r="C326" s="83"/>
+      <c r="D326" s="83"/>
       <c r="E326" s="23" t="s">
         <v>481</v>
       </c>
@@ -21985,8 +21985,8 @@
       <c r="B327" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C327" s="81"/>
-      <c r="D327" s="81"/>
+      <c r="C327" s="83"/>
+      <c r="D327" s="83"/>
       <c r="E327" s="23" t="s">
         <v>481</v>
       </c>
@@ -21998,8 +21998,8 @@
       <c r="B328" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C328" s="81"/>
-      <c r="D328" s="81"/>
+      <c r="C328" s="83"/>
+      <c r="D328" s="83"/>
       <c r="E328" s="23" t="s">
         <v>481</v>
       </c>
@@ -22011,8 +22011,8 @@
       <c r="B329" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C329" s="81"/>
-      <c r="D329" s="81"/>
+      <c r="C329" s="83"/>
+      <c r="D329" s="83"/>
       <c r="E329" s="23" t="s">
         <v>481</v>
       </c>
@@ -22024,8 +22024,8 @@
       <c r="B330" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C330" s="81"/>
-      <c r="D330" s="81"/>
+      <c r="C330" s="83"/>
+      <c r="D330" s="83"/>
       <c r="E330" s="23" t="s">
         <v>481</v>
       </c>
@@ -22037,8 +22037,8 @@
       <c r="B331" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C331" s="81"/>
-      <c r="D331" s="81"/>
+      <c r="C331" s="83"/>
+      <c r="D331" s="83"/>
       <c r="E331" s="23" t="s">
         <v>481</v>
       </c>
@@ -22050,8 +22050,8 @@
       <c r="B332" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C332" s="81"/>
-      <c r="D332" s="81"/>
+      <c r="C332" s="83"/>
+      <c r="D332" s="83"/>
       <c r="E332" s="23" t="s">
         <v>481</v>
       </c>
@@ -22063,8 +22063,8 @@
       <c r="B333" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C333" s="81"/>
-      <c r="D333" s="81"/>
+      <c r="C333" s="83"/>
+      <c r="D333" s="83"/>
       <c r="E333" s="23" t="s">
         <v>481</v>
       </c>
@@ -22076,8 +22076,8 @@
       <c r="B334" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C334" s="81"/>
-      <c r="D334" s="81"/>
+      <c r="C334" s="83"/>
+      <c r="D334" s="83"/>
       <c r="E334" s="23" t="s">
         <v>481</v>
       </c>
@@ -22089,8 +22089,8 @@
       <c r="B335" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C335" s="81"/>
-      <c r="D335" s="81"/>
+      <c r="C335" s="83"/>
+      <c r="D335" s="83"/>
       <c r="E335" s="23" t="s">
         <v>481</v>
       </c>
@@ -22102,8 +22102,8 @@
       <c r="B336" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C336" s="81"/>
-      <c r="D336" s="81"/>
+      <c r="C336" s="83"/>
+      <c r="D336" s="83"/>
       <c r="E336" s="23" t="s">
         <v>481</v>
       </c>
@@ -22115,8 +22115,8 @@
       <c r="B337" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C337" s="81"/>
-      <c r="D337" s="81"/>
+      <c r="C337" s="83"/>
+      <c r="D337" s="83"/>
       <c r="E337" s="23" t="s">
         <v>481</v>
       </c>
@@ -22128,8 +22128,8 @@
       <c r="B338" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C338" s="81"/>
-      <c r="D338" s="81"/>
+      <c r="C338" s="83"/>
+      <c r="D338" s="83"/>
       <c r="E338" s="23" t="s">
         <v>481</v>
       </c>
@@ -22141,8 +22141,8 @@
       <c r="B339" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C339" s="81"/>
-      <c r="D339" s="81"/>
+      <c r="C339" s="83"/>
+      <c r="D339" s="83"/>
       <c r="E339" s="23" t="s">
         <v>481</v>
       </c>
@@ -22154,8 +22154,8 @@
       <c r="B340" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C340" s="81"/>
-      <c r="D340" s="81"/>
+      <c r="C340" s="83"/>
+      <c r="D340" s="83"/>
       <c r="E340" s="23" t="s">
         <v>481</v>
       </c>
@@ -22167,8 +22167,8 @@
       <c r="B341" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C341" s="81"/>
-      <c r="D341" s="81"/>
+      <c r="C341" s="83"/>
+      <c r="D341" s="83"/>
       <c r="E341" s="23" t="s">
         <v>481</v>
       </c>
@@ -22180,8 +22180,8 @@
       <c r="B342" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C342" s="81"/>
-      <c r="D342" s="81"/>
+      <c r="C342" s="83"/>
+      <c r="D342" s="83"/>
       <c r="E342" s="23" t="s">
         <v>481</v>
       </c>
@@ -22193,8 +22193,8 @@
       <c r="B343" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C343" s="81"/>
-      <c r="D343" s="81"/>
+      <c r="C343" s="83"/>
+      <c r="D343" s="83"/>
       <c r="E343" s="23" t="s">
         <v>481</v>
       </c>
@@ -22206,8 +22206,8 @@
       <c r="B344" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C344" s="81"/>
-      <c r="D344" s="81"/>
+      <c r="C344" s="83"/>
+      <c r="D344" s="83"/>
       <c r="E344" s="23" t="s">
         <v>481</v>
       </c>
@@ -22219,8 +22219,8 @@
       <c r="B345" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C345" s="81"/>
-      <c r="D345" s="81"/>
+      <c r="C345" s="83"/>
+      <c r="D345" s="83"/>
       <c r="E345" s="23" t="s">
         <v>481</v>
       </c>
@@ -22232,8 +22232,8 @@
       <c r="B346" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C346" s="81"/>
-      <c r="D346" s="81"/>
+      <c r="C346" s="83"/>
+      <c r="D346" s="83"/>
       <c r="E346" s="23" t="s">
         <v>481</v>
       </c>
@@ -22245,8 +22245,8 @@
       <c r="B347" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C347" s="81"/>
-      <c r="D347" s="81"/>
+      <c r="C347" s="83"/>
+      <c r="D347" s="83"/>
       <c r="E347" s="23" t="s">
         <v>481</v>
       </c>
@@ -22258,8 +22258,8 @@
       <c r="B348" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="C348" s="82"/>
-      <c r="D348" s="82"/>
+      <c r="C348" s="84"/>
+      <c r="D348" s="84"/>
       <c r="E348" s="28" t="s">
         <v>481</v>
       </c>
@@ -22271,10 +22271,10 @@
       <c r="B349" s="18" t="s">
         <v>709</v>
       </c>
-      <c r="C349" s="84" t="s">
-        <v>348</v>
-      </c>
-      <c r="D349" s="77" t="s">
+      <c r="C349" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="D349" s="88" t="s">
         <v>737</v>
       </c>
       <c r="E349" s="19" t="s">
@@ -22288,8 +22288,8 @@
       <c r="B350" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C350" s="78"/>
-      <c r="D350" s="78"/>
+      <c r="C350" s="89"/>
+      <c r="D350" s="89"/>
       <c r="E350" s="23" t="s">
         <v>383</v>
       </c>
@@ -22301,8 +22301,8 @@
       <c r="B351" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C351" s="78"/>
-      <c r="D351" s="78"/>
+      <c r="C351" s="89"/>
+      <c r="D351" s="89"/>
       <c r="E351" s="23" t="s">
         <v>383</v>
       </c>
@@ -22314,8 +22314,8 @@
       <c r="B352" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C352" s="78"/>
-      <c r="D352" s="78"/>
+      <c r="C352" s="89"/>
+      <c r="D352" s="89"/>
       <c r="E352" s="23" t="s">
         <v>383</v>
       </c>
@@ -22327,8 +22327,8 @@
       <c r="B353" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C353" s="78"/>
-      <c r="D353" s="78"/>
+      <c r="C353" s="89"/>
+      <c r="D353" s="89"/>
       <c r="E353" s="23" t="s">
         <v>383</v>
       </c>
@@ -22340,8 +22340,8 @@
       <c r="B354" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C354" s="78"/>
-      <c r="D354" s="78"/>
+      <c r="C354" s="89"/>
+      <c r="D354" s="89"/>
       <c r="E354" s="23" t="s">
         <v>383</v>
       </c>
@@ -22353,8 +22353,8 @@
       <c r="B355" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C355" s="78"/>
-      <c r="D355" s="78"/>
+      <c r="C355" s="89"/>
+      <c r="D355" s="89"/>
       <c r="E355" s="23" t="s">
         <v>383</v>
       </c>
@@ -22366,8 +22366,8 @@
       <c r="B356" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C356" s="78"/>
-      <c r="D356" s="78"/>
+      <c r="C356" s="89"/>
+      <c r="D356" s="89"/>
       <c r="E356" s="23" t="s">
         <v>383</v>
       </c>
@@ -22379,8 +22379,8 @@
       <c r="B357" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C357" s="78"/>
-      <c r="D357" s="78"/>
+      <c r="C357" s="89"/>
+      <c r="D357" s="89"/>
       <c r="E357" s="23" t="s">
         <v>383</v>
       </c>
@@ -22392,8 +22392,8 @@
       <c r="B358" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C358" s="78"/>
-      <c r="D358" s="78"/>
+      <c r="C358" s="89"/>
+      <c r="D358" s="89"/>
       <c r="E358" s="23" t="s">
         <v>383</v>
       </c>
@@ -22405,8 +22405,8 @@
       <c r="B359" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C359" s="78"/>
-      <c r="D359" s="78"/>
+      <c r="C359" s="89"/>
+      <c r="D359" s="89"/>
       <c r="E359" s="23" t="s">
         <v>383</v>
       </c>
@@ -22418,8 +22418,8 @@
       <c r="B360" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C360" s="78"/>
-      <c r="D360" s="78"/>
+      <c r="C360" s="89"/>
+      <c r="D360" s="89"/>
       <c r="E360" s="23" t="s">
         <v>383</v>
       </c>
@@ -22431,8 +22431,8 @@
       <c r="B361" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C361" s="78"/>
-      <c r="D361" s="78"/>
+      <c r="C361" s="89"/>
+      <c r="D361" s="89"/>
       <c r="E361" s="23" t="s">
         <v>383</v>
       </c>
@@ -22444,8 +22444,8 @@
       <c r="B362" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="C362" s="79"/>
-      <c r="D362" s="79"/>
+      <c r="C362" s="90"/>
+      <c r="D362" s="90"/>
       <c r="E362" s="28" t="s">
         <v>383</v>
       </c>
@@ -22457,10 +22457,10 @@
       <c r="B363" s="40" t="s">
         <v>709</v>
       </c>
-      <c r="C363" s="77" t="s">
+      <c r="C363" s="88" t="s">
         <v>752</v>
       </c>
-      <c r="D363" s="77" t="s">
+      <c r="D363" s="88" t="s">
         <v>753</v>
       </c>
       <c r="E363" s="19" t="s">
@@ -22474,8 +22474,8 @@
       <c r="B364" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C364" s="78"/>
-      <c r="D364" s="78"/>
+      <c r="C364" s="89"/>
+      <c r="D364" s="89"/>
       <c r="E364" s="23" t="s">
         <v>754</v>
       </c>
@@ -22487,8 +22487,8 @@
       <c r="B365" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C365" s="78"/>
-      <c r="D365" s="78"/>
+      <c r="C365" s="89"/>
+      <c r="D365" s="89"/>
       <c r="E365" s="23" t="s">
         <v>754</v>
       </c>
@@ -22500,8 +22500,8 @@
       <c r="B366" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C366" s="78"/>
-      <c r="D366" s="78"/>
+      <c r="C366" s="89"/>
+      <c r="D366" s="89"/>
       <c r="E366" s="23" t="s">
         <v>754</v>
       </c>
@@ -22513,8 +22513,8 @@
       <c r="B367" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C367" s="78"/>
-      <c r="D367" s="78"/>
+      <c r="C367" s="89"/>
+      <c r="D367" s="89"/>
       <c r="E367" s="23" t="s">
         <v>754</v>
       </c>
@@ -22526,8 +22526,8 @@
       <c r="B368" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C368" s="78"/>
-      <c r="D368" s="78"/>
+      <c r="C368" s="89"/>
+      <c r="D368" s="89"/>
       <c r="E368" s="23" t="s">
         <v>754</v>
       </c>
@@ -22539,8 +22539,8 @@
       <c r="B369" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C369" s="78"/>
-      <c r="D369" s="78"/>
+      <c r="C369" s="89"/>
+      <c r="D369" s="89"/>
       <c r="E369" s="23" t="s">
         <v>754</v>
       </c>
@@ -22552,8 +22552,8 @@
       <c r="B370" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C370" s="78"/>
-      <c r="D370" s="78"/>
+      <c r="C370" s="89"/>
+      <c r="D370" s="89"/>
       <c r="E370" s="23" t="s">
         <v>754</v>
       </c>
@@ -22565,8 +22565,8 @@
       <c r="B371" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C371" s="78"/>
-      <c r="D371" s="78"/>
+      <c r="C371" s="89"/>
+      <c r="D371" s="89"/>
       <c r="E371" s="23" t="s">
         <v>754</v>
       </c>
@@ -22578,8 +22578,8 @@
       <c r="B372" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C372" s="78"/>
-      <c r="D372" s="78"/>
+      <c r="C372" s="89"/>
+      <c r="D372" s="89"/>
       <c r="E372" s="23" t="s">
         <v>754</v>
       </c>
@@ -22591,8 +22591,8 @@
       <c r="B373" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C373" s="78"/>
-      <c r="D373" s="78"/>
+      <c r="C373" s="89"/>
+      <c r="D373" s="89"/>
       <c r="E373" s="23" t="s">
         <v>754</v>
       </c>
@@ -22604,8 +22604,8 @@
       <c r="B374" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C374" s="78"/>
-      <c r="D374" s="78"/>
+      <c r="C374" s="89"/>
+      <c r="D374" s="89"/>
       <c r="E374" s="23" t="s">
         <v>754</v>
       </c>
@@ -22617,8 +22617,8 @@
       <c r="B375" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C375" s="78"/>
-      <c r="D375" s="78"/>
+      <c r="C375" s="89"/>
+      <c r="D375" s="89"/>
       <c r="E375" s="23" t="s">
         <v>754</v>
       </c>
@@ -22630,8 +22630,8 @@
       <c r="B376" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C376" s="78"/>
-      <c r="D376" s="78"/>
+      <c r="C376" s="89"/>
+      <c r="D376" s="89"/>
       <c r="E376" s="23" t="s">
         <v>754</v>
       </c>
@@ -22643,8 +22643,8 @@
       <c r="B377" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C377" s="78"/>
-      <c r="D377" s="78"/>
+      <c r="C377" s="89"/>
+      <c r="D377" s="89"/>
       <c r="E377" s="23" t="s">
         <v>754</v>
       </c>
@@ -22656,8 +22656,8 @@
       <c r="B378" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C378" s="78"/>
-      <c r="D378" s="78"/>
+      <c r="C378" s="89"/>
+      <c r="D378" s="89"/>
       <c r="E378" s="23" t="s">
         <v>754</v>
       </c>
@@ -22669,8 +22669,8 @@
       <c r="B379" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C379" s="78"/>
-      <c r="D379" s="78"/>
+      <c r="C379" s="89"/>
+      <c r="D379" s="89"/>
       <c r="E379" s="23" t="s">
         <v>754</v>
       </c>
@@ -22682,8 +22682,8 @@
       <c r="B380" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C380" s="78"/>
-      <c r="D380" s="78"/>
+      <c r="C380" s="89"/>
+      <c r="D380" s="89"/>
       <c r="E380" s="23" t="s">
         <v>754</v>
       </c>
@@ -22695,8 +22695,8 @@
       <c r="B381" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C381" s="78"/>
-      <c r="D381" s="78"/>
+      <c r="C381" s="89"/>
+      <c r="D381" s="89"/>
       <c r="E381" s="23" t="s">
         <v>754</v>
       </c>
@@ -22708,8 +22708,8 @@
       <c r="B382" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C382" s="78"/>
-      <c r="D382" s="78"/>
+      <c r="C382" s="89"/>
+      <c r="D382" s="89"/>
       <c r="E382" s="23" t="s">
         <v>754</v>
       </c>
@@ -22721,8 +22721,8 @@
       <c r="B383" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C383" s="78"/>
-      <c r="D383" s="78"/>
+      <c r="C383" s="89"/>
+      <c r="D383" s="89"/>
       <c r="E383" s="23" t="s">
         <v>754</v>
       </c>
@@ -22734,8 +22734,8 @@
       <c r="B384" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C384" s="78"/>
-      <c r="D384" s="78"/>
+      <c r="C384" s="89"/>
+      <c r="D384" s="89"/>
       <c r="E384" s="23" t="s">
         <v>754</v>
       </c>
@@ -22747,8 +22747,8 @@
       <c r="B385" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C385" s="78"/>
-      <c r="D385" s="78"/>
+      <c r="C385" s="89"/>
+      <c r="D385" s="89"/>
       <c r="E385" s="23" t="s">
         <v>754</v>
       </c>
@@ -22760,8 +22760,8 @@
       <c r="B386" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C386" s="78"/>
-      <c r="D386" s="78"/>
+      <c r="C386" s="89"/>
+      <c r="D386" s="89"/>
       <c r="E386" s="23" t="s">
         <v>754</v>
       </c>
@@ -22773,8 +22773,8 @@
       <c r="B387" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C387" s="78"/>
-      <c r="D387" s="78"/>
+      <c r="C387" s="89"/>
+      <c r="D387" s="89"/>
       <c r="E387" s="23" t="s">
         <v>754</v>
       </c>
@@ -22786,8 +22786,8 @@
       <c r="B388" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C388" s="78"/>
-      <c r="D388" s="78"/>
+      <c r="C388" s="89"/>
+      <c r="D388" s="89"/>
       <c r="E388" s="23" t="s">
         <v>754</v>
       </c>
@@ -22799,8 +22799,8 @@
       <c r="B389" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C389" s="78"/>
-      <c r="D389" s="78"/>
+      <c r="C389" s="89"/>
+      <c r="D389" s="89"/>
       <c r="E389" s="23" t="s">
         <v>754</v>
       </c>
@@ -22812,8 +22812,8 @@
       <c r="B390" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C390" s="78"/>
-      <c r="D390" s="78"/>
+      <c r="C390" s="89"/>
+      <c r="D390" s="89"/>
       <c r="E390" s="23" t="s">
         <v>754</v>
       </c>
@@ -22825,8 +22825,8 @@
       <c r="B391" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C391" s="78"/>
-      <c r="D391" s="78"/>
+      <c r="C391" s="89"/>
+      <c r="D391" s="89"/>
       <c r="E391" s="23" t="s">
         <v>754</v>
       </c>
@@ -22838,8 +22838,8 @@
       <c r="B392" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C392" s="78"/>
-      <c r="D392" s="78"/>
+      <c r="C392" s="89"/>
+      <c r="D392" s="89"/>
       <c r="E392" s="23" t="s">
         <v>754</v>
       </c>
@@ -22851,8 +22851,8 @@
       <c r="B393" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C393" s="78"/>
-      <c r="D393" s="78"/>
+      <c r="C393" s="89"/>
+      <c r="D393" s="89"/>
       <c r="E393" s="23" t="s">
         <v>754</v>
       </c>
@@ -22864,8 +22864,8 @@
       <c r="B394" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C394" s="78"/>
-      <c r="D394" s="78"/>
+      <c r="C394" s="89"/>
+      <c r="D394" s="89"/>
       <c r="E394" s="23" t="s">
         <v>754</v>
       </c>
@@ -22877,8 +22877,8 @@
       <c r="B395" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C395" s="78"/>
-      <c r="D395" s="78"/>
+      <c r="C395" s="89"/>
+      <c r="D395" s="89"/>
       <c r="E395" s="23" t="s">
         <v>754</v>
       </c>
@@ -22890,8 +22890,8 @@
       <c r="B396" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C396" s="78"/>
-      <c r="D396" s="78"/>
+      <c r="C396" s="89"/>
+      <c r="D396" s="89"/>
       <c r="E396" s="23" t="s">
         <v>754</v>
       </c>
@@ -22903,8 +22903,8 @@
       <c r="B397" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C397" s="78"/>
-      <c r="D397" s="78"/>
+      <c r="C397" s="89"/>
+      <c r="D397" s="89"/>
       <c r="E397" s="23" t="s">
         <v>754</v>
       </c>
@@ -22916,8 +22916,8 @@
       <c r="B398" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C398" s="78"/>
-      <c r="D398" s="78"/>
+      <c r="C398" s="89"/>
+      <c r="D398" s="89"/>
       <c r="E398" s="23" t="s">
         <v>754</v>
       </c>
@@ -22929,8 +22929,8 @@
       <c r="B399" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C399" s="78"/>
-      <c r="D399" s="78"/>
+      <c r="C399" s="89"/>
+      <c r="D399" s="89"/>
       <c r="E399" s="23" t="s">
         <v>754</v>
       </c>
@@ -22942,8 +22942,8 @@
       <c r="B400" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C400" s="78"/>
-      <c r="D400" s="78"/>
+      <c r="C400" s="89"/>
+      <c r="D400" s="89"/>
       <c r="E400" s="23" t="s">
         <v>754</v>
       </c>
@@ -22955,8 +22955,8 @@
       <c r="B401" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C401" s="78"/>
-      <c r="D401" s="78"/>
+      <c r="C401" s="89"/>
+      <c r="D401" s="89"/>
       <c r="E401" s="23" t="s">
         <v>754</v>
       </c>
@@ -22968,8 +22968,8 @@
       <c r="B402" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C402" s="78"/>
-      <c r="D402" s="78"/>
+      <c r="C402" s="89"/>
+      <c r="D402" s="89"/>
       <c r="E402" s="23" t="s">
         <v>754</v>
       </c>
@@ -22981,8 +22981,8 @@
       <c r="B403" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C403" s="78"/>
-      <c r="D403" s="78"/>
+      <c r="C403" s="89"/>
+      <c r="D403" s="89"/>
       <c r="E403" s="23" t="s">
         <v>754</v>
       </c>
@@ -22994,8 +22994,8 @@
       <c r="B404" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C404" s="78"/>
-      <c r="D404" s="78"/>
+      <c r="C404" s="89"/>
+      <c r="D404" s="89"/>
       <c r="E404" s="23" t="s">
         <v>754</v>
       </c>
@@ -23007,8 +23007,8 @@
       <c r="B405" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C405" s="78"/>
-      <c r="D405" s="78"/>
+      <c r="C405" s="89"/>
+      <c r="D405" s="89"/>
       <c r="E405" s="23" t="s">
         <v>754</v>
       </c>
@@ -23020,8 +23020,8 @@
       <c r="B406" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C406" s="78"/>
-      <c r="D406" s="78"/>
+      <c r="C406" s="89"/>
+      <c r="D406" s="89"/>
       <c r="E406" s="23" t="s">
         <v>754</v>
       </c>
@@ -23033,8 +23033,8 @@
       <c r="B407" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C407" s="78"/>
-      <c r="D407" s="78"/>
+      <c r="C407" s="89"/>
+      <c r="D407" s="89"/>
       <c r="E407" s="23" t="s">
         <v>754</v>
       </c>
@@ -23046,8 +23046,8 @@
       <c r="B408" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C408" s="78"/>
-      <c r="D408" s="78"/>
+      <c r="C408" s="89"/>
+      <c r="D408" s="89"/>
       <c r="E408" s="23" t="s">
         <v>754</v>
       </c>
@@ -23059,8 +23059,8 @@
       <c r="B409" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C409" s="78"/>
-      <c r="D409" s="78"/>
+      <c r="C409" s="89"/>
+      <c r="D409" s="89"/>
       <c r="E409" s="23" t="s">
         <v>754</v>
       </c>
@@ -23072,8 +23072,8 @@
       <c r="B410" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C410" s="78"/>
-      <c r="D410" s="78"/>
+      <c r="C410" s="89"/>
+      <c r="D410" s="89"/>
       <c r="E410" s="23" t="s">
         <v>754</v>
       </c>
@@ -23085,8 +23085,8 @@
       <c r="B411" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C411" s="78"/>
-      <c r="D411" s="78"/>
+      <c r="C411" s="89"/>
+      <c r="D411" s="89"/>
       <c r="E411" s="23" t="s">
         <v>754</v>
       </c>
@@ -23098,8 +23098,8 @@
       <c r="B412" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C412" s="78"/>
-      <c r="D412" s="78"/>
+      <c r="C412" s="89"/>
+      <c r="D412" s="89"/>
       <c r="E412" s="23" t="s">
         <v>754</v>
       </c>
@@ -23111,8 +23111,8 @@
       <c r="B413" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C413" s="78"/>
-      <c r="D413" s="78"/>
+      <c r="C413" s="89"/>
+      <c r="D413" s="89"/>
       <c r="E413" s="23" t="s">
         <v>754</v>
       </c>
@@ -23124,8 +23124,8 @@
       <c r="B414" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C414" s="78"/>
-      <c r="D414" s="78"/>
+      <c r="C414" s="89"/>
+      <c r="D414" s="89"/>
       <c r="E414" s="23" t="s">
         <v>754</v>
       </c>
@@ -23137,8 +23137,8 @@
       <c r="B415" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C415" s="78"/>
-      <c r="D415" s="78"/>
+      <c r="C415" s="89"/>
+      <c r="D415" s="89"/>
       <c r="E415" s="23" t="s">
         <v>754</v>
       </c>
@@ -23150,8 +23150,8 @@
       <c r="B416" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C416" s="78"/>
-      <c r="D416" s="78"/>
+      <c r="C416" s="89"/>
+      <c r="D416" s="89"/>
       <c r="E416" s="23" t="s">
         <v>754</v>
       </c>
@@ -23163,8 +23163,8 @@
       <c r="B417" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C417" s="78"/>
-      <c r="D417" s="78"/>
+      <c r="C417" s="89"/>
+      <c r="D417" s="89"/>
       <c r="E417" s="23" t="s">
         <v>754</v>
       </c>
@@ -23176,8 +23176,8 @@
       <c r="B418" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C418" s="78"/>
-      <c r="D418" s="78"/>
+      <c r="C418" s="89"/>
+      <c r="D418" s="89"/>
       <c r="E418" s="23" t="s">
         <v>754</v>
       </c>
@@ -23189,8 +23189,8 @@
       <c r="B419" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C419" s="78"/>
-      <c r="D419" s="78"/>
+      <c r="C419" s="89"/>
+      <c r="D419" s="89"/>
       <c r="E419" s="23" t="s">
         <v>754</v>
       </c>
@@ -23202,8 +23202,8 @@
       <c r="B420" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C420" s="78"/>
-      <c r="D420" s="78"/>
+      <c r="C420" s="89"/>
+      <c r="D420" s="89"/>
       <c r="E420" s="23" t="s">
         <v>754</v>
       </c>
@@ -23215,8 +23215,8 @@
       <c r="B421" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C421" s="78"/>
-      <c r="D421" s="78"/>
+      <c r="C421" s="89"/>
+      <c r="D421" s="89"/>
       <c r="E421" s="23" t="s">
         <v>754</v>
       </c>
@@ -23228,8 +23228,8 @@
       <c r="B422" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C422" s="78"/>
-      <c r="D422" s="78"/>
+      <c r="C422" s="89"/>
+      <c r="D422" s="89"/>
       <c r="E422" s="23" t="s">
         <v>754</v>
       </c>
@@ -23241,8 +23241,8 @@
       <c r="B423" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C423" s="78"/>
-      <c r="D423" s="78"/>
+      <c r="C423" s="89"/>
+      <c r="D423" s="89"/>
       <c r="E423" s="23" t="s">
         <v>754</v>
       </c>
@@ -23254,8 +23254,8 @@
       <c r="B424" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C424" s="78"/>
-      <c r="D424" s="78"/>
+      <c r="C424" s="89"/>
+      <c r="D424" s="89"/>
       <c r="E424" s="23" t="s">
         <v>754</v>
       </c>
@@ -23267,8 +23267,8 @@
       <c r="B425" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C425" s="78"/>
-      <c r="D425" s="78"/>
+      <c r="C425" s="89"/>
+      <c r="D425" s="89"/>
       <c r="E425" s="23" t="s">
         <v>754</v>
       </c>
@@ -23280,8 +23280,8 @@
       <c r="B426" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C426" s="78"/>
-      <c r="D426" s="78"/>
+      <c r="C426" s="89"/>
+      <c r="D426" s="89"/>
       <c r="E426" s="23" t="s">
         <v>754</v>
       </c>
@@ -23293,8 +23293,8 @@
       <c r="B427" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C427" s="78"/>
-      <c r="D427" s="78"/>
+      <c r="C427" s="89"/>
+      <c r="D427" s="89"/>
       <c r="E427" s="23" t="s">
         <v>754</v>
       </c>
@@ -23306,8 +23306,8 @@
       <c r="B428" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C428" s="78"/>
-      <c r="D428" s="78"/>
+      <c r="C428" s="89"/>
+      <c r="D428" s="89"/>
       <c r="E428" s="23" t="s">
         <v>754</v>
       </c>
@@ -23319,8 +23319,8 @@
       <c r="B429" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C429" s="78"/>
-      <c r="D429" s="78"/>
+      <c r="C429" s="89"/>
+      <c r="D429" s="89"/>
       <c r="E429" s="23" t="s">
         <v>754</v>
       </c>
@@ -23332,8 +23332,8 @@
       <c r="B430" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C430" s="78"/>
-      <c r="D430" s="78"/>
+      <c r="C430" s="89"/>
+      <c r="D430" s="89"/>
       <c r="E430" s="23" t="s">
         <v>754</v>
       </c>
@@ -23345,8 +23345,8 @@
       <c r="B431" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C431" s="78"/>
-      <c r="D431" s="78"/>
+      <c r="C431" s="89"/>
+      <c r="D431" s="89"/>
       <c r="E431" s="23" t="s">
         <v>754</v>
       </c>
@@ -23358,8 +23358,8 @@
       <c r="B432" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C432" s="78"/>
-      <c r="D432" s="78"/>
+      <c r="C432" s="89"/>
+      <c r="D432" s="89"/>
       <c r="E432" s="23" t="s">
         <v>754</v>
       </c>
@@ -23371,8 +23371,8 @@
       <c r="B433" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C433" s="78"/>
-      <c r="D433" s="78"/>
+      <c r="C433" s="89"/>
+      <c r="D433" s="89"/>
       <c r="E433" s="23" t="s">
         <v>754</v>
       </c>
@@ -23384,8 +23384,8 @@
       <c r="B434" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C434" s="78"/>
-      <c r="D434" s="78"/>
+      <c r="C434" s="89"/>
+      <c r="D434" s="89"/>
       <c r="E434" s="23" t="s">
         <v>754</v>
       </c>
@@ -23397,8 +23397,8 @@
       <c r="B435" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C435" s="78"/>
-      <c r="D435" s="78"/>
+      <c r="C435" s="89"/>
+      <c r="D435" s="89"/>
       <c r="E435" s="23" t="s">
         <v>754</v>
       </c>
@@ -23410,8 +23410,8 @@
       <c r="B436" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C436" s="78"/>
-      <c r="D436" s="78"/>
+      <c r="C436" s="89"/>
+      <c r="D436" s="89"/>
       <c r="E436" s="23" t="s">
         <v>754</v>
       </c>
@@ -23423,8 +23423,8 @@
       <c r="B437" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C437" s="78"/>
-      <c r="D437" s="78"/>
+      <c r="C437" s="89"/>
+      <c r="D437" s="89"/>
       <c r="E437" s="23" t="s">
         <v>754</v>
       </c>
@@ -23436,8 +23436,8 @@
       <c r="B438" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C438" s="78"/>
-      <c r="D438" s="78"/>
+      <c r="C438" s="89"/>
+      <c r="D438" s="89"/>
       <c r="E438" s="23" t="s">
         <v>754</v>
       </c>
@@ -23449,8 +23449,8 @@
       <c r="B439" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C439" s="78"/>
-      <c r="D439" s="78"/>
+      <c r="C439" s="89"/>
+      <c r="D439" s="89"/>
       <c r="E439" s="23" t="s">
         <v>754</v>
       </c>
@@ -23462,8 +23462,8 @@
       <c r="B440" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C440" s="78"/>
-      <c r="D440" s="78"/>
+      <c r="C440" s="89"/>
+      <c r="D440" s="89"/>
       <c r="E440" s="23" t="s">
         <v>754</v>
       </c>
@@ -23475,8 +23475,8 @@
       <c r="B441" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C441" s="78"/>
-      <c r="D441" s="78"/>
+      <c r="C441" s="89"/>
+      <c r="D441" s="89"/>
       <c r="E441" s="23" t="s">
         <v>754</v>
       </c>
@@ -23488,8 +23488,8 @@
       <c r="B442" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C442" s="78"/>
-      <c r="D442" s="78"/>
+      <c r="C442" s="89"/>
+      <c r="D442" s="89"/>
       <c r="E442" s="23" t="s">
         <v>754</v>
       </c>
@@ -23501,8 +23501,8 @@
       <c r="B443" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C443" s="78"/>
-      <c r="D443" s="78"/>
+      <c r="C443" s="89"/>
+      <c r="D443" s="89"/>
       <c r="E443" s="23" t="s">
         <v>754</v>
       </c>
@@ -23514,8 +23514,8 @@
       <c r="B444" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C444" s="78"/>
-      <c r="D444" s="78"/>
+      <c r="C444" s="89"/>
+      <c r="D444" s="89"/>
       <c r="E444" s="23" t="s">
         <v>754</v>
       </c>
@@ -23527,8 +23527,8 @@
       <c r="B445" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C445" s="78"/>
-      <c r="D445" s="78"/>
+      <c r="C445" s="89"/>
+      <c r="D445" s="89"/>
       <c r="E445" s="23" t="s">
         <v>754</v>
       </c>
@@ -23540,8 +23540,8 @@
       <c r="B446" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C446" s="78"/>
-      <c r="D446" s="78"/>
+      <c r="C446" s="89"/>
+      <c r="D446" s="89"/>
       <c r="E446" s="23" t="s">
         <v>754</v>
       </c>
@@ -23553,8 +23553,8 @@
       <c r="B447" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C447" s="78"/>
-      <c r="D447" s="78"/>
+      <c r="C447" s="89"/>
+      <c r="D447" s="89"/>
       <c r="E447" s="23" t="s">
         <v>754</v>
       </c>
@@ -23566,8 +23566,8 @@
       <c r="B448" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C448" s="78"/>
-      <c r="D448" s="78"/>
+      <c r="C448" s="89"/>
+      <c r="D448" s="89"/>
       <c r="E448" s="23" t="s">
         <v>754</v>
       </c>
@@ -23579,8 +23579,8 @@
       <c r="B449" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C449" s="78"/>
-      <c r="D449" s="78"/>
+      <c r="C449" s="89"/>
+      <c r="D449" s="89"/>
       <c r="E449" s="23" t="s">
         <v>754</v>
       </c>
@@ -23592,8 +23592,8 @@
       <c r="B450" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C450" s="78"/>
-      <c r="D450" s="78"/>
+      <c r="C450" s="89"/>
+      <c r="D450" s="89"/>
       <c r="E450" s="23" t="s">
         <v>754</v>
       </c>
@@ -23605,8 +23605,8 @@
       <c r="B451" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C451" s="78"/>
-      <c r="D451" s="78"/>
+      <c r="C451" s="89"/>
+      <c r="D451" s="89"/>
       <c r="E451" s="23" t="s">
         <v>754</v>
       </c>
@@ -23618,32 +23618,14 @@
       <c r="B452" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="C452" s="79"/>
-      <c r="D452" s="79"/>
+      <c r="C452" s="90"/>
+      <c r="D452" s="90"/>
       <c r="E452" s="28" t="s">
         <v>754</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="C10:C93"/>
-    <mergeCell ref="D10:D93"/>
-    <mergeCell ref="C94:C121"/>
-    <mergeCell ref="D94:D121"/>
-    <mergeCell ref="C122:C128"/>
-    <mergeCell ref="D122:D128"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="C132:C163"/>
-    <mergeCell ref="D132:D163"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="C167:C187"/>
-    <mergeCell ref="D167:D187"/>
-    <mergeCell ref="C188:C215"/>
-    <mergeCell ref="D188:D215"/>
     <mergeCell ref="C363:C452"/>
     <mergeCell ref="D363:D452"/>
     <mergeCell ref="C216:C318"/>
@@ -23652,6 +23634,24 @@
     <mergeCell ref="D319:D348"/>
     <mergeCell ref="C349:C362"/>
     <mergeCell ref="D349:D362"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="C167:C187"/>
+    <mergeCell ref="D167:D187"/>
+    <mergeCell ref="C188:C215"/>
+    <mergeCell ref="D188:D215"/>
+    <mergeCell ref="C122:C128"/>
+    <mergeCell ref="D122:D128"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="C132:C163"/>
+    <mergeCell ref="D132:D163"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="C10:C93"/>
+    <mergeCell ref="D10:D93"/>
+    <mergeCell ref="C94:C121"/>
+    <mergeCell ref="D94:D121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/turbodoc/dataset/dataset_turbo-doc.xlsx
+++ b/turbodoc/dataset/dataset_turbo-doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\90004698\Documents\GitHub\project-ai\turbodoc\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458E3CFB-F59B-49BF-A493-348A7EE8D272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CF940-DB00-4942-BBF3-B9D53A208FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CM" sheetId="3" r:id="rId1"/>
@@ -7175,24 +7175,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7202,8 +7184,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7760,8 +7760,8 @@
   <dimension ref="A1:G432"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -17679,8 +17679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47F5782-D945-4D04-8AAE-C3028E419E5F}">
   <dimension ref="A1:E452"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -17716,7 +17716,7 @@
       <c r="B2" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="88" t="s">
         <v>348</v>
       </c>
       <c r="D2" s="85" t="s">
@@ -17733,8 +17733,8 @@
       <c r="B3" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="23" t="s">
         <v>383</v>
       </c>
@@ -17746,8 +17746,8 @@
       <c r="B4" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="23" t="s">
         <v>383</v>
       </c>
@@ -17759,8 +17759,8 @@
       <c r="B5" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="23" t="s">
         <v>383</v>
       </c>
@@ -17772,8 +17772,8 @@
       <c r="B6" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="23" t="s">
         <v>383</v>
       </c>
@@ -17785,8 +17785,8 @@
       <c r="B7" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="23" t="s">
         <v>383</v>
       </c>
@@ -17798,8 +17798,8 @@
       <c r="B8" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="23" t="s">
         <v>383</v>
       </c>
@@ -17811,8 +17811,8 @@
       <c r="B9" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="28" t="s">
         <v>383</v>
       </c>
@@ -17841,8 +17841,8 @@
       <c r="B11" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="23" t="s">
         <v>394</v>
       </c>
@@ -17854,8 +17854,8 @@
       <c r="B12" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="23" t="s">
         <v>394</v>
       </c>
@@ -17867,8 +17867,8 @@
       <c r="B13" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="23" t="s">
         <v>394</v>
       </c>
@@ -17880,8 +17880,8 @@
       <c r="B14" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
       <c r="E14" s="23" t="s">
         <v>394</v>
       </c>
@@ -17893,8 +17893,8 @@
       <c r="B15" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="23" t="s">
         <v>394</v>
       </c>
@@ -17906,8 +17906,8 @@
       <c r="B16" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="23" t="s">
         <v>394</v>
       </c>
@@ -17919,8 +17919,8 @@
       <c r="B17" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="23" t="s">
         <v>394</v>
       </c>
@@ -17932,8 +17932,8 @@
       <c r="B18" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="23" t="s">
         <v>394</v>
       </c>
@@ -17945,8 +17945,8 @@
       <c r="B19" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="23" t="s">
         <v>394</v>
       </c>
@@ -17958,8 +17958,8 @@
       <c r="B20" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="23" t="s">
         <v>394</v>
       </c>
@@ -17971,8 +17971,8 @@
       <c r="B21" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="23" t="s">
         <v>394</v>
       </c>
@@ -17984,8 +17984,8 @@
       <c r="B22" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="23" t="s">
         <v>394</v>
       </c>
@@ -17997,8 +17997,8 @@
       <c r="B23" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="23" t="s">
         <v>394</v>
       </c>
@@ -18010,8 +18010,8 @@
       <c r="B24" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="23" t="s">
         <v>394</v>
       </c>
@@ -18023,8 +18023,8 @@
       <c r="B25" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="23" t="s">
         <v>394</v>
       </c>
@@ -18036,8 +18036,8 @@
       <c r="B26" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
       <c r="E26" s="23" t="s">
         <v>394</v>
       </c>
@@ -18049,8 +18049,8 @@
       <c r="B27" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
       <c r="E27" s="23" t="s">
         <v>394</v>
       </c>
@@ -18062,8 +18062,8 @@
       <c r="B28" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
       <c r="E28" s="23" t="s">
         <v>394</v>
       </c>
@@ -18075,8 +18075,8 @@
       <c r="B29" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="23" t="s">
         <v>394</v>
       </c>
@@ -18088,8 +18088,8 @@
       <c r="B30" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="23" t="s">
         <v>394</v>
       </c>
@@ -18101,8 +18101,8 @@
       <c r="B31" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
       <c r="E31" s="23" t="s">
         <v>394</v>
       </c>
@@ -18114,8 +18114,8 @@
       <c r="B32" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="23" t="s">
         <v>394</v>
       </c>
@@ -18127,8 +18127,8 @@
       <c r="B33" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="23" t="s">
         <v>394</v>
       </c>
@@ -18140,8 +18140,8 @@
       <c r="B34" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="23" t="s">
         <v>394</v>
       </c>
@@ -18153,8 +18153,8 @@
       <c r="B35" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="23" t="s">
         <v>394</v>
       </c>
@@ -18166,8 +18166,8 @@
       <c r="B36" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="23" t="s">
         <v>394</v>
       </c>
@@ -18179,8 +18179,8 @@
       <c r="B37" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="86"/>
       <c r="E37" s="23" t="s">
         <v>394</v>
       </c>
@@ -18192,8 +18192,8 @@
       <c r="B38" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
       <c r="E38" s="23" t="s">
         <v>394</v>
       </c>
@@ -18205,8 +18205,8 @@
       <c r="B39" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
       <c r="E39" s="23" t="s">
         <v>394</v>
       </c>
@@ -18218,8 +18218,8 @@
       <c r="B40" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="23" t="s">
         <v>394</v>
       </c>
@@ -18231,8 +18231,8 @@
       <c r="B41" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
       <c r="E41" s="23" t="s">
         <v>394</v>
       </c>
@@ -18244,8 +18244,8 @@
       <c r="B42" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
       <c r="E42" s="23" t="s">
         <v>394</v>
       </c>
@@ -18257,8 +18257,8 @@
       <c r="B43" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
       <c r="E43" s="23" t="s">
         <v>394</v>
       </c>
@@ -18270,8 +18270,8 @@
       <c r="B44" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="86"/>
       <c r="E44" s="23" t="s">
         <v>394</v>
       </c>
@@ -18283,8 +18283,8 @@
       <c r="B45" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
       <c r="E45" s="23" t="s">
         <v>394</v>
       </c>
@@ -18296,8 +18296,8 @@
       <c r="B46" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
       <c r="E46" s="23" t="s">
         <v>394</v>
       </c>
@@ -18309,8 +18309,8 @@
       <c r="B47" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
       <c r="E47" s="23" t="s">
         <v>394</v>
       </c>
@@ -18322,8 +18322,8 @@
       <c r="B48" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="86"/>
       <c r="E48" s="23" t="s">
         <v>394</v>
       </c>
@@ -18335,8 +18335,8 @@
       <c r="B49" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="86"/>
       <c r="E49" s="23" t="s">
         <v>394</v>
       </c>
@@ -18348,8 +18348,8 @@
       <c r="B50" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
       <c r="E50" s="23" t="s">
         <v>394</v>
       </c>
@@ -18361,8 +18361,8 @@
       <c r="B51" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
       <c r="E51" s="23" t="s">
         <v>394</v>
       </c>
@@ -18374,8 +18374,8 @@
       <c r="B52" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
       <c r="E52" s="23" t="s">
         <v>394</v>
       </c>
@@ -18387,8 +18387,8 @@
       <c r="B53" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="86"/>
       <c r="E53" s="23" t="s">
         <v>394</v>
       </c>
@@ -18400,8 +18400,8 @@
       <c r="B54" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C54" s="83"/>
-      <c r="D54" s="83"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
       <c r="E54" s="23" t="s">
         <v>394</v>
       </c>
@@ -18413,8 +18413,8 @@
       <c r="B55" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
       <c r="E55" s="23" t="s">
         <v>394</v>
       </c>
@@ -18426,8 +18426,8 @@
       <c r="B56" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
       <c r="E56" s="23" t="s">
         <v>394</v>
       </c>
@@ -18439,8 +18439,8 @@
       <c r="B57" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
       <c r="E57" s="23" t="s">
         <v>394</v>
       </c>
@@ -18452,8 +18452,8 @@
       <c r="B58" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
       <c r="E58" s="23" t="s">
         <v>394</v>
       </c>
@@ -18465,8 +18465,8 @@
       <c r="B59" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
       <c r="E59" s="23" t="s">
         <v>394</v>
       </c>
@@ -18478,8 +18478,8 @@
       <c r="B60" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="86"/>
       <c r="E60" s="23" t="s">
         <v>394</v>
       </c>
@@ -18491,8 +18491,8 @@
       <c r="B61" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
       <c r="E61" s="23" t="s">
         <v>394</v>
       </c>
@@ -18504,8 +18504,8 @@
       <c r="B62" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
       <c r="E62" s="23" t="s">
         <v>394</v>
       </c>
@@ -18517,8 +18517,8 @@
       <c r="B63" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="86"/>
       <c r="E63" s="23" t="s">
         <v>394</v>
       </c>
@@ -18530,8 +18530,8 @@
       <c r="B64" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
+      <c r="C64" s="86"/>
+      <c r="D64" s="86"/>
       <c r="E64" s="23" t="s">
         <v>394</v>
       </c>
@@ -18543,8 +18543,8 @@
       <c r="B65" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="86"/>
       <c r="E65" s="23" t="s">
         <v>394</v>
       </c>
@@ -18556,8 +18556,8 @@
       <c r="B66" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
       <c r="E66" s="23" t="s">
         <v>394</v>
       </c>
@@ -18569,8 +18569,8 @@
       <c r="B67" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="86"/>
       <c r="E67" s="23" t="s">
         <v>394</v>
       </c>
@@ -18582,8 +18582,8 @@
       <c r="B68" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
       <c r="E68" s="23" t="s">
         <v>394</v>
       </c>
@@ -18595,8 +18595,8 @@
       <c r="B69" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C69" s="83"/>
-      <c r="D69" s="83"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
       <c r="E69" s="23" t="s">
         <v>394</v>
       </c>
@@ -18608,8 +18608,8 @@
       <c r="B70" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="86"/>
       <c r="E70" s="23" t="s">
         <v>394</v>
       </c>
@@ -18621,8 +18621,8 @@
       <c r="B71" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
       <c r="E71" s="23" t="s">
         <v>394</v>
       </c>
@@ -18634,8 +18634,8 @@
       <c r="B72" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="86"/>
       <c r="E72" s="23" t="s">
         <v>394</v>
       </c>
@@ -18647,8 +18647,8 @@
       <c r="B73" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
+      <c r="C73" s="86"/>
+      <c r="D73" s="86"/>
       <c r="E73" s="23" t="s">
         <v>394</v>
       </c>
@@ -18660,8 +18660,8 @@
       <c r="B74" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="86"/>
       <c r="E74" s="23" t="s">
         <v>394</v>
       </c>
@@ -18673,8 +18673,8 @@
       <c r="B75" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="86"/>
       <c r="E75" s="23" t="s">
         <v>394</v>
       </c>
@@ -18686,8 +18686,8 @@
       <c r="B76" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="86"/>
       <c r="E76" s="23" t="s">
         <v>394</v>
       </c>
@@ -18699,8 +18699,8 @@
       <c r="B77" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
+      <c r="C77" s="86"/>
+      <c r="D77" s="86"/>
       <c r="E77" s="23" t="s">
         <v>394</v>
       </c>
@@ -18712,8 +18712,8 @@
       <c r="B78" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="86"/>
       <c r="E78" s="23" t="s">
         <v>394</v>
       </c>
@@ -18725,8 +18725,8 @@
       <c r="B79" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C79" s="83"/>
-      <c r="D79" s="83"/>
+      <c r="C79" s="86"/>
+      <c r="D79" s="86"/>
       <c r="E79" s="23" t="s">
         <v>394</v>
       </c>
@@ -18738,8 +18738,8 @@
       <c r="B80" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C80" s="83"/>
-      <c r="D80" s="83"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="86"/>
       <c r="E80" s="23" t="s">
         <v>394</v>
       </c>
@@ -18751,8 +18751,8 @@
       <c r="B81" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C81" s="83"/>
-      <c r="D81" s="83"/>
+      <c r="C81" s="86"/>
+      <c r="D81" s="86"/>
       <c r="E81" s="23" t="s">
         <v>394</v>
       </c>
@@ -18764,8 +18764,8 @@
       <c r="B82" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C82" s="83"/>
-      <c r="D82" s="83"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="86"/>
       <c r="E82" s="23" t="s">
         <v>394</v>
       </c>
@@ -18777,8 +18777,8 @@
       <c r="B83" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="86"/>
       <c r="E83" s="23" t="s">
         <v>394</v>
       </c>
@@ -18790,8 +18790,8 @@
       <c r="B84" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C84" s="83"/>
-      <c r="D84" s="83"/>
+      <c r="C84" s="86"/>
+      <c r="D84" s="86"/>
       <c r="E84" s="23" t="s">
         <v>394</v>
       </c>
@@ -18803,8 +18803,8 @@
       <c r="B85" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C85" s="83"/>
-      <c r="D85" s="83"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="86"/>
       <c r="E85" s="23" t="s">
         <v>394</v>
       </c>
@@ -18816,8 +18816,8 @@
       <c r="B86" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C86" s="83"/>
-      <c r="D86" s="83"/>
+      <c r="C86" s="86"/>
+      <c r="D86" s="86"/>
       <c r="E86" s="23" t="s">
         <v>394</v>
       </c>
@@ -18829,8 +18829,8 @@
       <c r="B87" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C87" s="83"/>
-      <c r="D87" s="83"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="86"/>
       <c r="E87" s="23" t="s">
         <v>394</v>
       </c>
@@ -18842,8 +18842,8 @@
       <c r="B88" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C88" s="83"/>
-      <c r="D88" s="83"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="86"/>
       <c r="E88" s="23" t="s">
         <v>394</v>
       </c>
@@ -18855,8 +18855,8 @@
       <c r="B89" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C89" s="83"/>
-      <c r="D89" s="83"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="86"/>
       <c r="E89" s="23" t="s">
         <v>394</v>
       </c>
@@ -18868,8 +18868,8 @@
       <c r="B90" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C90" s="83"/>
-      <c r="D90" s="83"/>
+      <c r="C90" s="86"/>
+      <c r="D90" s="86"/>
       <c r="E90" s="23" t="s">
         <v>394</v>
       </c>
@@ -18881,8 +18881,8 @@
       <c r="B91" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C91" s="83"/>
-      <c r="D91" s="83"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="86"/>
       <c r="E91" s="23" t="s">
         <v>394</v>
       </c>
@@ -18894,8 +18894,8 @@
       <c r="B92" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C92" s="83"/>
-      <c r="D92" s="83"/>
+      <c r="C92" s="86"/>
+      <c r="D92" s="86"/>
       <c r="E92" s="23" t="s">
         <v>394</v>
       </c>
@@ -18907,8 +18907,8 @@
       <c r="B93" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C93" s="84"/>
-      <c r="D93" s="84"/>
+      <c r="C93" s="87"/>
+      <c r="D93" s="87"/>
       <c r="E93" s="28" t="s">
         <v>394</v>
       </c>
@@ -18937,8 +18937,8 @@
       <c r="B95" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C95" s="83"/>
-      <c r="D95" s="83"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="86"/>
       <c r="E95" s="23" t="s">
         <v>481</v>
       </c>
@@ -18950,8 +18950,8 @@
       <c r="B96" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C96" s="83"/>
-      <c r="D96" s="83"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="86"/>
       <c r="E96" s="23" t="s">
         <v>481</v>
       </c>
@@ -18963,8 +18963,8 @@
       <c r="B97" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C97" s="83"/>
-      <c r="D97" s="83"/>
+      <c r="C97" s="86"/>
+      <c r="D97" s="86"/>
       <c r="E97" s="23" t="s">
         <v>481</v>
       </c>
@@ -18976,8 +18976,8 @@
       <c r="B98" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C98" s="83"/>
-      <c r="D98" s="83"/>
+      <c r="C98" s="86"/>
+      <c r="D98" s="86"/>
       <c r="E98" s="23" t="s">
         <v>481</v>
       </c>
@@ -18989,8 +18989,8 @@
       <c r="B99" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C99" s="83"/>
-      <c r="D99" s="83"/>
+      <c r="C99" s="86"/>
+      <c r="D99" s="86"/>
       <c r="E99" s="23" t="s">
         <v>481</v>
       </c>
@@ -19002,8 +19002,8 @@
       <c r="B100" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C100" s="83"/>
-      <c r="D100" s="83"/>
+      <c r="C100" s="86"/>
+      <c r="D100" s="86"/>
       <c r="E100" s="23" t="s">
         <v>481</v>
       </c>
@@ -19015,8 +19015,8 @@
       <c r="B101" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C101" s="83"/>
-      <c r="D101" s="83"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="86"/>
       <c r="E101" s="23" t="s">
         <v>481</v>
       </c>
@@ -19028,8 +19028,8 @@
       <c r="B102" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C102" s="83"/>
-      <c r="D102" s="83"/>
+      <c r="C102" s="86"/>
+      <c r="D102" s="86"/>
       <c r="E102" s="23" t="s">
         <v>481</v>
       </c>
@@ -19041,8 +19041,8 @@
       <c r="B103" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C103" s="83"/>
-      <c r="D103" s="83"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="86"/>
       <c r="E103" s="23" t="s">
         <v>481</v>
       </c>
@@ -19054,8 +19054,8 @@
       <c r="B104" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C104" s="83"/>
-      <c r="D104" s="83"/>
+      <c r="C104" s="86"/>
+      <c r="D104" s="86"/>
       <c r="E104" s="23" t="s">
         <v>481</v>
       </c>
@@ -19067,8 +19067,8 @@
       <c r="B105" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C105" s="83"/>
-      <c r="D105" s="83"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="86"/>
       <c r="E105" s="23" t="s">
         <v>481</v>
       </c>
@@ -19080,8 +19080,8 @@
       <c r="B106" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C106" s="83"/>
-      <c r="D106" s="83"/>
+      <c r="C106" s="86"/>
+      <c r="D106" s="86"/>
       <c r="E106" s="23" t="s">
         <v>481</v>
       </c>
@@ -19093,8 +19093,8 @@
       <c r="B107" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C107" s="83"/>
-      <c r="D107" s="83"/>
+      <c r="C107" s="86"/>
+      <c r="D107" s="86"/>
       <c r="E107" s="23" t="s">
         <v>481</v>
       </c>
@@ -19106,8 +19106,8 @@
       <c r="B108" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C108" s="83"/>
-      <c r="D108" s="83"/>
+      <c r="C108" s="86"/>
+      <c r="D108" s="86"/>
       <c r="E108" s="23" t="s">
         <v>481</v>
       </c>
@@ -19119,8 +19119,8 @@
       <c r="B109" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C109" s="83"/>
-      <c r="D109" s="83"/>
+      <c r="C109" s="86"/>
+      <c r="D109" s="86"/>
       <c r="E109" s="23" t="s">
         <v>481</v>
       </c>
@@ -19132,8 +19132,8 @@
       <c r="B110" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C110" s="83"/>
-      <c r="D110" s="83"/>
+      <c r="C110" s="86"/>
+      <c r="D110" s="86"/>
       <c r="E110" s="23" t="s">
         <v>481</v>
       </c>
@@ -19145,8 +19145,8 @@
       <c r="B111" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C111" s="83"/>
-      <c r="D111" s="83"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="86"/>
       <c r="E111" s="23" t="s">
         <v>481</v>
       </c>
@@ -19158,8 +19158,8 @@
       <c r="B112" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C112" s="83"/>
-      <c r="D112" s="83"/>
+      <c r="C112" s="86"/>
+      <c r="D112" s="86"/>
       <c r="E112" s="23" t="s">
         <v>481</v>
       </c>
@@ -19171,8 +19171,8 @@
       <c r="B113" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C113" s="83"/>
-      <c r="D113" s="83"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="86"/>
       <c r="E113" s="23" t="s">
         <v>481</v>
       </c>
@@ -19184,8 +19184,8 @@
       <c r="B114" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C114" s="83"/>
-      <c r="D114" s="83"/>
+      <c r="C114" s="86"/>
+      <c r="D114" s="86"/>
       <c r="E114" s="23" t="s">
         <v>481</v>
       </c>
@@ -19197,8 +19197,8 @@
       <c r="B115" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C115" s="83"/>
-      <c r="D115" s="83"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="86"/>
       <c r="E115" s="23" t="s">
         <v>481</v>
       </c>
@@ -19210,8 +19210,8 @@
       <c r="B116" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C116" s="83"/>
-      <c r="D116" s="83"/>
+      <c r="C116" s="86"/>
+      <c r="D116" s="86"/>
       <c r="E116" s="23" t="s">
         <v>481</v>
       </c>
@@ -19223,8 +19223,8 @@
       <c r="B117" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C117" s="83"/>
-      <c r="D117" s="83"/>
+      <c r="C117" s="86"/>
+      <c r="D117" s="86"/>
       <c r="E117" s="23" t="s">
         <v>481</v>
       </c>
@@ -19236,8 +19236,8 @@
       <c r="B118" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C118" s="83"/>
-      <c r="D118" s="83"/>
+      <c r="C118" s="86"/>
+      <c r="D118" s="86"/>
       <c r="E118" s="23" t="s">
         <v>481</v>
       </c>
@@ -19249,8 +19249,8 @@
       <c r="B119" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C119" s="83"/>
-      <c r="D119" s="83"/>
+      <c r="C119" s="86"/>
+      <c r="D119" s="86"/>
       <c r="E119" s="23" t="s">
         <v>481</v>
       </c>
@@ -19262,8 +19262,8 @@
       <c r="B120" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C120" s="83"/>
-      <c r="D120" s="83"/>
+      <c r="C120" s="86"/>
+      <c r="D120" s="86"/>
       <c r="E120" s="23" t="s">
         <v>481</v>
       </c>
@@ -19275,8 +19275,8 @@
       <c r="B121" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C121" s="84"/>
-      <c r="D121" s="84"/>
+      <c r="C121" s="87"/>
+      <c r="D121" s="87"/>
       <c r="E121" s="28" t="s">
         <v>481</v>
       </c>
@@ -19291,7 +19291,7 @@
       <c r="C122" s="85" t="s">
         <v>511</v>
       </c>
-      <c r="D122" s="82" t="s">
+      <c r="D122" s="88" t="s">
         <v>348</v>
       </c>
       <c r="E122" s="19" t="s">
@@ -19305,8 +19305,8 @@
       <c r="B123" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C123" s="83"/>
-      <c r="D123" s="83"/>
+      <c r="C123" s="86"/>
+      <c r="D123" s="86"/>
       <c r="E123" s="23" t="s">
         <v>394</v>
       </c>
@@ -19318,8 +19318,8 @@
       <c r="B124" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C124" s="83"/>
-      <c r="D124" s="83"/>
+      <c r="C124" s="86"/>
+      <c r="D124" s="86"/>
       <c r="E124" s="23" t="s">
         <v>394</v>
       </c>
@@ -19331,8 +19331,8 @@
       <c r="B125" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C125" s="83"/>
-      <c r="D125" s="83"/>
+      <c r="C125" s="86"/>
+      <c r="D125" s="86"/>
       <c r="E125" s="23" t="s">
         <v>394</v>
       </c>
@@ -19344,8 +19344,8 @@
       <c r="B126" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C126" s="83"/>
-      <c r="D126" s="83"/>
+      <c r="C126" s="86"/>
+      <c r="D126" s="86"/>
       <c r="E126" s="23" t="s">
         <v>394</v>
       </c>
@@ -19357,8 +19357,8 @@
       <c r="B127" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C127" s="83"/>
-      <c r="D127" s="83"/>
+      <c r="C127" s="86"/>
+      <c r="D127" s="86"/>
       <c r="E127" s="23" t="s">
         <v>394</v>
       </c>
@@ -19370,8 +19370,8 @@
       <c r="B128" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="C128" s="84"/>
-      <c r="D128" s="84"/>
+      <c r="C128" s="87"/>
+      <c r="D128" s="87"/>
       <c r="E128" s="28" t="s">
         <v>394</v>
       </c>
@@ -19383,10 +19383,10 @@
       <c r="B129" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="C129" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="D129" s="82" t="s">
+      <c r="C129" s="88" t="s">
+        <v>348</v>
+      </c>
+      <c r="D129" s="88" t="s">
         <v>348</v>
       </c>
       <c r="E129" s="19" t="s">
@@ -19400,8 +19400,8 @@
       <c r="B130" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="C130" s="83"/>
-      <c r="D130" s="83"/>
+      <c r="C130" s="86"/>
+      <c r="D130" s="86"/>
       <c r="E130" s="23" t="s">
         <v>394</v>
       </c>
@@ -19413,8 +19413,8 @@
       <c r="B131" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="C131" s="84"/>
-      <c r="D131" s="84"/>
+      <c r="C131" s="87"/>
+      <c r="D131" s="87"/>
       <c r="E131" s="28" t="s">
         <v>394</v>
       </c>
@@ -19429,7 +19429,7 @@
       <c r="C132" s="85" t="s">
         <v>524</v>
       </c>
-      <c r="D132" s="82" t="s">
+      <c r="D132" s="88" t="s">
         <v>348</v>
       </c>
       <c r="E132" s="19" t="s">
@@ -19443,8 +19443,8 @@
       <c r="B133" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C133" s="83"/>
-      <c r="D133" s="83"/>
+      <c r="C133" s="86"/>
+      <c r="D133" s="86"/>
       <c r="E133" s="23" t="s">
         <v>481</v>
       </c>
@@ -19456,8 +19456,8 @@
       <c r="B134" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C134" s="83"/>
-      <c r="D134" s="83"/>
+      <c r="C134" s="86"/>
+      <c r="D134" s="86"/>
       <c r="E134" s="23" t="s">
         <v>481</v>
       </c>
@@ -19469,8 +19469,8 @@
       <c r="B135" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C135" s="83"/>
-      <c r="D135" s="83"/>
+      <c r="C135" s="86"/>
+      <c r="D135" s="86"/>
       <c r="E135" s="23" t="s">
         <v>481</v>
       </c>
@@ -19482,8 +19482,8 @@
       <c r="B136" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C136" s="83"/>
-      <c r="D136" s="83"/>
+      <c r="C136" s="86"/>
+      <c r="D136" s="86"/>
       <c r="E136" s="23" t="s">
         <v>481</v>
       </c>
@@ -19495,8 +19495,8 @@
       <c r="B137" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C137" s="83"/>
-      <c r="D137" s="83"/>
+      <c r="C137" s="86"/>
+      <c r="D137" s="86"/>
       <c r="E137" s="23" t="s">
         <v>481</v>
       </c>
@@ -19508,8 +19508,8 @@
       <c r="B138" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C138" s="83"/>
-      <c r="D138" s="83"/>
+      <c r="C138" s="86"/>
+      <c r="D138" s="86"/>
       <c r="E138" s="23" t="s">
         <v>481</v>
       </c>
@@ -19521,8 +19521,8 @@
       <c r="B139" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C139" s="83"/>
-      <c r="D139" s="83"/>
+      <c r="C139" s="86"/>
+      <c r="D139" s="86"/>
       <c r="E139" s="23" t="s">
         <v>481</v>
       </c>
@@ -19534,8 +19534,8 @@
       <c r="B140" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C140" s="83"/>
-      <c r="D140" s="83"/>
+      <c r="C140" s="86"/>
+      <c r="D140" s="86"/>
       <c r="E140" s="23" t="s">
         <v>481</v>
       </c>
@@ -19547,8 +19547,8 @@
       <c r="B141" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C141" s="83"/>
-      <c r="D141" s="83"/>
+      <c r="C141" s="86"/>
+      <c r="D141" s="86"/>
       <c r="E141" s="23" t="s">
         <v>481</v>
       </c>
@@ -19560,8 +19560,8 @@
       <c r="B142" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C142" s="83"/>
-      <c r="D142" s="83"/>
+      <c r="C142" s="86"/>
+      <c r="D142" s="86"/>
       <c r="E142" s="23" t="s">
         <v>481</v>
       </c>
@@ -19573,8 +19573,8 @@
       <c r="B143" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C143" s="83"/>
-      <c r="D143" s="83"/>
+      <c r="C143" s="86"/>
+      <c r="D143" s="86"/>
       <c r="E143" s="23" t="s">
         <v>481</v>
       </c>
@@ -19586,8 +19586,8 @@
       <c r="B144" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C144" s="83"/>
-      <c r="D144" s="83"/>
+      <c r="C144" s="86"/>
+      <c r="D144" s="86"/>
       <c r="E144" s="23" t="s">
         <v>481</v>
       </c>
@@ -19599,8 +19599,8 @@
       <c r="B145" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C145" s="83"/>
-      <c r="D145" s="83"/>
+      <c r="C145" s="86"/>
+      <c r="D145" s="86"/>
       <c r="E145" s="23" t="s">
         <v>481</v>
       </c>
@@ -19612,8 +19612,8 @@
       <c r="B146" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C146" s="83"/>
-      <c r="D146" s="83"/>
+      <c r="C146" s="86"/>
+      <c r="D146" s="86"/>
       <c r="E146" s="23" t="s">
         <v>481</v>
       </c>
@@ -19625,8 +19625,8 @@
       <c r="B147" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C147" s="83"/>
-      <c r="D147" s="83"/>
+      <c r="C147" s="86"/>
+      <c r="D147" s="86"/>
       <c r="E147" s="23" t="s">
         <v>481</v>
       </c>
@@ -19638,8 +19638,8 @@
       <c r="B148" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C148" s="83"/>
-      <c r="D148" s="83"/>
+      <c r="C148" s="86"/>
+      <c r="D148" s="86"/>
       <c r="E148" s="23" t="s">
         <v>481</v>
       </c>
@@ -19651,8 +19651,8 @@
       <c r="B149" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C149" s="83"/>
-      <c r="D149" s="83"/>
+      <c r="C149" s="86"/>
+      <c r="D149" s="86"/>
       <c r="E149" s="23" t="s">
         <v>481</v>
       </c>
@@ -19664,8 +19664,8 @@
       <c r="B150" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C150" s="83"/>
-      <c r="D150" s="83"/>
+      <c r="C150" s="86"/>
+      <c r="D150" s="86"/>
       <c r="E150" s="23" t="s">
         <v>481</v>
       </c>
@@ -19677,8 +19677,8 @@
       <c r="B151" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C151" s="83"/>
-      <c r="D151" s="83"/>
+      <c r="C151" s="86"/>
+      <c r="D151" s="86"/>
       <c r="E151" s="23" t="s">
         <v>481</v>
       </c>
@@ -19690,8 +19690,8 @@
       <c r="B152" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C152" s="83"/>
-      <c r="D152" s="83"/>
+      <c r="C152" s="86"/>
+      <c r="D152" s="86"/>
       <c r="E152" s="23" t="s">
         <v>481</v>
       </c>
@@ -19703,8 +19703,8 @@
       <c r="B153" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C153" s="83"/>
-      <c r="D153" s="83"/>
+      <c r="C153" s="86"/>
+      <c r="D153" s="86"/>
       <c r="E153" s="23" t="s">
         <v>481</v>
       </c>
@@ -19716,8 +19716,8 @@
       <c r="B154" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C154" s="83"/>
-      <c r="D154" s="83"/>
+      <c r="C154" s="86"/>
+      <c r="D154" s="86"/>
       <c r="E154" s="23" t="s">
         <v>481</v>
       </c>
@@ -19729,8 +19729,8 @@
       <c r="B155" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C155" s="83"/>
-      <c r="D155" s="83"/>
+      <c r="C155" s="86"/>
+      <c r="D155" s="86"/>
       <c r="E155" s="23" t="s">
         <v>481</v>
       </c>
@@ -19742,8 +19742,8 @@
       <c r="B156" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C156" s="83"/>
-      <c r="D156" s="83"/>
+      <c r="C156" s="86"/>
+      <c r="D156" s="86"/>
       <c r="E156" s="23" t="s">
         <v>481</v>
       </c>
@@ -19755,8 +19755,8 @@
       <c r="B157" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C157" s="83"/>
-      <c r="D157" s="83"/>
+      <c r="C157" s="86"/>
+      <c r="D157" s="86"/>
       <c r="E157" s="23" t="s">
         <v>481</v>
       </c>
@@ -19768,8 +19768,8 @@
       <c r="B158" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C158" s="83"/>
-      <c r="D158" s="83"/>
+      <c r="C158" s="86"/>
+      <c r="D158" s="86"/>
       <c r="E158" s="23" t="s">
         <v>481</v>
       </c>
@@ -19781,8 +19781,8 @@
       <c r="B159" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C159" s="83"/>
-      <c r="D159" s="83"/>
+      <c r="C159" s="86"/>
+      <c r="D159" s="86"/>
       <c r="E159" s="23" t="s">
         <v>481</v>
       </c>
@@ -19794,8 +19794,8 @@
       <c r="B160" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C160" s="83"/>
-      <c r="D160" s="83"/>
+      <c r="C160" s="86"/>
+      <c r="D160" s="86"/>
       <c r="E160" s="23" t="s">
         <v>481</v>
       </c>
@@ -19807,8 +19807,8 @@
       <c r="B161" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C161" s="83"/>
-      <c r="D161" s="83"/>
+      <c r="C161" s="86"/>
+      <c r="D161" s="86"/>
       <c r="E161" s="23" t="s">
         <v>481</v>
       </c>
@@ -19820,8 +19820,8 @@
       <c r="B162" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C162" s="83"/>
-      <c r="D162" s="83"/>
+      <c r="C162" s="86"/>
+      <c r="D162" s="86"/>
       <c r="E162" s="23" t="s">
         <v>481</v>
       </c>
@@ -19833,8 +19833,8 @@
       <c r="B163" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="C163" s="84"/>
-      <c r="D163" s="84"/>
+      <c r="C163" s="87"/>
+      <c r="D163" s="87"/>
       <c r="E163" s="28" t="s">
         <v>481</v>
       </c>
@@ -19846,10 +19846,10 @@
       <c r="B164" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="C164" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="D164" s="82" t="s">
+      <c r="C164" s="88" t="s">
+        <v>348</v>
+      </c>
+      <c r="D164" s="88" t="s">
         <v>348</v>
       </c>
       <c r="E164" s="19" t="s">
@@ -19863,8 +19863,8 @@
       <c r="B165" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="C165" s="83"/>
-      <c r="D165" s="83"/>
+      <c r="C165" s="86"/>
+      <c r="D165" s="86"/>
       <c r="E165" s="23" t="s">
         <v>481</v>
       </c>
@@ -19876,8 +19876,8 @@
       <c r="B166" s="27" t="s">
         <v>557</v>
       </c>
-      <c r="C166" s="84"/>
-      <c r="D166" s="84"/>
+      <c r="C166" s="87"/>
+      <c r="D166" s="87"/>
       <c r="E166" s="28" t="s">
         <v>481</v>
       </c>
@@ -19889,10 +19889,10 @@
       <c r="B167" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="C167" s="82" t="s">
-        <v>348</v>
-      </c>
-      <c r="D167" s="82" t="s">
+      <c r="C167" s="88" t="s">
+        <v>348</v>
+      </c>
+      <c r="D167" s="88" t="s">
         <v>348</v>
       </c>
       <c r="E167" s="19" t="s">
@@ -19906,8 +19906,8 @@
       <c r="B168" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C168" s="83"/>
-      <c r="D168" s="83"/>
+      <c r="C168" s="86"/>
+      <c r="D168" s="86"/>
       <c r="E168" s="23" t="s">
         <v>383</v>
       </c>
@@ -19919,8 +19919,8 @@
       <c r="B169" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C169" s="83"/>
-      <c r="D169" s="83"/>
+      <c r="C169" s="86"/>
+      <c r="D169" s="86"/>
       <c r="E169" s="23" t="s">
         <v>383</v>
       </c>
@@ -19932,8 +19932,8 @@
       <c r="B170" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C170" s="83"/>
-      <c r="D170" s="83"/>
+      <c r="C170" s="86"/>
+      <c r="D170" s="86"/>
       <c r="E170" s="23" t="s">
         <v>383</v>
       </c>
@@ -19945,8 +19945,8 @@
       <c r="B171" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C171" s="83"/>
-      <c r="D171" s="83"/>
+      <c r="C171" s="86"/>
+      <c r="D171" s="86"/>
       <c r="E171" s="23" t="s">
         <v>383</v>
       </c>
@@ -19958,8 +19958,8 @@
       <c r="B172" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C172" s="83"/>
-      <c r="D172" s="83"/>
+      <c r="C172" s="86"/>
+      <c r="D172" s="86"/>
       <c r="E172" s="23" t="s">
         <v>383</v>
       </c>
@@ -19971,8 +19971,8 @@
       <c r="B173" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C173" s="83"/>
-      <c r="D173" s="83"/>
+      <c r="C173" s="86"/>
+      <c r="D173" s="86"/>
       <c r="E173" s="23" t="s">
         <v>383</v>
       </c>
@@ -19984,8 +19984,8 @@
       <c r="B174" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C174" s="83"/>
-      <c r="D174" s="83"/>
+      <c r="C174" s="86"/>
+      <c r="D174" s="86"/>
       <c r="E174" s="23" t="s">
         <v>383</v>
       </c>
@@ -19997,8 +19997,8 @@
       <c r="B175" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C175" s="83"/>
-      <c r="D175" s="83"/>
+      <c r="C175" s="86"/>
+      <c r="D175" s="86"/>
       <c r="E175" s="23" t="s">
         <v>383</v>
       </c>
@@ -20010,8 +20010,8 @@
       <c r="B176" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C176" s="83"/>
-      <c r="D176" s="83"/>
+      <c r="C176" s="86"/>
+      <c r="D176" s="86"/>
       <c r="E176" s="23" t="s">
         <v>383</v>
       </c>
@@ -20023,8 +20023,8 @@
       <c r="B177" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C177" s="83"/>
-      <c r="D177" s="83"/>
+      <c r="C177" s="86"/>
+      <c r="D177" s="86"/>
       <c r="E177" s="23" t="s">
         <v>383</v>
       </c>
@@ -20036,8 +20036,8 @@
       <c r="B178" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C178" s="83"/>
-      <c r="D178" s="83"/>
+      <c r="C178" s="86"/>
+      <c r="D178" s="86"/>
       <c r="E178" s="23" t="s">
         <v>383</v>
       </c>
@@ -20049,8 +20049,8 @@
       <c r="B179" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C179" s="83"/>
-      <c r="D179" s="83"/>
+      <c r="C179" s="86"/>
+      <c r="D179" s="86"/>
       <c r="E179" s="23" t="s">
         <v>383</v>
       </c>
@@ -20062,8 +20062,8 @@
       <c r="B180" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C180" s="83"/>
-      <c r="D180" s="83"/>
+      <c r="C180" s="86"/>
+      <c r="D180" s="86"/>
       <c r="E180" s="23" t="s">
         <v>383</v>
       </c>
@@ -20075,8 +20075,8 @@
       <c r="B181" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C181" s="83"/>
-      <c r="D181" s="83"/>
+      <c r="C181" s="86"/>
+      <c r="D181" s="86"/>
       <c r="E181" s="23" t="s">
         <v>383</v>
       </c>
@@ -20088,8 +20088,8 @@
       <c r="B182" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C182" s="83"/>
-      <c r="D182" s="83"/>
+      <c r="C182" s="86"/>
+      <c r="D182" s="86"/>
       <c r="E182" s="23" t="s">
         <v>383</v>
       </c>
@@ -20101,8 +20101,8 @@
       <c r="B183" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C183" s="83"/>
-      <c r="D183" s="83"/>
+      <c r="C183" s="86"/>
+      <c r="D183" s="86"/>
       <c r="E183" s="23" t="s">
         <v>383</v>
       </c>
@@ -20114,8 +20114,8 @@
       <c r="B184" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C184" s="83"/>
-      <c r="D184" s="83"/>
+      <c r="C184" s="86"/>
+      <c r="D184" s="86"/>
       <c r="E184" s="23" t="s">
         <v>383</v>
       </c>
@@ -20127,8 +20127,8 @@
       <c r="B185" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C185" s="83"/>
-      <c r="D185" s="83"/>
+      <c r="C185" s="86"/>
+      <c r="D185" s="86"/>
       <c r="E185" s="23" t="s">
         <v>383</v>
       </c>
@@ -20140,8 +20140,8 @@
       <c r="B186" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C186" s="83"/>
-      <c r="D186" s="83"/>
+      <c r="C186" s="86"/>
+      <c r="D186" s="86"/>
       <c r="E186" s="23" t="s">
         <v>383</v>
       </c>
@@ -20153,8 +20153,8 @@
       <c r="B187" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="C187" s="84"/>
-      <c r="D187" s="84"/>
+      <c r="C187" s="87"/>
+      <c r="D187" s="87"/>
       <c r="E187" s="28" t="s">
         <v>383</v>
       </c>
@@ -20166,10 +20166,10 @@
       <c r="B188" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="C188" s="82" t="s">
+      <c r="C188" s="88" t="s">
         <v>579</v>
       </c>
-      <c r="D188" s="82" t="s">
+      <c r="D188" s="88" t="s">
         <v>348</v>
       </c>
       <c r="E188" s="19" t="s">
@@ -20183,8 +20183,8 @@
       <c r="B189" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C189" s="83"/>
-      <c r="D189" s="83"/>
+      <c r="C189" s="86"/>
+      <c r="D189" s="86"/>
       <c r="E189" s="23" t="s">
         <v>394</v>
       </c>
@@ -20196,8 +20196,8 @@
       <c r="B190" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C190" s="83"/>
-      <c r="D190" s="83"/>
+      <c r="C190" s="86"/>
+      <c r="D190" s="86"/>
       <c r="E190" s="23" t="s">
         <v>394</v>
       </c>
@@ -20209,8 +20209,8 @@
       <c r="B191" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C191" s="83"/>
-      <c r="D191" s="83"/>
+      <c r="C191" s="86"/>
+      <c r="D191" s="86"/>
       <c r="E191" s="23" t="s">
         <v>394</v>
       </c>
@@ -20222,8 +20222,8 @@
       <c r="B192" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C192" s="83"/>
-      <c r="D192" s="83"/>
+      <c r="C192" s="86"/>
+      <c r="D192" s="86"/>
       <c r="E192" s="23" t="s">
         <v>394</v>
       </c>
@@ -20235,8 +20235,8 @@
       <c r="B193" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C193" s="83"/>
-      <c r="D193" s="83"/>
+      <c r="C193" s="86"/>
+      <c r="D193" s="86"/>
       <c r="E193" s="23" t="s">
         <v>394</v>
       </c>
@@ -20248,8 +20248,8 @@
       <c r="B194" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C194" s="83"/>
-      <c r="D194" s="83"/>
+      <c r="C194" s="86"/>
+      <c r="D194" s="86"/>
       <c r="E194" s="23" t="s">
         <v>394</v>
       </c>
@@ -20261,8 +20261,8 @@
       <c r="B195" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C195" s="83"/>
-      <c r="D195" s="83"/>
+      <c r="C195" s="86"/>
+      <c r="D195" s="86"/>
       <c r="E195" s="23" t="s">
         <v>394</v>
       </c>
@@ -20274,8 +20274,8 @@
       <c r="B196" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C196" s="83"/>
-      <c r="D196" s="83"/>
+      <c r="C196" s="86"/>
+      <c r="D196" s="86"/>
       <c r="E196" s="23" t="s">
         <v>394</v>
       </c>
@@ -20287,8 +20287,8 @@
       <c r="B197" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C197" s="83"/>
-      <c r="D197" s="83"/>
+      <c r="C197" s="86"/>
+      <c r="D197" s="86"/>
       <c r="E197" s="23" t="s">
         <v>394</v>
       </c>
@@ -20300,8 +20300,8 @@
       <c r="B198" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C198" s="83"/>
-      <c r="D198" s="83"/>
+      <c r="C198" s="86"/>
+      <c r="D198" s="86"/>
       <c r="E198" s="23" t="s">
         <v>394</v>
       </c>
@@ -20313,8 +20313,8 @@
       <c r="B199" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C199" s="83"/>
-      <c r="D199" s="83"/>
+      <c r="C199" s="86"/>
+      <c r="D199" s="86"/>
       <c r="E199" s="23" t="s">
         <v>394</v>
       </c>
@@ -20326,8 +20326,8 @@
       <c r="B200" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C200" s="83"/>
-      <c r="D200" s="83"/>
+      <c r="C200" s="86"/>
+      <c r="D200" s="86"/>
       <c r="E200" s="23" t="s">
         <v>394</v>
       </c>
@@ -20339,8 +20339,8 @@
       <c r="B201" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C201" s="83"/>
-      <c r="D201" s="83"/>
+      <c r="C201" s="86"/>
+      <c r="D201" s="86"/>
       <c r="E201" s="23" t="s">
         <v>394</v>
       </c>
@@ -20352,8 +20352,8 @@
       <c r="B202" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C202" s="83"/>
-      <c r="D202" s="83"/>
+      <c r="C202" s="86"/>
+      <c r="D202" s="86"/>
       <c r="E202" s="23" t="s">
         <v>394</v>
       </c>
@@ -20365,8 +20365,8 @@
       <c r="B203" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C203" s="83"/>
-      <c r="D203" s="83"/>
+      <c r="C203" s="86"/>
+      <c r="D203" s="86"/>
       <c r="E203" s="23" t="s">
         <v>394</v>
       </c>
@@ -20378,8 +20378,8 @@
       <c r="B204" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C204" s="83"/>
-      <c r="D204" s="83"/>
+      <c r="C204" s="86"/>
+      <c r="D204" s="86"/>
       <c r="E204" s="23" t="s">
         <v>394</v>
       </c>
@@ -20391,8 +20391,8 @@
       <c r="B205" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C205" s="83"/>
-      <c r="D205" s="83"/>
+      <c r="C205" s="86"/>
+      <c r="D205" s="86"/>
       <c r="E205" s="23" t="s">
         <v>394</v>
       </c>
@@ -20404,8 +20404,8 @@
       <c r="B206" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C206" s="83"/>
-      <c r="D206" s="83"/>
+      <c r="C206" s="86"/>
+      <c r="D206" s="86"/>
       <c r="E206" s="23" t="s">
         <v>394</v>
       </c>
@@ -20417,8 +20417,8 @@
       <c r="B207" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C207" s="83"/>
-      <c r="D207" s="83"/>
+      <c r="C207" s="86"/>
+      <c r="D207" s="86"/>
       <c r="E207" s="23" t="s">
         <v>394</v>
       </c>
@@ -20430,8 +20430,8 @@
       <c r="B208" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C208" s="83"/>
-      <c r="D208" s="83"/>
+      <c r="C208" s="86"/>
+      <c r="D208" s="86"/>
       <c r="E208" s="23" t="s">
         <v>394</v>
       </c>
@@ -20443,8 +20443,8 @@
       <c r="B209" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C209" s="83"/>
-      <c r="D209" s="83"/>
+      <c r="C209" s="86"/>
+      <c r="D209" s="86"/>
       <c r="E209" s="23" t="s">
         <v>394</v>
       </c>
@@ -20456,8 +20456,8 @@
       <c r="B210" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C210" s="83"/>
-      <c r="D210" s="83"/>
+      <c r="C210" s="86"/>
+      <c r="D210" s="86"/>
       <c r="E210" s="23" t="s">
         <v>394</v>
       </c>
@@ -20469,8 +20469,8 @@
       <c r="B211" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C211" s="83"/>
-      <c r="D211" s="83"/>
+      <c r="C211" s="86"/>
+      <c r="D211" s="86"/>
       <c r="E211" s="23" t="s">
         <v>394</v>
       </c>
@@ -20482,8 +20482,8 @@
       <c r="B212" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C212" s="83"/>
-      <c r="D212" s="83"/>
+      <c r="C212" s="86"/>
+      <c r="D212" s="86"/>
       <c r="E212" s="23" t="s">
         <v>394</v>
       </c>
@@ -20495,8 +20495,8 @@
       <c r="B213" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C213" s="83"/>
-      <c r="D213" s="83"/>
+      <c r="C213" s="86"/>
+      <c r="D213" s="86"/>
       <c r="E213" s="23" t="s">
         <v>394</v>
       </c>
@@ -20508,8 +20508,8 @@
       <c r="B214" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C214" s="83"/>
-      <c r="D214" s="83"/>
+      <c r="C214" s="86"/>
+      <c r="D214" s="86"/>
       <c r="E214" s="23" t="s">
         <v>394</v>
       </c>
@@ -20521,8 +20521,8 @@
       <c r="B215" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="C215" s="84"/>
-      <c r="D215" s="84"/>
+      <c r="C215" s="87"/>
+      <c r="D215" s="87"/>
       <c r="E215" s="28" t="s">
         <v>394</v>
       </c>
@@ -20551,8 +20551,8 @@
       <c r="B217" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C217" s="83"/>
-      <c r="D217" s="83"/>
+      <c r="C217" s="86"/>
+      <c r="D217" s="86"/>
       <c r="E217" s="23" t="s">
         <v>394</v>
       </c>
@@ -20564,8 +20564,8 @@
       <c r="B218" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C218" s="83"/>
-      <c r="D218" s="83"/>
+      <c r="C218" s="86"/>
+      <c r="D218" s="86"/>
       <c r="E218" s="23" t="s">
         <v>394</v>
       </c>
@@ -20577,8 +20577,8 @@
       <c r="B219" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C219" s="83"/>
-      <c r="D219" s="83"/>
+      <c r="C219" s="86"/>
+      <c r="D219" s="86"/>
       <c r="E219" s="23" t="s">
         <v>394</v>
       </c>
@@ -20590,8 +20590,8 @@
       <c r="B220" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C220" s="83"/>
-      <c r="D220" s="83"/>
+      <c r="C220" s="86"/>
+      <c r="D220" s="86"/>
       <c r="E220" s="23" t="s">
         <v>394</v>
       </c>
@@ -20603,8 +20603,8 @@
       <c r="B221" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C221" s="83"/>
-      <c r="D221" s="83"/>
+      <c r="C221" s="86"/>
+      <c r="D221" s="86"/>
       <c r="E221" s="23" t="s">
         <v>394</v>
       </c>
@@ -20616,8 +20616,8 @@
       <c r="B222" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C222" s="83"/>
-      <c r="D222" s="83"/>
+      <c r="C222" s="86"/>
+      <c r="D222" s="86"/>
       <c r="E222" s="23" t="s">
         <v>394</v>
       </c>
@@ -20629,8 +20629,8 @@
       <c r="B223" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C223" s="83"/>
-      <c r="D223" s="83"/>
+      <c r="C223" s="86"/>
+      <c r="D223" s="86"/>
       <c r="E223" s="23" t="s">
         <v>394</v>
       </c>
@@ -20642,8 +20642,8 @@
       <c r="B224" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C224" s="83"/>
-      <c r="D224" s="83"/>
+      <c r="C224" s="86"/>
+      <c r="D224" s="86"/>
       <c r="E224" s="23" t="s">
         <v>394</v>
       </c>
@@ -20655,8 +20655,8 @@
       <c r="B225" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C225" s="83"/>
-      <c r="D225" s="83"/>
+      <c r="C225" s="86"/>
+      <c r="D225" s="86"/>
       <c r="E225" s="23" t="s">
         <v>394</v>
       </c>
@@ -20668,8 +20668,8 @@
       <c r="B226" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C226" s="83"/>
-      <c r="D226" s="83"/>
+      <c r="C226" s="86"/>
+      <c r="D226" s="86"/>
       <c r="E226" s="23" t="s">
         <v>394</v>
       </c>
@@ -20681,8 +20681,8 @@
       <c r="B227" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C227" s="83"/>
-      <c r="D227" s="83"/>
+      <c r="C227" s="86"/>
+      <c r="D227" s="86"/>
       <c r="E227" s="23" t="s">
         <v>394</v>
       </c>
@@ -20694,8 +20694,8 @@
       <c r="B228" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C228" s="83"/>
-      <c r="D228" s="83"/>
+      <c r="C228" s="86"/>
+      <c r="D228" s="86"/>
       <c r="E228" s="23" t="s">
         <v>394</v>
       </c>
@@ -20707,8 +20707,8 @@
       <c r="B229" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C229" s="83"/>
-      <c r="D229" s="83"/>
+      <c r="C229" s="86"/>
+      <c r="D229" s="86"/>
       <c r="E229" s="23" t="s">
         <v>394</v>
       </c>
@@ -20720,8 +20720,8 @@
       <c r="B230" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C230" s="83"/>
-      <c r="D230" s="83"/>
+      <c r="C230" s="86"/>
+      <c r="D230" s="86"/>
       <c r="E230" s="23" t="s">
         <v>394</v>
       </c>
@@ -20733,8 +20733,8 @@
       <c r="B231" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C231" s="83"/>
-      <c r="D231" s="83"/>
+      <c r="C231" s="86"/>
+      <c r="D231" s="86"/>
       <c r="E231" s="23" t="s">
         <v>394</v>
       </c>
@@ -20746,8 +20746,8 @@
       <c r="B232" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C232" s="83"/>
-      <c r="D232" s="83"/>
+      <c r="C232" s="86"/>
+      <c r="D232" s="86"/>
       <c r="E232" s="23" t="s">
         <v>394</v>
       </c>
@@ -20759,8 +20759,8 @@
       <c r="B233" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C233" s="83"/>
-      <c r="D233" s="83"/>
+      <c r="C233" s="86"/>
+      <c r="D233" s="86"/>
       <c r="E233" s="23" t="s">
         <v>394</v>
       </c>
@@ -20772,8 +20772,8 @@
       <c r="B234" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C234" s="83"/>
-      <c r="D234" s="83"/>
+      <c r="C234" s="86"/>
+      <c r="D234" s="86"/>
       <c r="E234" s="23" t="s">
         <v>394</v>
       </c>
@@ -20785,8 +20785,8 @@
       <c r="B235" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C235" s="83"/>
-      <c r="D235" s="83"/>
+      <c r="C235" s="86"/>
+      <c r="D235" s="86"/>
       <c r="E235" s="23" t="s">
         <v>394</v>
       </c>
@@ -20798,8 +20798,8 @@
       <c r="B236" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C236" s="83"/>
-      <c r="D236" s="83"/>
+      <c r="C236" s="86"/>
+      <c r="D236" s="86"/>
       <c r="E236" s="23" t="s">
         <v>394</v>
       </c>
@@ -20811,8 +20811,8 @@
       <c r="B237" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C237" s="83"/>
-      <c r="D237" s="83"/>
+      <c r="C237" s="86"/>
+      <c r="D237" s="86"/>
       <c r="E237" s="23" t="s">
         <v>394</v>
       </c>
@@ -20824,8 +20824,8 @@
       <c r="B238" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C238" s="83"/>
-      <c r="D238" s="83"/>
+      <c r="C238" s="86"/>
+      <c r="D238" s="86"/>
       <c r="E238" s="23" t="s">
         <v>394</v>
       </c>
@@ -20837,8 +20837,8 @@
       <c r="B239" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C239" s="83"/>
-      <c r="D239" s="83"/>
+      <c r="C239" s="86"/>
+      <c r="D239" s="86"/>
       <c r="E239" s="23" t="s">
         <v>394</v>
       </c>
@@ -20850,8 +20850,8 @@
       <c r="B240" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C240" s="83"/>
-      <c r="D240" s="83"/>
+      <c r="C240" s="86"/>
+      <c r="D240" s="86"/>
       <c r="E240" s="23" t="s">
         <v>394</v>
       </c>
@@ -20863,8 +20863,8 @@
       <c r="B241" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C241" s="83"/>
-      <c r="D241" s="83"/>
+      <c r="C241" s="86"/>
+      <c r="D241" s="86"/>
       <c r="E241" s="23" t="s">
         <v>394</v>
       </c>
@@ -20876,8 +20876,8 @@
       <c r="B242" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C242" s="83"/>
-      <c r="D242" s="83"/>
+      <c r="C242" s="86"/>
+      <c r="D242" s="86"/>
       <c r="E242" s="23" t="s">
         <v>394</v>
       </c>
@@ -20889,8 +20889,8 @@
       <c r="B243" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C243" s="83"/>
-      <c r="D243" s="83"/>
+      <c r="C243" s="86"/>
+      <c r="D243" s="86"/>
       <c r="E243" s="23" t="s">
         <v>394</v>
       </c>
@@ -20902,8 +20902,8 @@
       <c r="B244" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C244" s="83"/>
-      <c r="D244" s="83"/>
+      <c r="C244" s="86"/>
+      <c r="D244" s="86"/>
       <c r="E244" s="23" t="s">
         <v>394</v>
       </c>
@@ -20915,8 +20915,8 @@
       <c r="B245" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C245" s="83"/>
-      <c r="D245" s="83"/>
+      <c r="C245" s="86"/>
+      <c r="D245" s="86"/>
       <c r="E245" s="23" t="s">
         <v>394</v>
       </c>
@@ -20928,8 +20928,8 @@
       <c r="B246" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C246" s="83"/>
-      <c r="D246" s="83"/>
+      <c r="C246" s="86"/>
+      <c r="D246" s="86"/>
       <c r="E246" s="23" t="s">
         <v>394</v>
       </c>
@@ -20941,8 +20941,8 @@
       <c r="B247" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C247" s="83"/>
-      <c r="D247" s="83"/>
+      <c r="C247" s="86"/>
+      <c r="D247" s="86"/>
       <c r="E247" s="23" t="s">
         <v>394</v>
       </c>
@@ -20954,8 +20954,8 @@
       <c r="B248" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C248" s="83"/>
-      <c r="D248" s="83"/>
+      <c r="C248" s="86"/>
+      <c r="D248" s="86"/>
       <c r="E248" s="23" t="s">
         <v>394</v>
       </c>
@@ -20967,8 +20967,8 @@
       <c r="B249" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C249" s="83"/>
-      <c r="D249" s="83"/>
+      <c r="C249" s="86"/>
+      <c r="D249" s="86"/>
       <c r="E249" s="23" t="s">
         <v>394</v>
       </c>
@@ -20980,8 +20980,8 @@
       <c r="B250" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C250" s="83"/>
-      <c r="D250" s="83"/>
+      <c r="C250" s="86"/>
+      <c r="D250" s="86"/>
       <c r="E250" s="23" t="s">
         <v>394</v>
       </c>
@@ -20993,8 +20993,8 @@
       <c r="B251" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C251" s="83"/>
-      <c r="D251" s="83"/>
+      <c r="C251" s="86"/>
+      <c r="D251" s="86"/>
       <c r="E251" s="23" t="s">
         <v>394</v>
       </c>
@@ -21006,8 +21006,8 @@
       <c r="B252" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C252" s="83"/>
-      <c r="D252" s="83"/>
+      <c r="C252" s="86"/>
+      <c r="D252" s="86"/>
       <c r="E252" s="23" t="s">
         <v>394</v>
       </c>
@@ -21019,8 +21019,8 @@
       <c r="B253" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C253" s="83"/>
-      <c r="D253" s="83"/>
+      <c r="C253" s="86"/>
+      <c r="D253" s="86"/>
       <c r="E253" s="23" t="s">
         <v>394</v>
       </c>
@@ -21032,8 +21032,8 @@
       <c r="B254" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C254" s="83"/>
-      <c r="D254" s="83"/>
+      <c r="C254" s="86"/>
+      <c r="D254" s="86"/>
       <c r="E254" s="23" t="s">
         <v>394</v>
       </c>
@@ -21045,8 +21045,8 @@
       <c r="B255" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C255" s="83"/>
-      <c r="D255" s="83"/>
+      <c r="C255" s="86"/>
+      <c r="D255" s="86"/>
       <c r="E255" s="23" t="s">
         <v>394</v>
       </c>
@@ -21058,8 +21058,8 @@
       <c r="B256" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C256" s="83"/>
-      <c r="D256" s="83"/>
+      <c r="C256" s="86"/>
+      <c r="D256" s="86"/>
       <c r="E256" s="23" t="s">
         <v>394</v>
       </c>
@@ -21071,8 +21071,8 @@
       <c r="B257" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C257" s="83"/>
-      <c r="D257" s="83"/>
+      <c r="C257" s="86"/>
+      <c r="D257" s="86"/>
       <c r="E257" s="23" t="s">
         <v>394</v>
       </c>
@@ -21084,8 +21084,8 @@
       <c r="B258" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C258" s="83"/>
-      <c r="D258" s="83"/>
+      <c r="C258" s="86"/>
+      <c r="D258" s="86"/>
       <c r="E258" s="23" t="s">
         <v>394</v>
       </c>
@@ -21097,8 +21097,8 @@
       <c r="B259" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C259" s="83"/>
-      <c r="D259" s="83"/>
+      <c r="C259" s="86"/>
+      <c r="D259" s="86"/>
       <c r="E259" s="23" t="s">
         <v>394</v>
       </c>
@@ -21110,8 +21110,8 @@
       <c r="B260" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C260" s="83"/>
-      <c r="D260" s="83"/>
+      <c r="C260" s="86"/>
+      <c r="D260" s="86"/>
       <c r="E260" s="23" t="s">
         <v>394</v>
       </c>
@@ -21123,8 +21123,8 @@
       <c r="B261" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C261" s="83"/>
-      <c r="D261" s="83"/>
+      <c r="C261" s="86"/>
+      <c r="D261" s="86"/>
       <c r="E261" s="23" t="s">
         <v>394</v>
       </c>
@@ -21136,8 +21136,8 @@
       <c r="B262" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C262" s="83"/>
-      <c r="D262" s="83"/>
+      <c r="C262" s="86"/>
+      <c r="D262" s="86"/>
       <c r="E262" s="23" t="s">
         <v>394</v>
       </c>
@@ -21149,8 +21149,8 @@
       <c r="B263" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C263" s="83"/>
-      <c r="D263" s="83"/>
+      <c r="C263" s="86"/>
+      <c r="D263" s="86"/>
       <c r="E263" s="23" t="s">
         <v>394</v>
       </c>
@@ -21162,8 +21162,8 @@
       <c r="B264" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C264" s="83"/>
-      <c r="D264" s="83"/>
+      <c r="C264" s="86"/>
+      <c r="D264" s="86"/>
       <c r="E264" s="23" t="s">
         <v>394</v>
       </c>
@@ -21175,8 +21175,8 @@
       <c r="B265" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C265" s="83"/>
-      <c r="D265" s="83"/>
+      <c r="C265" s="86"/>
+      <c r="D265" s="86"/>
       <c r="E265" s="23" t="s">
         <v>394</v>
       </c>
@@ -21188,8 +21188,8 @@
       <c r="B266" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C266" s="83"/>
-      <c r="D266" s="83"/>
+      <c r="C266" s="86"/>
+      <c r="D266" s="86"/>
       <c r="E266" s="23" t="s">
         <v>394</v>
       </c>
@@ -21201,8 +21201,8 @@
       <c r="B267" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C267" s="83"/>
-      <c r="D267" s="83"/>
+      <c r="C267" s="86"/>
+      <c r="D267" s="86"/>
       <c r="E267" s="23" t="s">
         <v>394</v>
       </c>
@@ -21214,8 +21214,8 @@
       <c r="B268" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C268" s="83"/>
-      <c r="D268" s="83"/>
+      <c r="C268" s="86"/>
+      <c r="D268" s="86"/>
       <c r="E268" s="23" t="s">
         <v>394</v>
       </c>
@@ -21227,8 +21227,8 @@
       <c r="B269" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C269" s="83"/>
-      <c r="D269" s="83"/>
+      <c r="C269" s="86"/>
+      <c r="D269" s="86"/>
       <c r="E269" s="23" t="s">
         <v>394</v>
       </c>
@@ -21240,8 +21240,8 @@
       <c r="B270" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C270" s="83"/>
-      <c r="D270" s="83"/>
+      <c r="C270" s="86"/>
+      <c r="D270" s="86"/>
       <c r="E270" s="23" t="s">
         <v>394</v>
       </c>
@@ -21253,8 +21253,8 @@
       <c r="B271" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C271" s="83"/>
-      <c r="D271" s="83"/>
+      <c r="C271" s="86"/>
+      <c r="D271" s="86"/>
       <c r="E271" s="23" t="s">
         <v>394</v>
       </c>
@@ -21266,8 +21266,8 @@
       <c r="B272" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C272" s="83"/>
-      <c r="D272" s="83"/>
+      <c r="C272" s="86"/>
+      <c r="D272" s="86"/>
       <c r="E272" s="23" t="s">
         <v>394</v>
       </c>
@@ -21279,8 +21279,8 @@
       <c r="B273" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C273" s="83"/>
-      <c r="D273" s="83"/>
+      <c r="C273" s="86"/>
+      <c r="D273" s="86"/>
       <c r="E273" s="23" t="s">
         <v>394</v>
       </c>
@@ -21292,8 +21292,8 @@
       <c r="B274" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C274" s="83"/>
-      <c r="D274" s="83"/>
+      <c r="C274" s="86"/>
+      <c r="D274" s="86"/>
       <c r="E274" s="23" t="s">
         <v>394</v>
       </c>
@@ -21305,8 +21305,8 @@
       <c r="B275" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C275" s="83"/>
-      <c r="D275" s="83"/>
+      <c r="C275" s="86"/>
+      <c r="D275" s="86"/>
       <c r="E275" s="23" t="s">
         <v>394</v>
       </c>
@@ -21318,8 +21318,8 @@
       <c r="B276" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C276" s="83"/>
-      <c r="D276" s="83"/>
+      <c r="C276" s="86"/>
+      <c r="D276" s="86"/>
       <c r="E276" s="23" t="s">
         <v>394</v>
       </c>
@@ -21331,8 +21331,8 @@
       <c r="B277" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C277" s="83"/>
-      <c r="D277" s="83"/>
+      <c r="C277" s="86"/>
+      <c r="D277" s="86"/>
       <c r="E277" s="23" t="s">
         <v>394</v>
       </c>
@@ -21344,8 +21344,8 @@
       <c r="B278" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C278" s="83"/>
-      <c r="D278" s="83"/>
+      <c r="C278" s="86"/>
+      <c r="D278" s="86"/>
       <c r="E278" s="23" t="s">
         <v>394</v>
       </c>
@@ -21357,8 +21357,8 @@
       <c r="B279" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C279" s="83"/>
-      <c r="D279" s="83"/>
+      <c r="C279" s="86"/>
+      <c r="D279" s="86"/>
       <c r="E279" s="23" t="s">
         <v>394</v>
       </c>
@@ -21370,8 +21370,8 @@
       <c r="B280" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C280" s="83"/>
-      <c r="D280" s="83"/>
+      <c r="C280" s="86"/>
+      <c r="D280" s="86"/>
       <c r="E280" s="23" t="s">
         <v>394</v>
       </c>
@@ -21383,8 +21383,8 @@
       <c r="B281" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C281" s="83"/>
-      <c r="D281" s="83"/>
+      <c r="C281" s="86"/>
+      <c r="D281" s="86"/>
       <c r="E281" s="23" t="s">
         <v>394</v>
       </c>
@@ -21396,8 +21396,8 @@
       <c r="B282" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C282" s="83"/>
-      <c r="D282" s="83"/>
+      <c r="C282" s="86"/>
+      <c r="D282" s="86"/>
       <c r="E282" s="23" t="s">
         <v>394</v>
       </c>
@@ -21409,8 +21409,8 @@
       <c r="B283" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C283" s="83"/>
-      <c r="D283" s="83"/>
+      <c r="C283" s="86"/>
+      <c r="D283" s="86"/>
       <c r="E283" s="23" t="s">
         <v>394</v>
       </c>
@@ -21422,8 +21422,8 @@
       <c r="B284" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C284" s="83"/>
-      <c r="D284" s="83"/>
+      <c r="C284" s="86"/>
+      <c r="D284" s="86"/>
       <c r="E284" s="23" t="s">
         <v>394</v>
       </c>
@@ -21435,8 +21435,8 @@
       <c r="B285" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C285" s="83"/>
-      <c r="D285" s="83"/>
+      <c r="C285" s="86"/>
+      <c r="D285" s="86"/>
       <c r="E285" s="23" t="s">
         <v>394</v>
       </c>
@@ -21448,8 +21448,8 @@
       <c r="B286" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C286" s="83"/>
-      <c r="D286" s="83"/>
+      <c r="C286" s="86"/>
+      <c r="D286" s="86"/>
       <c r="E286" s="23" t="s">
         <v>394</v>
       </c>
@@ -21461,8 +21461,8 @@
       <c r="B287" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C287" s="83"/>
-      <c r="D287" s="83"/>
+      <c r="C287" s="86"/>
+      <c r="D287" s="86"/>
       <c r="E287" s="23" t="s">
         <v>394</v>
       </c>
@@ -21474,8 +21474,8 @@
       <c r="B288" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C288" s="83"/>
-      <c r="D288" s="83"/>
+      <c r="C288" s="86"/>
+      <c r="D288" s="86"/>
       <c r="E288" s="23" t="s">
         <v>394</v>
       </c>
@@ -21487,8 +21487,8 @@
       <c r="B289" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C289" s="83"/>
-      <c r="D289" s="83"/>
+      <c r="C289" s="86"/>
+      <c r="D289" s="86"/>
       <c r="E289" s="23" t="s">
         <v>394</v>
       </c>
@@ -21500,8 +21500,8 @@
       <c r="B290" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C290" s="83"/>
-      <c r="D290" s="83"/>
+      <c r="C290" s="86"/>
+      <c r="D290" s="86"/>
       <c r="E290" s="23" t="s">
         <v>394</v>
       </c>
@@ -21513,8 +21513,8 @@
       <c r="B291" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C291" s="83"/>
-      <c r="D291" s="83"/>
+      <c r="C291" s="86"/>
+      <c r="D291" s="86"/>
       <c r="E291" s="23" t="s">
         <v>394</v>
       </c>
@@ -21526,8 +21526,8 @@
       <c r="B292" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C292" s="83"/>
-      <c r="D292" s="83"/>
+      <c r="C292" s="86"/>
+      <c r="D292" s="86"/>
       <c r="E292" s="23" t="s">
         <v>394</v>
       </c>
@@ -21539,8 +21539,8 @@
       <c r="B293" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C293" s="83"/>
-      <c r="D293" s="83"/>
+      <c r="C293" s="86"/>
+      <c r="D293" s="86"/>
       <c r="E293" s="23" t="s">
         <v>394</v>
       </c>
@@ -21552,8 +21552,8 @@
       <c r="B294" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C294" s="83"/>
-      <c r="D294" s="83"/>
+      <c r="C294" s="86"/>
+      <c r="D294" s="86"/>
       <c r="E294" s="23" t="s">
         <v>394</v>
       </c>
@@ -21565,8 +21565,8 @@
       <c r="B295" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C295" s="83"/>
-      <c r="D295" s="83"/>
+      <c r="C295" s="86"/>
+      <c r="D295" s="86"/>
       <c r="E295" s="23" t="s">
         <v>394</v>
       </c>
@@ -21578,8 +21578,8 @@
       <c r="B296" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C296" s="83"/>
-      <c r="D296" s="83"/>
+      <c r="C296" s="86"/>
+      <c r="D296" s="86"/>
       <c r="E296" s="23" t="s">
         <v>394</v>
       </c>
@@ -21591,8 +21591,8 @@
       <c r="B297" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C297" s="83"/>
-      <c r="D297" s="83"/>
+      <c r="C297" s="86"/>
+      <c r="D297" s="86"/>
       <c r="E297" s="23" t="s">
         <v>394</v>
       </c>
@@ -21604,8 +21604,8 @@
       <c r="B298" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C298" s="83"/>
-      <c r="D298" s="83"/>
+      <c r="C298" s="86"/>
+      <c r="D298" s="86"/>
       <c r="E298" s="23" t="s">
         <v>394</v>
       </c>
@@ -21617,8 +21617,8 @@
       <c r="B299" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C299" s="83"/>
-      <c r="D299" s="83"/>
+      <c r="C299" s="86"/>
+      <c r="D299" s="86"/>
       <c r="E299" s="23" t="s">
         <v>394</v>
       </c>
@@ -21630,8 +21630,8 @@
       <c r="B300" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C300" s="83"/>
-      <c r="D300" s="83"/>
+      <c r="C300" s="86"/>
+      <c r="D300" s="86"/>
       <c r="E300" s="23" t="s">
         <v>394</v>
       </c>
@@ -21643,8 +21643,8 @@
       <c r="B301" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C301" s="83"/>
-      <c r="D301" s="83"/>
+      <c r="C301" s="86"/>
+      <c r="D301" s="86"/>
       <c r="E301" s="23" t="s">
         <v>394</v>
       </c>
@@ -21656,8 +21656,8 @@
       <c r="B302" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C302" s="83"/>
-      <c r="D302" s="83"/>
+      <c r="C302" s="86"/>
+      <c r="D302" s="86"/>
       <c r="E302" s="23" t="s">
         <v>394</v>
       </c>
@@ -21669,8 +21669,8 @@
       <c r="B303" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C303" s="83"/>
-      <c r="D303" s="83"/>
+      <c r="C303" s="86"/>
+      <c r="D303" s="86"/>
       <c r="E303" s="23" t="s">
         <v>394</v>
       </c>
@@ -21682,8 +21682,8 @@
       <c r="B304" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C304" s="83"/>
-      <c r="D304" s="83"/>
+      <c r="C304" s="86"/>
+      <c r="D304" s="86"/>
       <c r="E304" s="23" t="s">
         <v>394</v>
       </c>
@@ -21695,8 +21695,8 @@
       <c r="B305" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C305" s="83"/>
-      <c r="D305" s="83"/>
+      <c r="C305" s="86"/>
+      <c r="D305" s="86"/>
       <c r="E305" s="23" t="s">
         <v>394</v>
       </c>
@@ -21708,8 +21708,8 @@
       <c r="B306" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C306" s="83"/>
-      <c r="D306" s="83"/>
+      <c r="C306" s="86"/>
+      <c r="D306" s="86"/>
       <c r="E306" s="23" t="s">
         <v>394</v>
       </c>
@@ -21721,8 +21721,8 @@
       <c r="B307" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C307" s="83"/>
-      <c r="D307" s="83"/>
+      <c r="C307" s="86"/>
+      <c r="D307" s="86"/>
       <c r="E307" s="23" t="s">
         <v>394</v>
       </c>
@@ -21734,8 +21734,8 @@
       <c r="B308" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C308" s="83"/>
-      <c r="D308" s="83"/>
+      <c r="C308" s="86"/>
+      <c r="D308" s="86"/>
       <c r="E308" s="23" t="s">
         <v>394</v>
       </c>
@@ -21747,8 +21747,8 @@
       <c r="B309" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C309" s="83"/>
-      <c r="D309" s="83"/>
+      <c r="C309" s="86"/>
+      <c r="D309" s="86"/>
       <c r="E309" s="23" t="s">
         <v>394</v>
       </c>
@@ -21760,8 +21760,8 @@
       <c r="B310" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C310" s="83"/>
-      <c r="D310" s="83"/>
+      <c r="C310" s="86"/>
+      <c r="D310" s="86"/>
       <c r="E310" s="23" t="s">
         <v>394</v>
       </c>
@@ -21773,8 +21773,8 @@
       <c r="B311" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C311" s="83"/>
-      <c r="D311" s="83"/>
+      <c r="C311" s="86"/>
+      <c r="D311" s="86"/>
       <c r="E311" s="23" t="s">
         <v>394</v>
       </c>
@@ -21786,8 +21786,8 @@
       <c r="B312" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C312" s="83"/>
-      <c r="D312" s="83"/>
+      <c r="C312" s="86"/>
+      <c r="D312" s="86"/>
       <c r="E312" s="23" t="s">
         <v>394</v>
       </c>
@@ -21799,8 +21799,8 @@
       <c r="B313" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C313" s="83"/>
-      <c r="D313" s="83"/>
+      <c r="C313" s="86"/>
+      <c r="D313" s="86"/>
       <c r="E313" s="23" t="s">
         <v>394</v>
       </c>
@@ -21812,8 +21812,8 @@
       <c r="B314" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C314" s="83"/>
-      <c r="D314" s="83"/>
+      <c r="C314" s="86"/>
+      <c r="D314" s="86"/>
       <c r="E314" s="23" t="s">
         <v>394</v>
       </c>
@@ -21825,8 +21825,8 @@
       <c r="B315" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C315" s="83"/>
-      <c r="D315" s="83"/>
+      <c r="C315" s="86"/>
+      <c r="D315" s="86"/>
       <c r="E315" s="23" t="s">
         <v>394</v>
       </c>
@@ -21838,8 +21838,8 @@
       <c r="B316" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C316" s="83"/>
-      <c r="D316" s="83"/>
+      <c r="C316" s="86"/>
+      <c r="D316" s="86"/>
       <c r="E316" s="23" t="s">
         <v>394</v>
       </c>
@@ -21851,8 +21851,8 @@
       <c r="B317" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C317" s="83"/>
-      <c r="D317" s="83"/>
+      <c r="C317" s="86"/>
+      <c r="D317" s="86"/>
       <c r="E317" s="23" t="s">
         <v>394</v>
       </c>
@@ -21864,8 +21864,8 @@
       <c r="B318" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="C318" s="84"/>
-      <c r="D318" s="84"/>
+      <c r="C318" s="87"/>
+      <c r="D318" s="87"/>
       <c r="E318" s="28" t="s">
         <v>394</v>
       </c>
@@ -21880,7 +21880,7 @@
       <c r="C319" s="85" t="s">
         <v>710</v>
       </c>
-      <c r="D319" s="82" t="s">
+      <c r="D319" s="88" t="s">
         <v>348</v>
       </c>
       <c r="E319" s="19" t="s">
@@ -21894,8 +21894,8 @@
       <c r="B320" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C320" s="83"/>
-      <c r="D320" s="83"/>
+      <c r="C320" s="86"/>
+      <c r="D320" s="86"/>
       <c r="E320" s="23" t="s">
         <v>481</v>
       </c>
@@ -21907,8 +21907,8 @@
       <c r="B321" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C321" s="83"/>
-      <c r="D321" s="83"/>
+      <c r="C321" s="86"/>
+      <c r="D321" s="86"/>
       <c r="E321" s="23" t="s">
         <v>481</v>
       </c>
@@ -21920,8 +21920,8 @@
       <c r="B322" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C322" s="83"/>
-      <c r="D322" s="83"/>
+      <c r="C322" s="86"/>
+      <c r="D322" s="86"/>
       <c r="E322" s="23" t="s">
         <v>481</v>
       </c>
@@ -21933,8 +21933,8 @@
       <c r="B323" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C323" s="83"/>
-      <c r="D323" s="83"/>
+      <c r="C323" s="86"/>
+      <c r="D323" s="86"/>
       <c r="E323" s="23" t="s">
         <v>481</v>
       </c>
@@ -21946,8 +21946,8 @@
       <c r="B324" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C324" s="83"/>
-      <c r="D324" s="83"/>
+      <c r="C324" s="86"/>
+      <c r="D324" s="86"/>
       <c r="E324" s="23" t="s">
         <v>481</v>
       </c>
@@ -21959,8 +21959,8 @@
       <c r="B325" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C325" s="83"/>
-      <c r="D325" s="83"/>
+      <c r="C325" s="86"/>
+      <c r="D325" s="86"/>
       <c r="E325" s="23" t="s">
         <v>481</v>
       </c>
@@ -21972,8 +21972,8 @@
       <c r="B326" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C326" s="83"/>
-      <c r="D326" s="83"/>
+      <c r="C326" s="86"/>
+      <c r="D326" s="86"/>
       <c r="E326" s="23" t="s">
         <v>481</v>
       </c>
@@ -21985,8 +21985,8 @@
       <c r="B327" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C327" s="83"/>
-      <c r="D327" s="83"/>
+      <c r="C327" s="86"/>
+      <c r="D327" s="86"/>
       <c r="E327" s="23" t="s">
         <v>481</v>
       </c>
@@ -21998,8 +21998,8 @@
       <c r="B328" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C328" s="83"/>
-      <c r="D328" s="83"/>
+      <c r="C328" s="86"/>
+      <c r="D328" s="86"/>
       <c r="E328" s="23" t="s">
         <v>481</v>
       </c>
@@ -22011,8 +22011,8 @@
       <c r="B329" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C329" s="83"/>
-      <c r="D329" s="83"/>
+      <c r="C329" s="86"/>
+      <c r="D329" s="86"/>
       <c r="E329" s="23" t="s">
         <v>481</v>
       </c>
@@ -22024,8 +22024,8 @@
       <c r="B330" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C330" s="83"/>
-      <c r="D330" s="83"/>
+      <c r="C330" s="86"/>
+      <c r="D330" s="86"/>
       <c r="E330" s="23" t="s">
         <v>481</v>
       </c>
@@ -22037,8 +22037,8 @@
       <c r="B331" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C331" s="83"/>
-      <c r="D331" s="83"/>
+      <c r="C331" s="86"/>
+      <c r="D331" s="86"/>
       <c r="E331" s="23" t="s">
         <v>481</v>
       </c>
@@ -22050,8 +22050,8 @@
       <c r="B332" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C332" s="83"/>
-      <c r="D332" s="83"/>
+      <c r="C332" s="86"/>
+      <c r="D332" s="86"/>
       <c r="E332" s="23" t="s">
         <v>481</v>
       </c>
@@ -22063,8 +22063,8 @@
       <c r="B333" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C333" s="83"/>
-      <c r="D333" s="83"/>
+      <c r="C333" s="86"/>
+      <c r="D333" s="86"/>
       <c r="E333" s="23" t="s">
         <v>481</v>
       </c>
@@ -22076,8 +22076,8 @@
       <c r="B334" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C334" s="83"/>
-      <c r="D334" s="83"/>
+      <c r="C334" s="86"/>
+      <c r="D334" s="86"/>
       <c r="E334" s="23" t="s">
         <v>481</v>
       </c>
@@ -22089,8 +22089,8 @@
       <c r="B335" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C335" s="83"/>
-      <c r="D335" s="83"/>
+      <c r="C335" s="86"/>
+      <c r="D335" s="86"/>
       <c r="E335" s="23" t="s">
         <v>481</v>
       </c>
@@ -22102,8 +22102,8 @@
       <c r="B336" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C336" s="83"/>
-      <c r="D336" s="83"/>
+      <c r="C336" s="86"/>
+      <c r="D336" s="86"/>
       <c r="E336" s="23" t="s">
         <v>481</v>
       </c>
@@ -22115,8 +22115,8 @@
       <c r="B337" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C337" s="83"/>
-      <c r="D337" s="83"/>
+      <c r="C337" s="86"/>
+      <c r="D337" s="86"/>
       <c r="E337" s="23" t="s">
         <v>481</v>
       </c>
@@ -22128,8 +22128,8 @@
       <c r="B338" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C338" s="83"/>
-      <c r="D338" s="83"/>
+      <c r="C338" s="86"/>
+      <c r="D338" s="86"/>
       <c r="E338" s="23" t="s">
         <v>481</v>
       </c>
@@ -22141,8 +22141,8 @@
       <c r="B339" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C339" s="83"/>
-      <c r="D339" s="83"/>
+      <c r="C339" s="86"/>
+      <c r="D339" s="86"/>
       <c r="E339" s="23" t="s">
         <v>481</v>
       </c>
@@ -22154,8 +22154,8 @@
       <c r="B340" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C340" s="83"/>
-      <c r="D340" s="83"/>
+      <c r="C340" s="86"/>
+      <c r="D340" s="86"/>
       <c r="E340" s="23" t="s">
         <v>481</v>
       </c>
@@ -22167,8 +22167,8 @@
       <c r="B341" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C341" s="83"/>
-      <c r="D341" s="83"/>
+      <c r="C341" s="86"/>
+      <c r="D341" s="86"/>
       <c r="E341" s="23" t="s">
         <v>481</v>
       </c>
@@ -22180,8 +22180,8 @@
       <c r="B342" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C342" s="83"/>
-      <c r="D342" s="83"/>
+      <c r="C342" s="86"/>
+      <c r="D342" s="86"/>
       <c r="E342" s="23" t="s">
         <v>481</v>
       </c>
@@ -22193,8 +22193,8 @@
       <c r="B343" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C343" s="83"/>
-      <c r="D343" s="83"/>
+      <c r="C343" s="86"/>
+      <c r="D343" s="86"/>
       <c r="E343" s="23" t="s">
         <v>481</v>
       </c>
@@ -22206,8 +22206,8 @@
       <c r="B344" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C344" s="83"/>
-      <c r="D344" s="83"/>
+      <c r="C344" s="86"/>
+      <c r="D344" s="86"/>
       <c r="E344" s="23" t="s">
         <v>481</v>
       </c>
@@ -22219,8 +22219,8 @@
       <c r="B345" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C345" s="83"/>
-      <c r="D345" s="83"/>
+      <c r="C345" s="86"/>
+      <c r="D345" s="86"/>
       <c r="E345" s="23" t="s">
         <v>481</v>
       </c>
@@ -22232,8 +22232,8 @@
       <c r="B346" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C346" s="83"/>
-      <c r="D346" s="83"/>
+      <c r="C346" s="86"/>
+      <c r="D346" s="86"/>
       <c r="E346" s="23" t="s">
         <v>481</v>
       </c>
@@ -22245,8 +22245,8 @@
       <c r="B347" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C347" s="83"/>
-      <c r="D347" s="83"/>
+      <c r="C347" s="86"/>
+      <c r="D347" s="86"/>
       <c r="E347" s="23" t="s">
         <v>481</v>
       </c>
@@ -22258,8 +22258,8 @@
       <c r="B348" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="C348" s="84"/>
-      <c r="D348" s="84"/>
+      <c r="C348" s="87"/>
+      <c r="D348" s="87"/>
       <c r="E348" s="28" t="s">
         <v>481</v>
       </c>
@@ -22271,10 +22271,10 @@
       <c r="B349" s="18" t="s">
         <v>709</v>
       </c>
-      <c r="C349" s="91" t="s">
-        <v>348</v>
-      </c>
-      <c r="D349" s="88" t="s">
+      <c r="C349" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="D349" s="82" t="s">
         <v>737</v>
       </c>
       <c r="E349" s="19" t="s">
@@ -22288,8 +22288,8 @@
       <c r="B350" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C350" s="89"/>
-      <c r="D350" s="89"/>
+      <c r="C350" s="83"/>
+      <c r="D350" s="83"/>
       <c r="E350" s="23" t="s">
         <v>383</v>
       </c>
@@ -22301,8 +22301,8 @@
       <c r="B351" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C351" s="89"/>
-      <c r="D351" s="89"/>
+      <c r="C351" s="83"/>
+      <c r="D351" s="83"/>
       <c r="E351" s="23" t="s">
         <v>383</v>
       </c>
@@ -22314,8 +22314,8 @@
       <c r="B352" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C352" s="89"/>
-      <c r="D352" s="89"/>
+      <c r="C352" s="83"/>
+      <c r="D352" s="83"/>
       <c r="E352" s="23" t="s">
         <v>383</v>
       </c>
@@ -22327,8 +22327,8 @@
       <c r="B353" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C353" s="89"/>
-      <c r="D353" s="89"/>
+      <c r="C353" s="83"/>
+      <c r="D353" s="83"/>
       <c r="E353" s="23" t="s">
         <v>383</v>
       </c>
@@ -22340,8 +22340,8 @@
       <c r="B354" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C354" s="89"/>
-      <c r="D354" s="89"/>
+      <c r="C354" s="83"/>
+      <c r="D354" s="83"/>
       <c r="E354" s="23" t="s">
         <v>383</v>
       </c>
@@ -22353,8 +22353,8 @@
       <c r="B355" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C355" s="89"/>
-      <c r="D355" s="89"/>
+      <c r="C355" s="83"/>
+      <c r="D355" s="83"/>
       <c r="E355" s="23" t="s">
         <v>383</v>
       </c>
@@ -22366,8 +22366,8 @@
       <c r="B356" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C356" s="89"/>
-      <c r="D356" s="89"/>
+      <c r="C356" s="83"/>
+      <c r="D356" s="83"/>
       <c r="E356" s="23" t="s">
         <v>383</v>
       </c>
@@ -22379,8 +22379,8 @@
       <c r="B357" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C357" s="89"/>
-      <c r="D357" s="89"/>
+      <c r="C357" s="83"/>
+      <c r="D357" s="83"/>
       <c r="E357" s="23" t="s">
         <v>383</v>
       </c>
@@ -22392,8 +22392,8 @@
       <c r="B358" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C358" s="89"/>
-      <c r="D358" s="89"/>
+      <c r="C358" s="83"/>
+      <c r="D358" s="83"/>
       <c r="E358" s="23" t="s">
         <v>383</v>
       </c>
@@ -22405,8 +22405,8 @@
       <c r="B359" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C359" s="89"/>
-      <c r="D359" s="89"/>
+      <c r="C359" s="83"/>
+      <c r="D359" s="83"/>
       <c r="E359" s="23" t="s">
         <v>383</v>
       </c>
@@ -22418,8 +22418,8 @@
       <c r="B360" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C360" s="89"/>
-      <c r="D360" s="89"/>
+      <c r="C360" s="83"/>
+      <c r="D360" s="83"/>
       <c r="E360" s="23" t="s">
         <v>383</v>
       </c>
@@ -22431,8 +22431,8 @@
       <c r="B361" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C361" s="89"/>
-      <c r="D361" s="89"/>
+      <c r="C361" s="83"/>
+      <c r="D361" s="83"/>
       <c r="E361" s="23" t="s">
         <v>383</v>
       </c>
@@ -22444,8 +22444,8 @@
       <c r="B362" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="C362" s="90"/>
-      <c r="D362" s="90"/>
+      <c r="C362" s="84"/>
+      <c r="D362" s="84"/>
       <c r="E362" s="28" t="s">
         <v>383</v>
       </c>
@@ -22457,10 +22457,10 @@
       <c r="B363" s="40" t="s">
         <v>709</v>
       </c>
-      <c r="C363" s="88" t="s">
+      <c r="C363" s="82" t="s">
         <v>752</v>
       </c>
-      <c r="D363" s="88" t="s">
+      <c r="D363" s="82" t="s">
         <v>753</v>
       </c>
       <c r="E363" s="19" t="s">
@@ -22474,8 +22474,8 @@
       <c r="B364" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C364" s="89"/>
-      <c r="D364" s="89"/>
+      <c r="C364" s="83"/>
+      <c r="D364" s="83"/>
       <c r="E364" s="23" t="s">
         <v>754</v>
       </c>
@@ -22487,8 +22487,8 @@
       <c r="B365" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C365" s="89"/>
-      <c r="D365" s="89"/>
+      <c r="C365" s="83"/>
+      <c r="D365" s="83"/>
       <c r="E365" s="23" t="s">
         <v>754</v>
       </c>
@@ -22500,8 +22500,8 @@
       <c r="B366" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C366" s="89"/>
-      <c r="D366" s="89"/>
+      <c r="C366" s="83"/>
+      <c r="D366" s="83"/>
       <c r="E366" s="23" t="s">
         <v>754</v>
       </c>
@@ -22513,8 +22513,8 @@
       <c r="B367" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C367" s="89"/>
-      <c r="D367" s="89"/>
+      <c r="C367" s="83"/>
+      <c r="D367" s="83"/>
       <c r="E367" s="23" t="s">
         <v>754</v>
       </c>
@@ -22526,8 +22526,8 @@
       <c r="B368" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C368" s="89"/>
-      <c r="D368" s="89"/>
+      <c r="C368" s="83"/>
+      <c r="D368" s="83"/>
       <c r="E368" s="23" t="s">
         <v>754</v>
       </c>
@@ -22539,8 +22539,8 @@
       <c r="B369" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C369" s="89"/>
-      <c r="D369" s="89"/>
+      <c r="C369" s="83"/>
+      <c r="D369" s="83"/>
       <c r="E369" s="23" t="s">
         <v>754</v>
       </c>
@@ -22552,8 +22552,8 @@
       <c r="B370" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C370" s="89"/>
-      <c r="D370" s="89"/>
+      <c r="C370" s="83"/>
+      <c r="D370" s="83"/>
       <c r="E370" s="23" t="s">
         <v>754</v>
       </c>
@@ -22565,8 +22565,8 @@
       <c r="B371" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C371" s="89"/>
-      <c r="D371" s="89"/>
+      <c r="C371" s="83"/>
+      <c r="D371" s="83"/>
       <c r="E371" s="23" t="s">
         <v>754</v>
       </c>
@@ -22578,8 +22578,8 @@
       <c r="B372" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C372" s="89"/>
-      <c r="D372" s="89"/>
+      <c r="C372" s="83"/>
+      <c r="D372" s="83"/>
       <c r="E372" s="23" t="s">
         <v>754</v>
       </c>
@@ -22591,8 +22591,8 @@
       <c r="B373" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C373" s="89"/>
-      <c r="D373" s="89"/>
+      <c r="C373" s="83"/>
+      <c r="D373" s="83"/>
       <c r="E373" s="23" t="s">
         <v>754</v>
       </c>
@@ -22604,8 +22604,8 @@
       <c r="B374" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C374" s="89"/>
-      <c r="D374" s="89"/>
+      <c r="C374" s="83"/>
+      <c r="D374" s="83"/>
       <c r="E374" s="23" t="s">
         <v>754</v>
       </c>
@@ -22617,8 +22617,8 @@
       <c r="B375" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C375" s="89"/>
-      <c r="D375" s="89"/>
+      <c r="C375" s="83"/>
+      <c r="D375" s="83"/>
       <c r="E375" s="23" t="s">
         <v>754</v>
       </c>
@@ -22630,8 +22630,8 @@
       <c r="B376" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C376" s="89"/>
-      <c r="D376" s="89"/>
+      <c r="C376" s="83"/>
+      <c r="D376" s="83"/>
       <c r="E376" s="23" t="s">
         <v>754</v>
       </c>
@@ -22643,8 +22643,8 @@
       <c r="B377" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C377" s="89"/>
-      <c r="D377" s="89"/>
+      <c r="C377" s="83"/>
+      <c r="D377" s="83"/>
       <c r="E377" s="23" t="s">
         <v>754</v>
       </c>
@@ -22656,8 +22656,8 @@
       <c r="B378" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C378" s="89"/>
-      <c r="D378" s="89"/>
+      <c r="C378" s="83"/>
+      <c r="D378" s="83"/>
       <c r="E378" s="23" t="s">
         <v>754</v>
       </c>
@@ -22669,8 +22669,8 @@
       <c r="B379" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C379" s="89"/>
-      <c r="D379" s="89"/>
+      <c r="C379" s="83"/>
+      <c r="D379" s="83"/>
       <c r="E379" s="23" t="s">
         <v>754</v>
       </c>
@@ -22682,8 +22682,8 @@
       <c r="B380" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C380" s="89"/>
-      <c r="D380" s="89"/>
+      <c r="C380" s="83"/>
+      <c r="D380" s="83"/>
       <c r="E380" s="23" t="s">
         <v>754</v>
       </c>
@@ -22695,8 +22695,8 @@
       <c r="B381" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C381" s="89"/>
-      <c r="D381" s="89"/>
+      <c r="C381" s="83"/>
+      <c r="D381" s="83"/>
       <c r="E381" s="23" t="s">
         <v>754</v>
       </c>
@@ -22708,8 +22708,8 @@
       <c r="B382" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C382" s="89"/>
-      <c r="D382" s="89"/>
+      <c r="C382" s="83"/>
+      <c r="D382" s="83"/>
       <c r="E382" s="23" t="s">
         <v>754</v>
       </c>
@@ -22721,8 +22721,8 @@
       <c r="B383" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C383" s="89"/>
-      <c r="D383" s="89"/>
+      <c r="C383" s="83"/>
+      <c r="D383" s="83"/>
       <c r="E383" s="23" t="s">
         <v>754</v>
       </c>
@@ -22734,8 +22734,8 @@
       <c r="B384" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C384" s="89"/>
-      <c r="D384" s="89"/>
+      <c r="C384" s="83"/>
+      <c r="D384" s="83"/>
       <c r="E384" s="23" t="s">
         <v>754</v>
       </c>
@@ -22747,8 +22747,8 @@
       <c r="B385" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C385" s="89"/>
-      <c r="D385" s="89"/>
+      <c r="C385" s="83"/>
+      <c r="D385" s="83"/>
       <c r="E385" s="23" t="s">
         <v>754</v>
       </c>
@@ -22760,8 +22760,8 @@
       <c r="B386" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C386" s="89"/>
-      <c r="D386" s="89"/>
+      <c r="C386" s="83"/>
+      <c r="D386" s="83"/>
       <c r="E386" s="23" t="s">
         <v>754</v>
       </c>
@@ -22773,8 +22773,8 @@
       <c r="B387" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C387" s="89"/>
-      <c r="D387" s="89"/>
+      <c r="C387" s="83"/>
+      <c r="D387" s="83"/>
       <c r="E387" s="23" t="s">
         <v>754</v>
       </c>
@@ -22786,8 +22786,8 @@
       <c r="B388" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C388" s="89"/>
-      <c r="D388" s="89"/>
+      <c r="C388" s="83"/>
+      <c r="D388" s="83"/>
       <c r="E388" s="23" t="s">
         <v>754</v>
       </c>
@@ -22799,8 +22799,8 @@
       <c r="B389" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C389" s="89"/>
-      <c r="D389" s="89"/>
+      <c r="C389" s="83"/>
+      <c r="D389" s="83"/>
       <c r="E389" s="23" t="s">
         <v>754</v>
       </c>
@@ -22812,8 +22812,8 @@
       <c r="B390" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C390" s="89"/>
-      <c r="D390" s="89"/>
+      <c r="C390" s="83"/>
+      <c r="D390" s="83"/>
       <c r="E390" s="23" t="s">
         <v>754</v>
       </c>
@@ -22825,8 +22825,8 @@
       <c r="B391" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C391" s="89"/>
-      <c r="D391" s="89"/>
+      <c r="C391" s="83"/>
+      <c r="D391" s="83"/>
       <c r="E391" s="23" t="s">
         <v>754</v>
       </c>
@@ -22838,8 +22838,8 @@
       <c r="B392" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C392" s="89"/>
-      <c r="D392" s="89"/>
+      <c r="C392" s="83"/>
+      <c r="D392" s="83"/>
       <c r="E392" s="23" t="s">
         <v>754</v>
       </c>
@@ -22851,8 +22851,8 @@
       <c r="B393" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C393" s="89"/>
-      <c r="D393" s="89"/>
+      <c r="C393" s="83"/>
+      <c r="D393" s="83"/>
       <c r="E393" s="23" t="s">
         <v>754</v>
       </c>
@@ -22864,8 +22864,8 @@
       <c r="B394" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C394" s="89"/>
-      <c r="D394" s="89"/>
+      <c r="C394" s="83"/>
+      <c r="D394" s="83"/>
       <c r="E394" s="23" t="s">
         <v>754</v>
       </c>
@@ -22877,8 +22877,8 @@
       <c r="B395" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C395" s="89"/>
-      <c r="D395" s="89"/>
+      <c r="C395" s="83"/>
+      <c r="D395" s="83"/>
       <c r="E395" s="23" t="s">
         <v>754</v>
       </c>
@@ -22890,8 +22890,8 @@
       <c r="B396" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C396" s="89"/>
-      <c r="D396" s="89"/>
+      <c r="C396" s="83"/>
+      <c r="D396" s="83"/>
       <c r="E396" s="23" t="s">
         <v>754</v>
       </c>
@@ -22903,8 +22903,8 @@
       <c r="B397" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C397" s="89"/>
-      <c r="D397" s="89"/>
+      <c r="C397" s="83"/>
+      <c r="D397" s="83"/>
       <c r="E397" s="23" t="s">
         <v>754</v>
       </c>
@@ -22916,8 +22916,8 @@
       <c r="B398" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C398" s="89"/>
-      <c r="D398" s="89"/>
+      <c r="C398" s="83"/>
+      <c r="D398" s="83"/>
       <c r="E398" s="23" t="s">
         <v>754</v>
       </c>
@@ -22929,8 +22929,8 @@
       <c r="B399" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C399" s="89"/>
-      <c r="D399" s="89"/>
+      <c r="C399" s="83"/>
+      <c r="D399" s="83"/>
       <c r="E399" s="23" t="s">
         <v>754</v>
       </c>
@@ -22942,8 +22942,8 @@
       <c r="B400" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C400" s="89"/>
-      <c r="D400" s="89"/>
+      <c r="C400" s="83"/>
+      <c r="D400" s="83"/>
       <c r="E400" s="23" t="s">
         <v>754</v>
       </c>
@@ -22955,8 +22955,8 @@
       <c r="B401" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C401" s="89"/>
-      <c r="D401" s="89"/>
+      <c r="C401" s="83"/>
+      <c r="D401" s="83"/>
       <c r="E401" s="23" t="s">
         <v>754</v>
       </c>
@@ -22968,8 +22968,8 @@
       <c r="B402" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C402" s="89"/>
-      <c r="D402" s="89"/>
+      <c r="C402" s="83"/>
+      <c r="D402" s="83"/>
       <c r="E402" s="23" t="s">
         <v>754</v>
       </c>
@@ -22981,8 +22981,8 @@
       <c r="B403" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C403" s="89"/>
-      <c r="D403" s="89"/>
+      <c r="C403" s="83"/>
+      <c r="D403" s="83"/>
       <c r="E403" s="23" t="s">
         <v>754</v>
       </c>
@@ -22994,8 +22994,8 @@
       <c r="B404" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C404" s="89"/>
-      <c r="D404" s="89"/>
+      <c r="C404" s="83"/>
+      <c r="D404" s="83"/>
       <c r="E404" s="23" t="s">
         <v>754</v>
       </c>
@@ -23007,8 +23007,8 @@
       <c r="B405" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C405" s="89"/>
-      <c r="D405" s="89"/>
+      <c r="C405" s="83"/>
+      <c r="D405" s="83"/>
       <c r="E405" s="23" t="s">
         <v>754</v>
       </c>
@@ -23020,8 +23020,8 @@
       <c r="B406" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C406" s="89"/>
-      <c r="D406" s="89"/>
+      <c r="C406" s="83"/>
+      <c r="D406" s="83"/>
       <c r="E406" s="23" t="s">
         <v>754</v>
       </c>
@@ -23033,8 +23033,8 @@
       <c r="B407" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C407" s="89"/>
-      <c r="D407" s="89"/>
+      <c r="C407" s="83"/>
+      <c r="D407" s="83"/>
       <c r="E407" s="23" t="s">
         <v>754</v>
       </c>
@@ -23046,8 +23046,8 @@
       <c r="B408" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C408" s="89"/>
-      <c r="D408" s="89"/>
+      <c r="C408" s="83"/>
+      <c r="D408" s="83"/>
       <c r="E408" s="23" t="s">
         <v>754</v>
       </c>
@@ -23059,8 +23059,8 @@
       <c r="B409" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C409" s="89"/>
-      <c r="D409" s="89"/>
+      <c r="C409" s="83"/>
+      <c r="D409" s="83"/>
       <c r="E409" s="23" t="s">
         <v>754</v>
       </c>
@@ -23072,8 +23072,8 @@
       <c r="B410" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C410" s="89"/>
-      <c r="D410" s="89"/>
+      <c r="C410" s="83"/>
+      <c r="D410" s="83"/>
       <c r="E410" s="23" t="s">
         <v>754</v>
       </c>
@@ -23085,8 +23085,8 @@
       <c r="B411" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C411" s="89"/>
-      <c r="D411" s="89"/>
+      <c r="C411" s="83"/>
+      <c r="D411" s="83"/>
       <c r="E411" s="23" t="s">
         <v>754</v>
       </c>
@@ -23098,8 +23098,8 @@
       <c r="B412" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C412" s="89"/>
-      <c r="D412" s="89"/>
+      <c r="C412" s="83"/>
+      <c r="D412" s="83"/>
       <c r="E412" s="23" t="s">
         <v>754</v>
       </c>
@@ -23111,8 +23111,8 @@
       <c r="B413" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C413" s="89"/>
-      <c r="D413" s="89"/>
+      <c r="C413" s="83"/>
+      <c r="D413" s="83"/>
       <c r="E413" s="23" t="s">
         <v>754</v>
       </c>
@@ -23124,8 +23124,8 @@
       <c r="B414" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C414" s="89"/>
-      <c r="D414" s="89"/>
+      <c r="C414" s="83"/>
+      <c r="D414" s="83"/>
       <c r="E414" s="23" t="s">
         <v>754</v>
       </c>
@@ -23137,8 +23137,8 @@
       <c r="B415" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C415" s="89"/>
-      <c r="D415" s="89"/>
+      <c r="C415" s="83"/>
+      <c r="D415" s="83"/>
       <c r="E415" s="23" t="s">
         <v>754</v>
       </c>
@@ -23150,8 +23150,8 @@
       <c r="B416" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C416" s="89"/>
-      <c r="D416" s="89"/>
+      <c r="C416" s="83"/>
+      <c r="D416" s="83"/>
       <c r="E416" s="23" t="s">
         <v>754</v>
       </c>
@@ -23163,8 +23163,8 @@
       <c r="B417" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C417" s="89"/>
-      <c r="D417" s="89"/>
+      <c r="C417" s="83"/>
+      <c r="D417" s="83"/>
       <c r="E417" s="23" t="s">
         <v>754</v>
       </c>
@@ -23176,8 +23176,8 @@
       <c r="B418" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C418" s="89"/>
-      <c r="D418" s="89"/>
+      <c r="C418" s="83"/>
+      <c r="D418" s="83"/>
       <c r="E418" s="23" t="s">
         <v>754</v>
       </c>
@@ -23189,8 +23189,8 @@
       <c r="B419" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C419" s="89"/>
-      <c r="D419" s="89"/>
+      <c r="C419" s="83"/>
+      <c r="D419" s="83"/>
       <c r="E419" s="23" t="s">
         <v>754</v>
       </c>
@@ -23202,8 +23202,8 @@
       <c r="B420" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C420" s="89"/>
-      <c r="D420" s="89"/>
+      <c r="C420" s="83"/>
+      <c r="D420" s="83"/>
       <c r="E420" s="23" t="s">
         <v>754</v>
       </c>
@@ -23215,8 +23215,8 @@
       <c r="B421" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C421" s="89"/>
-      <c r="D421" s="89"/>
+      <c r="C421" s="83"/>
+      <c r="D421" s="83"/>
       <c r="E421" s="23" t="s">
         <v>754</v>
       </c>
@@ -23228,8 +23228,8 @@
       <c r="B422" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C422" s="89"/>
-      <c r="D422" s="89"/>
+      <c r="C422" s="83"/>
+      <c r="D422" s="83"/>
       <c r="E422" s="23" t="s">
         <v>754</v>
       </c>
@@ -23241,8 +23241,8 @@
       <c r="B423" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C423" s="89"/>
-      <c r="D423" s="89"/>
+      <c r="C423" s="83"/>
+      <c r="D423" s="83"/>
       <c r="E423" s="23" t="s">
         <v>754</v>
       </c>
@@ -23254,8 +23254,8 @@
       <c r="B424" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C424" s="89"/>
-      <c r="D424" s="89"/>
+      <c r="C424" s="83"/>
+      <c r="D424" s="83"/>
       <c r="E424" s="23" t="s">
         <v>754</v>
       </c>
@@ -23267,8 +23267,8 @@
       <c r="B425" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C425" s="89"/>
-      <c r="D425" s="89"/>
+      <c r="C425" s="83"/>
+      <c r="D425" s="83"/>
       <c r="E425" s="23" t="s">
         <v>754</v>
       </c>
@@ -23280,8 +23280,8 @@
       <c r="B426" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C426" s="89"/>
-      <c r="D426" s="89"/>
+      <c r="C426" s="83"/>
+      <c r="D426" s="83"/>
       <c r="E426" s="23" t="s">
         <v>754</v>
       </c>
@@ -23293,8 +23293,8 @@
       <c r="B427" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C427" s="89"/>
-      <c r="D427" s="89"/>
+      <c r="C427" s="83"/>
+      <c r="D427" s="83"/>
       <c r="E427" s="23" t="s">
         <v>754</v>
       </c>
@@ -23306,8 +23306,8 @@
       <c r="B428" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C428" s="89"/>
-      <c r="D428" s="89"/>
+      <c r="C428" s="83"/>
+      <c r="D428" s="83"/>
       <c r="E428" s="23" t="s">
         <v>754</v>
       </c>
@@ -23319,8 +23319,8 @@
       <c r="B429" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C429" s="89"/>
-      <c r="D429" s="89"/>
+      <c r="C429" s="83"/>
+      <c r="D429" s="83"/>
       <c r="E429" s="23" t="s">
         <v>754</v>
       </c>
@@ -23332,8 +23332,8 @@
       <c r="B430" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C430" s="89"/>
-      <c r="D430" s="89"/>
+      <c r="C430" s="83"/>
+      <c r="D430" s="83"/>
       <c r="E430" s="23" t="s">
         <v>754</v>
       </c>
@@ -23345,8 +23345,8 @@
       <c r="B431" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C431" s="89"/>
-      <c r="D431" s="89"/>
+      <c r="C431" s="83"/>
+      <c r="D431" s="83"/>
       <c r="E431" s="23" t="s">
         <v>754</v>
       </c>
@@ -23358,8 +23358,8 @@
       <c r="B432" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C432" s="89"/>
-      <c r="D432" s="89"/>
+      <c r="C432" s="83"/>
+      <c r="D432" s="83"/>
       <c r="E432" s="23" t="s">
         <v>754</v>
       </c>
@@ -23371,8 +23371,8 @@
       <c r="B433" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C433" s="89"/>
-      <c r="D433" s="89"/>
+      <c r="C433" s="83"/>
+      <c r="D433" s="83"/>
       <c r="E433" s="23" t="s">
         <v>754</v>
       </c>
@@ -23384,8 +23384,8 @@
       <c r="B434" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C434" s="89"/>
-      <c r="D434" s="89"/>
+      <c r="C434" s="83"/>
+      <c r="D434" s="83"/>
       <c r="E434" s="23" t="s">
         <v>754</v>
       </c>
@@ -23397,8 +23397,8 @@
       <c r="B435" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C435" s="89"/>
-      <c r="D435" s="89"/>
+      <c r="C435" s="83"/>
+      <c r="D435" s="83"/>
       <c r="E435" s="23" t="s">
         <v>754</v>
       </c>
@@ -23410,8 +23410,8 @@
       <c r="B436" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C436" s="89"/>
-      <c r="D436" s="89"/>
+      <c r="C436" s="83"/>
+      <c r="D436" s="83"/>
       <c r="E436" s="23" t="s">
         <v>754</v>
       </c>
@@ -23423,8 +23423,8 @@
       <c r="B437" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C437" s="89"/>
-      <c r="D437" s="89"/>
+      <c r="C437" s="83"/>
+      <c r="D437" s="83"/>
       <c r="E437" s="23" t="s">
         <v>754</v>
       </c>
@@ -23436,8 +23436,8 @@
       <c r="B438" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C438" s="89"/>
-      <c r="D438" s="89"/>
+      <c r="C438" s="83"/>
+      <c r="D438" s="83"/>
       <c r="E438" s="23" t="s">
         <v>754</v>
       </c>
@@ -23449,8 +23449,8 @@
       <c r="B439" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C439" s="89"/>
-      <c r="D439" s="89"/>
+      <c r="C439" s="83"/>
+      <c r="D439" s="83"/>
       <c r="E439" s="23" t="s">
         <v>754</v>
       </c>
@@ -23462,8 +23462,8 @@
       <c r="B440" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C440" s="89"/>
-      <c r="D440" s="89"/>
+      <c r="C440" s="83"/>
+      <c r="D440" s="83"/>
       <c r="E440" s="23" t="s">
         <v>754</v>
       </c>
@@ -23475,8 +23475,8 @@
       <c r="B441" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C441" s="89"/>
-      <c r="D441" s="89"/>
+      <c r="C441" s="83"/>
+      <c r="D441" s="83"/>
       <c r="E441" s="23" t="s">
         <v>754</v>
       </c>
@@ -23488,8 +23488,8 @@
       <c r="B442" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C442" s="89"/>
-      <c r="D442" s="89"/>
+      <c r="C442" s="83"/>
+      <c r="D442" s="83"/>
       <c r="E442" s="23" t="s">
         <v>754</v>
       </c>
@@ -23501,8 +23501,8 @@
       <c r="B443" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C443" s="89"/>
-      <c r="D443" s="89"/>
+      <c r="C443" s="83"/>
+      <c r="D443" s="83"/>
       <c r="E443" s="23" t="s">
         <v>754</v>
       </c>
@@ -23514,8 +23514,8 @@
       <c r="B444" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C444" s="89"/>
-      <c r="D444" s="89"/>
+      <c r="C444" s="83"/>
+      <c r="D444" s="83"/>
       <c r="E444" s="23" t="s">
         <v>754</v>
       </c>
@@ -23527,8 +23527,8 @@
       <c r="B445" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C445" s="89"/>
-      <c r="D445" s="89"/>
+      <c r="C445" s="83"/>
+      <c r="D445" s="83"/>
       <c r="E445" s="23" t="s">
         <v>754</v>
       </c>
@@ -23540,8 +23540,8 @@
       <c r="B446" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C446" s="89"/>
-      <c r="D446" s="89"/>
+      <c r="C446" s="83"/>
+      <c r="D446" s="83"/>
       <c r="E446" s="23" t="s">
         <v>754</v>
       </c>
@@ -23553,8 +23553,8 @@
       <c r="B447" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C447" s="89"/>
-      <c r="D447" s="89"/>
+      <c r="C447" s="83"/>
+      <c r="D447" s="83"/>
       <c r="E447" s="23" t="s">
         <v>754</v>
       </c>
@@ -23566,8 +23566,8 @@
       <c r="B448" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C448" s="89"/>
-      <c r="D448" s="89"/>
+      <c r="C448" s="83"/>
+      <c r="D448" s="83"/>
       <c r="E448" s="23" t="s">
         <v>754</v>
       </c>
@@ -23579,8 +23579,8 @@
       <c r="B449" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C449" s="89"/>
-      <c r="D449" s="89"/>
+      <c r="C449" s="83"/>
+      <c r="D449" s="83"/>
       <c r="E449" s="23" t="s">
         <v>754</v>
       </c>
@@ -23592,8 +23592,8 @@
       <c r="B450" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C450" s="89"/>
-      <c r="D450" s="89"/>
+      <c r="C450" s="83"/>
+      <c r="D450" s="83"/>
       <c r="E450" s="23" t="s">
         <v>754</v>
       </c>
@@ -23605,8 +23605,8 @@
       <c r="B451" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C451" s="89"/>
-      <c r="D451" s="89"/>
+      <c r="C451" s="83"/>
+      <c r="D451" s="83"/>
       <c r="E451" s="23" t="s">
         <v>754</v>
       </c>
@@ -23618,14 +23618,32 @@
       <c r="B452" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="C452" s="90"/>
-      <c r="D452" s="90"/>
+      <c r="C452" s="84"/>
+      <c r="D452" s="84"/>
       <c r="E452" s="28" t="s">
         <v>754</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="C10:C93"/>
+    <mergeCell ref="D10:D93"/>
+    <mergeCell ref="C94:C121"/>
+    <mergeCell ref="D94:D121"/>
+    <mergeCell ref="C122:C128"/>
+    <mergeCell ref="D122:D128"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="C132:C163"/>
+    <mergeCell ref="D132:D163"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="C167:C187"/>
+    <mergeCell ref="D167:D187"/>
+    <mergeCell ref="C188:C215"/>
+    <mergeCell ref="D188:D215"/>
     <mergeCell ref="C363:C452"/>
     <mergeCell ref="D363:D452"/>
     <mergeCell ref="C216:C318"/>
@@ -23634,26 +23652,9 @@
     <mergeCell ref="D319:D348"/>
     <mergeCell ref="C349:C362"/>
     <mergeCell ref="D349:D362"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="C167:C187"/>
-    <mergeCell ref="D167:D187"/>
-    <mergeCell ref="C188:C215"/>
-    <mergeCell ref="D188:D215"/>
-    <mergeCell ref="C122:C128"/>
-    <mergeCell ref="D122:D128"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="C132:C163"/>
-    <mergeCell ref="D132:D163"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="C10:C93"/>
-    <mergeCell ref="D10:D93"/>
-    <mergeCell ref="C94:C121"/>
-    <mergeCell ref="D94:D121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23661,8 +23662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3E75F0-E074-487C-890F-25432AD523DA}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>

--- a/turbodoc/dataset/dataset_turbo-doc.xlsx
+++ b/turbodoc/dataset/dataset_turbo-doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\90004698\Documents\GitHub\project-ai\turbodoc\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03CF940-DB00-4942-BBF3-B9D53A208FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A36D314-65E6-4289-8F49-DC2A18361109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7175,6 +7175,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7184,26 +7202,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7761,7 +7761,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -17680,7 +17680,7 @@
   <dimension ref="A1:E452"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -17716,7 +17716,7 @@
       <c r="B2" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="82" t="s">
         <v>348</v>
       </c>
       <c r="D2" s="85" t="s">
@@ -17733,8 +17733,8 @@
       <c r="B3" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="90"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="86"/>
       <c r="E3" s="23" t="s">
         <v>383</v>
       </c>
@@ -17746,8 +17746,8 @@
       <c r="B4" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="90"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="23" t="s">
         <v>383</v>
       </c>
@@ -17759,8 +17759,8 @@
       <c r="B5" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="90"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="23" t="s">
         <v>383</v>
       </c>
@@ -17772,8 +17772,8 @@
       <c r="B6" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="90"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="23" t="s">
         <v>383</v>
       </c>
@@ -17785,8 +17785,8 @@
       <c r="B7" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="90"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="23" t="s">
         <v>383</v>
       </c>
@@ -17798,8 +17798,8 @@
       <c r="B8" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="90"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="23" t="s">
         <v>383</v>
       </c>
@@ -17811,8 +17811,8 @@
       <c r="B9" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="91"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="28" t="s">
         <v>383</v>
       </c>
@@ -17841,8 +17841,8 @@
       <c r="B11" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="23" t="s">
         <v>394</v>
       </c>
@@ -17854,8 +17854,8 @@
       <c r="B12" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
       <c r="E12" s="23" t="s">
         <v>394</v>
       </c>
@@ -17867,8 +17867,8 @@
       <c r="B13" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
       <c r="E13" s="23" t="s">
         <v>394</v>
       </c>
@@ -17880,8 +17880,8 @@
       <c r="B14" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="23" t="s">
         <v>394</v>
       </c>
@@ -17893,8 +17893,8 @@
       <c r="B15" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="23" t="s">
         <v>394</v>
       </c>
@@ -17906,8 +17906,8 @@
       <c r="B16" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="23" t="s">
         <v>394</v>
       </c>
@@ -17919,8 +17919,8 @@
       <c r="B17" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="23" t="s">
         <v>394</v>
       </c>
@@ -17932,8 +17932,8 @@
       <c r="B18" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="23" t="s">
         <v>394</v>
       </c>
@@ -17945,8 +17945,8 @@
       <c r="B19" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="23" t="s">
         <v>394</v>
       </c>
@@ -17958,8 +17958,8 @@
       <c r="B20" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="23" t="s">
         <v>394</v>
       </c>
@@ -17971,8 +17971,8 @@
       <c r="B21" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="23" t="s">
         <v>394</v>
       </c>
@@ -17984,8 +17984,8 @@
       <c r="B22" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
       <c r="E22" s="23" t="s">
         <v>394</v>
       </c>
@@ -17997,8 +17997,8 @@
       <c r="B23" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="23" t="s">
         <v>394</v>
       </c>
@@ -18010,8 +18010,8 @@
       <c r="B24" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="23" t="s">
         <v>394</v>
       </c>
@@ -18023,8 +18023,8 @@
       <c r="B25" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="23" t="s">
         <v>394</v>
       </c>
@@ -18036,8 +18036,8 @@
       <c r="B26" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="23" t="s">
         <v>394</v>
       </c>
@@ -18049,8 +18049,8 @@
       <c r="B27" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="23" t="s">
         <v>394</v>
       </c>
@@ -18062,8 +18062,8 @@
       <c r="B28" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
       <c r="E28" s="23" t="s">
         <v>394</v>
       </c>
@@ -18075,8 +18075,8 @@
       <c r="B29" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
       <c r="E29" s="23" t="s">
         <v>394</v>
       </c>
@@ -18088,8 +18088,8 @@
       <c r="B30" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
       <c r="E30" s="23" t="s">
         <v>394</v>
       </c>
@@ -18101,8 +18101,8 @@
       <c r="B31" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="23" t="s">
         <v>394</v>
       </c>
@@ -18114,8 +18114,8 @@
       <c r="B32" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="23" t="s">
         <v>394</v>
       </c>
@@ -18127,8 +18127,8 @@
       <c r="B33" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="23" t="s">
         <v>394</v>
       </c>
@@ -18140,8 +18140,8 @@
       <c r="B34" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="23" t="s">
         <v>394</v>
       </c>
@@ -18153,8 +18153,8 @@
       <c r="B35" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
       <c r="E35" s="23" t="s">
         <v>394</v>
       </c>
@@ -18166,8 +18166,8 @@
       <c r="B36" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="23" t="s">
         <v>394</v>
       </c>
@@ -18179,8 +18179,8 @@
       <c r="B37" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
       <c r="E37" s="23" t="s">
         <v>394</v>
       </c>
@@ -18192,8 +18192,8 @@
       <c r="B38" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="23" t="s">
         <v>394</v>
       </c>
@@ -18205,8 +18205,8 @@
       <c r="B39" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
       <c r="E39" s="23" t="s">
         <v>394</v>
       </c>
@@ -18218,8 +18218,8 @@
       <c r="B40" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="23" t="s">
         <v>394</v>
       </c>
@@ -18231,8 +18231,8 @@
       <c r="B41" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
       <c r="E41" s="23" t="s">
         <v>394</v>
       </c>
@@ -18244,8 +18244,8 @@
       <c r="B42" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
       <c r="E42" s="23" t="s">
         <v>394</v>
       </c>
@@ -18257,8 +18257,8 @@
       <c r="B43" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="83"/>
       <c r="E43" s="23" t="s">
         <v>394</v>
       </c>
@@ -18270,8 +18270,8 @@
       <c r="B44" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
       <c r="E44" s="23" t="s">
         <v>394</v>
       </c>
@@ -18283,8 +18283,8 @@
       <c r="B45" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="83"/>
       <c r="E45" s="23" t="s">
         <v>394</v>
       </c>
@@ -18296,8 +18296,8 @@
       <c r="B46" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
       <c r="E46" s="23" t="s">
         <v>394</v>
       </c>
@@ -18309,8 +18309,8 @@
       <c r="B47" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="83"/>
       <c r="E47" s="23" t="s">
         <v>394</v>
       </c>
@@ -18322,8 +18322,8 @@
       <c r="B48" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
       <c r="E48" s="23" t="s">
         <v>394</v>
       </c>
@@ -18335,8 +18335,8 @@
       <c r="B49" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="83"/>
       <c r="E49" s="23" t="s">
         <v>394</v>
       </c>
@@ -18348,8 +18348,8 @@
       <c r="B50" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
       <c r="E50" s="23" t="s">
         <v>394</v>
       </c>
@@ -18361,8 +18361,8 @@
       <c r="B51" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
       <c r="E51" s="23" t="s">
         <v>394</v>
       </c>
@@ -18374,8 +18374,8 @@
       <c r="B52" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
       <c r="E52" s="23" t="s">
         <v>394</v>
       </c>
@@ -18387,8 +18387,8 @@
       <c r="B53" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
       <c r="E53" s="23" t="s">
         <v>394</v>
       </c>
@@ -18400,8 +18400,8 @@
       <c r="B54" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
       <c r="E54" s="23" t="s">
         <v>394</v>
       </c>
@@ -18413,8 +18413,8 @@
       <c r="B55" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="23" t="s">
         <v>394</v>
       </c>
@@ -18426,8 +18426,8 @@
       <c r="B56" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
       <c r="E56" s="23" t="s">
         <v>394</v>
       </c>
@@ -18439,8 +18439,8 @@
       <c r="B57" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
       <c r="E57" s="23" t="s">
         <v>394</v>
       </c>
@@ -18452,8 +18452,8 @@
       <c r="B58" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
       <c r="E58" s="23" t="s">
         <v>394</v>
       </c>
@@ -18465,8 +18465,8 @@
       <c r="B59" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C59" s="86"/>
-      <c r="D59" s="86"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
       <c r="E59" s="23" t="s">
         <v>394</v>
       </c>
@@ -18478,8 +18478,8 @@
       <c r="B60" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C60" s="86"/>
-      <c r="D60" s="86"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
       <c r="E60" s="23" t="s">
         <v>394</v>
       </c>
@@ -18491,8 +18491,8 @@
       <c r="B61" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C61" s="86"/>
-      <c r="D61" s="86"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="83"/>
       <c r="E61" s="23" t="s">
         <v>394</v>
       </c>
@@ -18504,8 +18504,8 @@
       <c r="B62" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="83"/>
       <c r="E62" s="23" t="s">
         <v>394</v>
       </c>
@@ -18517,8 +18517,8 @@
       <c r="B63" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C63" s="86"/>
-      <c r="D63" s="86"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
       <c r="E63" s="23" t="s">
         <v>394</v>
       </c>
@@ -18530,8 +18530,8 @@
       <c r="B64" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C64" s="86"/>
-      <c r="D64" s="86"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="83"/>
       <c r="E64" s="23" t="s">
         <v>394</v>
       </c>
@@ -18543,8 +18543,8 @@
       <c r="B65" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C65" s="86"/>
-      <c r="D65" s="86"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="83"/>
       <c r="E65" s="23" t="s">
         <v>394</v>
       </c>
@@ -18556,8 +18556,8 @@
       <c r="B66" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C66" s="86"/>
-      <c r="D66" s="86"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="83"/>
       <c r="E66" s="23" t="s">
         <v>394</v>
       </c>
@@ -18569,8 +18569,8 @@
       <c r="B67" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C67" s="86"/>
-      <c r="D67" s="86"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
       <c r="E67" s="23" t="s">
         <v>394</v>
       </c>
@@ -18582,8 +18582,8 @@
       <c r="B68" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C68" s="86"/>
-      <c r="D68" s="86"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
       <c r="E68" s="23" t="s">
         <v>394</v>
       </c>
@@ -18595,8 +18595,8 @@
       <c r="B69" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C69" s="86"/>
-      <c r="D69" s="86"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
       <c r="E69" s="23" t="s">
         <v>394</v>
       </c>
@@ -18608,8 +18608,8 @@
       <c r="B70" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C70" s="86"/>
-      <c r="D70" s="86"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="83"/>
       <c r="E70" s="23" t="s">
         <v>394</v>
       </c>
@@ -18621,8 +18621,8 @@
       <c r="B71" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C71" s="86"/>
-      <c r="D71" s="86"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
       <c r="E71" s="23" t="s">
         <v>394</v>
       </c>
@@ -18634,8 +18634,8 @@
       <c r="B72" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C72" s="86"/>
-      <c r="D72" s="86"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="83"/>
       <c r="E72" s="23" t="s">
         <v>394</v>
       </c>
@@ -18647,8 +18647,8 @@
       <c r="B73" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C73" s="86"/>
-      <c r="D73" s="86"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
       <c r="E73" s="23" t="s">
         <v>394</v>
       </c>
@@ -18660,8 +18660,8 @@
       <c r="B74" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C74" s="86"/>
-      <c r="D74" s="86"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="83"/>
       <c r="E74" s="23" t="s">
         <v>394</v>
       </c>
@@ -18673,8 +18673,8 @@
       <c r="B75" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C75" s="86"/>
-      <c r="D75" s="86"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
       <c r="E75" s="23" t="s">
         <v>394</v>
       </c>
@@ -18686,8 +18686,8 @@
       <c r="B76" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C76" s="86"/>
-      <c r="D76" s="86"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
       <c r="E76" s="23" t="s">
         <v>394</v>
       </c>
@@ -18699,8 +18699,8 @@
       <c r="B77" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C77" s="86"/>
-      <c r="D77" s="86"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
       <c r="E77" s="23" t="s">
         <v>394</v>
       </c>
@@ -18712,8 +18712,8 @@
       <c r="B78" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C78" s="86"/>
-      <c r="D78" s="86"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="83"/>
       <c r="E78" s="23" t="s">
         <v>394</v>
       </c>
@@ -18725,8 +18725,8 @@
       <c r="B79" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C79" s="86"/>
-      <c r="D79" s="86"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="83"/>
       <c r="E79" s="23" t="s">
         <v>394</v>
       </c>
@@ -18738,8 +18738,8 @@
       <c r="B80" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C80" s="86"/>
-      <c r="D80" s="86"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="83"/>
       <c r="E80" s="23" t="s">
         <v>394</v>
       </c>
@@ -18751,8 +18751,8 @@
       <c r="B81" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C81" s="86"/>
-      <c r="D81" s="86"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="83"/>
       <c r="E81" s="23" t="s">
         <v>394</v>
       </c>
@@ -18764,8 +18764,8 @@
       <c r="B82" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C82" s="86"/>
-      <c r="D82" s="86"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="83"/>
       <c r="E82" s="23" t="s">
         <v>394</v>
       </c>
@@ -18777,8 +18777,8 @@
       <c r="B83" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C83" s="86"/>
-      <c r="D83" s="86"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
       <c r="E83" s="23" t="s">
         <v>394</v>
       </c>
@@ -18790,8 +18790,8 @@
       <c r="B84" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C84" s="86"/>
-      <c r="D84" s="86"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
       <c r="E84" s="23" t="s">
         <v>394</v>
       </c>
@@ -18803,8 +18803,8 @@
       <c r="B85" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C85" s="86"/>
-      <c r="D85" s="86"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="83"/>
       <c r="E85" s="23" t="s">
         <v>394</v>
       </c>
@@ -18816,8 +18816,8 @@
       <c r="B86" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C86" s="86"/>
-      <c r="D86" s="86"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="83"/>
       <c r="E86" s="23" t="s">
         <v>394</v>
       </c>
@@ -18829,8 +18829,8 @@
       <c r="B87" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C87" s="86"/>
-      <c r="D87" s="86"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="83"/>
       <c r="E87" s="23" t="s">
         <v>394</v>
       </c>
@@ -18842,8 +18842,8 @@
       <c r="B88" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C88" s="86"/>
-      <c r="D88" s="86"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
       <c r="E88" s="23" t="s">
         <v>394</v>
       </c>
@@ -18855,8 +18855,8 @@
       <c r="B89" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C89" s="86"/>
-      <c r="D89" s="86"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="83"/>
       <c r="E89" s="23" t="s">
         <v>394</v>
       </c>
@@ -18868,8 +18868,8 @@
       <c r="B90" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C90" s="86"/>
-      <c r="D90" s="86"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="83"/>
       <c r="E90" s="23" t="s">
         <v>394</v>
       </c>
@@ -18881,8 +18881,8 @@
       <c r="B91" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C91" s="86"/>
-      <c r="D91" s="86"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="83"/>
       <c r="E91" s="23" t="s">
         <v>394</v>
       </c>
@@ -18894,8 +18894,8 @@
       <c r="B92" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C92" s="86"/>
-      <c r="D92" s="86"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="83"/>
       <c r="E92" s="23" t="s">
         <v>394</v>
       </c>
@@ -18907,8 +18907,8 @@
       <c r="B93" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C93" s="87"/>
-      <c r="D93" s="87"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="84"/>
       <c r="E93" s="28" t="s">
         <v>394</v>
       </c>
@@ -18937,8 +18937,8 @@
       <c r="B95" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C95" s="86"/>
-      <c r="D95" s="86"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="83"/>
       <c r="E95" s="23" t="s">
         <v>481</v>
       </c>
@@ -18950,8 +18950,8 @@
       <c r="B96" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C96" s="86"/>
-      <c r="D96" s="86"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="83"/>
       <c r="E96" s="23" t="s">
         <v>481</v>
       </c>
@@ -18963,8 +18963,8 @@
       <c r="B97" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C97" s="86"/>
-      <c r="D97" s="86"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="83"/>
       <c r="E97" s="23" t="s">
         <v>481</v>
       </c>
@@ -18976,8 +18976,8 @@
       <c r="B98" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C98" s="86"/>
-      <c r="D98" s="86"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="83"/>
       <c r="E98" s="23" t="s">
         <v>481</v>
       </c>
@@ -18989,8 +18989,8 @@
       <c r="B99" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C99" s="86"/>
-      <c r="D99" s="86"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="83"/>
       <c r="E99" s="23" t="s">
         <v>481</v>
       </c>
@@ -19002,8 +19002,8 @@
       <c r="B100" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C100" s="86"/>
-      <c r="D100" s="86"/>
+      <c r="C100" s="83"/>
+      <c r="D100" s="83"/>
       <c r="E100" s="23" t="s">
         <v>481</v>
       </c>
@@ -19015,8 +19015,8 @@
       <c r="B101" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C101" s="86"/>
-      <c r="D101" s="86"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="83"/>
       <c r="E101" s="23" t="s">
         <v>481</v>
       </c>
@@ -19028,8 +19028,8 @@
       <c r="B102" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C102" s="86"/>
-      <c r="D102" s="86"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="83"/>
       <c r="E102" s="23" t="s">
         <v>481</v>
       </c>
@@ -19041,8 +19041,8 @@
       <c r="B103" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C103" s="86"/>
-      <c r="D103" s="86"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="83"/>
       <c r="E103" s="23" t="s">
         <v>481</v>
       </c>
@@ -19054,8 +19054,8 @@
       <c r="B104" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C104" s="86"/>
-      <c r="D104" s="86"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="83"/>
       <c r="E104" s="23" t="s">
         <v>481</v>
       </c>
@@ -19067,8 +19067,8 @@
       <c r="B105" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C105" s="86"/>
-      <c r="D105" s="86"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="83"/>
       <c r="E105" s="23" t="s">
         <v>481</v>
       </c>
@@ -19080,8 +19080,8 @@
       <c r="B106" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C106" s="86"/>
-      <c r="D106" s="86"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="83"/>
       <c r="E106" s="23" t="s">
         <v>481</v>
       </c>
@@ -19093,8 +19093,8 @@
       <c r="B107" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C107" s="86"/>
-      <c r="D107" s="86"/>
+      <c r="C107" s="83"/>
+      <c r="D107" s="83"/>
       <c r="E107" s="23" t="s">
         <v>481</v>
       </c>
@@ -19106,8 +19106,8 @@
       <c r="B108" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C108" s="86"/>
-      <c r="D108" s="86"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="83"/>
       <c r="E108" s="23" t="s">
         <v>481</v>
       </c>
@@ -19119,8 +19119,8 @@
       <c r="B109" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C109" s="86"/>
-      <c r="D109" s="86"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="83"/>
       <c r="E109" s="23" t="s">
         <v>481</v>
       </c>
@@ -19132,8 +19132,8 @@
       <c r="B110" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C110" s="86"/>
-      <c r="D110" s="86"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="83"/>
       <c r="E110" s="23" t="s">
         <v>481</v>
       </c>
@@ -19145,8 +19145,8 @@
       <c r="B111" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C111" s="86"/>
-      <c r="D111" s="86"/>
+      <c r="C111" s="83"/>
+      <c r="D111" s="83"/>
       <c r="E111" s="23" t="s">
         <v>481</v>
       </c>
@@ -19158,8 +19158,8 @@
       <c r="B112" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C112" s="86"/>
-      <c r="D112" s="86"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="83"/>
       <c r="E112" s="23" t="s">
         <v>481</v>
       </c>
@@ -19171,8 +19171,8 @@
       <c r="B113" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C113" s="86"/>
-      <c r="D113" s="86"/>
+      <c r="C113" s="83"/>
+      <c r="D113" s="83"/>
       <c r="E113" s="23" t="s">
         <v>481</v>
       </c>
@@ -19184,8 +19184,8 @@
       <c r="B114" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C114" s="86"/>
-      <c r="D114" s="86"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="83"/>
       <c r="E114" s="23" t="s">
         <v>481</v>
       </c>
@@ -19197,8 +19197,8 @@
       <c r="B115" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C115" s="86"/>
-      <c r="D115" s="86"/>
+      <c r="C115" s="83"/>
+      <c r="D115" s="83"/>
       <c r="E115" s="23" t="s">
         <v>481</v>
       </c>
@@ -19210,8 +19210,8 @@
       <c r="B116" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C116" s="86"/>
-      <c r="D116" s="86"/>
+      <c r="C116" s="83"/>
+      <c r="D116" s="83"/>
       <c r="E116" s="23" t="s">
         <v>481</v>
       </c>
@@ -19223,8 +19223,8 @@
       <c r="B117" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C117" s="86"/>
-      <c r="D117" s="86"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="83"/>
       <c r="E117" s="23" t="s">
         <v>481</v>
       </c>
@@ -19236,8 +19236,8 @@
       <c r="B118" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C118" s="86"/>
-      <c r="D118" s="86"/>
+      <c r="C118" s="83"/>
+      <c r="D118" s="83"/>
       <c r="E118" s="23" t="s">
         <v>481</v>
       </c>
@@ -19249,8 +19249,8 @@
       <c r="B119" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C119" s="86"/>
-      <c r="D119" s="86"/>
+      <c r="C119" s="83"/>
+      <c r="D119" s="83"/>
       <c r="E119" s="23" t="s">
         <v>481</v>
       </c>
@@ -19262,8 +19262,8 @@
       <c r="B120" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C120" s="86"/>
-      <c r="D120" s="86"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="83"/>
       <c r="E120" s="23" t="s">
         <v>481</v>
       </c>
@@ -19275,8 +19275,8 @@
       <c r="B121" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C121" s="87"/>
-      <c r="D121" s="87"/>
+      <c r="C121" s="84"/>
+      <c r="D121" s="84"/>
       <c r="E121" s="28" t="s">
         <v>481</v>
       </c>
@@ -19291,7 +19291,7 @@
       <c r="C122" s="85" t="s">
         <v>511</v>
       </c>
-      <c r="D122" s="88" t="s">
+      <c r="D122" s="82" t="s">
         <v>348</v>
       </c>
       <c r="E122" s="19" t="s">
@@ -19305,8 +19305,8 @@
       <c r="B123" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C123" s="86"/>
-      <c r="D123" s="86"/>
+      <c r="C123" s="83"/>
+      <c r="D123" s="83"/>
       <c r="E123" s="23" t="s">
         <v>394</v>
       </c>
@@ -19318,8 +19318,8 @@
       <c r="B124" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C124" s="86"/>
-      <c r="D124" s="86"/>
+      <c r="C124" s="83"/>
+      <c r="D124" s="83"/>
       <c r="E124" s="23" t="s">
         <v>394</v>
       </c>
@@ -19331,8 +19331,8 @@
       <c r="B125" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C125" s="86"/>
-      <c r="D125" s="86"/>
+      <c r="C125" s="83"/>
+      <c r="D125" s="83"/>
       <c r="E125" s="23" t="s">
         <v>394</v>
       </c>
@@ -19344,8 +19344,8 @@
       <c r="B126" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C126" s="86"/>
-      <c r="D126" s="86"/>
+      <c r="C126" s="83"/>
+      <c r="D126" s="83"/>
       <c r="E126" s="23" t="s">
         <v>394</v>
       </c>
@@ -19357,8 +19357,8 @@
       <c r="B127" s="21" t="s">
         <v>510</v>
       </c>
-      <c r="C127" s="86"/>
-      <c r="D127" s="86"/>
+      <c r="C127" s="83"/>
+      <c r="D127" s="83"/>
       <c r="E127" s="23" t="s">
         <v>394</v>
       </c>
@@ -19370,8 +19370,8 @@
       <c r="B128" s="26" t="s">
         <v>510</v>
       </c>
-      <c r="C128" s="87"/>
-      <c r="D128" s="87"/>
+      <c r="C128" s="84"/>
+      <c r="D128" s="84"/>
       <c r="E128" s="28" t="s">
         <v>394</v>
       </c>
@@ -19383,10 +19383,10 @@
       <c r="B129" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="C129" s="88" t="s">
-        <v>348</v>
-      </c>
-      <c r="D129" s="88" t="s">
+      <c r="C129" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="D129" s="82" t="s">
         <v>348</v>
       </c>
       <c r="E129" s="19" t="s">
@@ -19400,8 +19400,8 @@
       <c r="B130" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="C130" s="86"/>
-      <c r="D130" s="86"/>
+      <c r="C130" s="83"/>
+      <c r="D130" s="83"/>
       <c r="E130" s="23" t="s">
         <v>394</v>
       </c>
@@ -19413,8 +19413,8 @@
       <c r="B131" s="27" t="s">
         <v>519</v>
       </c>
-      <c r="C131" s="87"/>
-      <c r="D131" s="87"/>
+      <c r="C131" s="84"/>
+      <c r="D131" s="84"/>
       <c r="E131" s="28" t="s">
         <v>394</v>
       </c>
@@ -19429,7 +19429,7 @@
       <c r="C132" s="85" t="s">
         <v>524</v>
       </c>
-      <c r="D132" s="88" t="s">
+      <c r="D132" s="82" t="s">
         <v>348</v>
       </c>
       <c r="E132" s="19" t="s">
@@ -19443,8 +19443,8 @@
       <c r="B133" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C133" s="86"/>
-      <c r="D133" s="86"/>
+      <c r="C133" s="83"/>
+      <c r="D133" s="83"/>
       <c r="E133" s="23" t="s">
         <v>481</v>
       </c>
@@ -19456,8 +19456,8 @@
       <c r="B134" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C134" s="86"/>
-      <c r="D134" s="86"/>
+      <c r="C134" s="83"/>
+      <c r="D134" s="83"/>
       <c r="E134" s="23" t="s">
         <v>481</v>
       </c>
@@ -19469,8 +19469,8 @@
       <c r="B135" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C135" s="86"/>
-      <c r="D135" s="86"/>
+      <c r="C135" s="83"/>
+      <c r="D135" s="83"/>
       <c r="E135" s="23" t="s">
         <v>481</v>
       </c>
@@ -19482,8 +19482,8 @@
       <c r="B136" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C136" s="86"/>
-      <c r="D136" s="86"/>
+      <c r="C136" s="83"/>
+      <c r="D136" s="83"/>
       <c r="E136" s="23" t="s">
         <v>481</v>
       </c>
@@ -19495,8 +19495,8 @@
       <c r="B137" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C137" s="86"/>
-      <c r="D137" s="86"/>
+      <c r="C137" s="83"/>
+      <c r="D137" s="83"/>
       <c r="E137" s="23" t="s">
         <v>481</v>
       </c>
@@ -19508,8 +19508,8 @@
       <c r="B138" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C138" s="86"/>
-      <c r="D138" s="86"/>
+      <c r="C138" s="83"/>
+      <c r="D138" s="83"/>
       <c r="E138" s="23" t="s">
         <v>481</v>
       </c>
@@ -19521,8 +19521,8 @@
       <c r="B139" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C139" s="86"/>
-      <c r="D139" s="86"/>
+      <c r="C139" s="83"/>
+      <c r="D139" s="83"/>
       <c r="E139" s="23" t="s">
         <v>481</v>
       </c>
@@ -19534,8 +19534,8 @@
       <c r="B140" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C140" s="86"/>
-      <c r="D140" s="86"/>
+      <c r="C140" s="83"/>
+      <c r="D140" s="83"/>
       <c r="E140" s="23" t="s">
         <v>481</v>
       </c>
@@ -19547,8 +19547,8 @@
       <c r="B141" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C141" s="86"/>
-      <c r="D141" s="86"/>
+      <c r="C141" s="83"/>
+      <c r="D141" s="83"/>
       <c r="E141" s="23" t="s">
         <v>481</v>
       </c>
@@ -19560,8 +19560,8 @@
       <c r="B142" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C142" s="86"/>
-      <c r="D142" s="86"/>
+      <c r="C142" s="83"/>
+      <c r="D142" s="83"/>
       <c r="E142" s="23" t="s">
         <v>481</v>
       </c>
@@ -19573,8 +19573,8 @@
       <c r="B143" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C143" s="86"/>
-      <c r="D143" s="86"/>
+      <c r="C143" s="83"/>
+      <c r="D143" s="83"/>
       <c r="E143" s="23" t="s">
         <v>481</v>
       </c>
@@ -19586,8 +19586,8 @@
       <c r="B144" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C144" s="86"/>
-      <c r="D144" s="86"/>
+      <c r="C144" s="83"/>
+      <c r="D144" s="83"/>
       <c r="E144" s="23" t="s">
         <v>481</v>
       </c>
@@ -19599,8 +19599,8 @@
       <c r="B145" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C145" s="86"/>
-      <c r="D145" s="86"/>
+      <c r="C145" s="83"/>
+      <c r="D145" s="83"/>
       <c r="E145" s="23" t="s">
         <v>481</v>
       </c>
@@ -19612,8 +19612,8 @@
       <c r="B146" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C146" s="86"/>
-      <c r="D146" s="86"/>
+      <c r="C146" s="83"/>
+      <c r="D146" s="83"/>
       <c r="E146" s="23" t="s">
         <v>481</v>
       </c>
@@ -19625,8 +19625,8 @@
       <c r="B147" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C147" s="86"/>
-      <c r="D147" s="86"/>
+      <c r="C147" s="83"/>
+      <c r="D147" s="83"/>
       <c r="E147" s="23" t="s">
         <v>481</v>
       </c>
@@ -19638,8 +19638,8 @@
       <c r="B148" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C148" s="86"/>
-      <c r="D148" s="86"/>
+      <c r="C148" s="83"/>
+      <c r="D148" s="83"/>
       <c r="E148" s="23" t="s">
         <v>481</v>
       </c>
@@ -19651,8 +19651,8 @@
       <c r="B149" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C149" s="86"/>
-      <c r="D149" s="86"/>
+      <c r="C149" s="83"/>
+      <c r="D149" s="83"/>
       <c r="E149" s="23" t="s">
         <v>481</v>
       </c>
@@ -19664,8 +19664,8 @@
       <c r="B150" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C150" s="86"/>
-      <c r="D150" s="86"/>
+      <c r="C150" s="83"/>
+      <c r="D150" s="83"/>
       <c r="E150" s="23" t="s">
         <v>481</v>
       </c>
@@ -19677,8 +19677,8 @@
       <c r="B151" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C151" s="86"/>
-      <c r="D151" s="86"/>
+      <c r="C151" s="83"/>
+      <c r="D151" s="83"/>
       <c r="E151" s="23" t="s">
         <v>481</v>
       </c>
@@ -19690,8 +19690,8 @@
       <c r="B152" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C152" s="86"/>
-      <c r="D152" s="86"/>
+      <c r="C152" s="83"/>
+      <c r="D152" s="83"/>
       <c r="E152" s="23" t="s">
         <v>481</v>
       </c>
@@ -19703,8 +19703,8 @@
       <c r="B153" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C153" s="86"/>
-      <c r="D153" s="86"/>
+      <c r="C153" s="83"/>
+      <c r="D153" s="83"/>
       <c r="E153" s="23" t="s">
         <v>481</v>
       </c>
@@ -19716,8 +19716,8 @@
       <c r="B154" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C154" s="86"/>
-      <c r="D154" s="86"/>
+      <c r="C154" s="83"/>
+      <c r="D154" s="83"/>
       <c r="E154" s="23" t="s">
         <v>481</v>
       </c>
@@ -19729,8 +19729,8 @@
       <c r="B155" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C155" s="86"/>
-      <c r="D155" s="86"/>
+      <c r="C155" s="83"/>
+      <c r="D155" s="83"/>
       <c r="E155" s="23" t="s">
         <v>481</v>
       </c>
@@ -19742,8 +19742,8 @@
       <c r="B156" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C156" s="86"/>
-      <c r="D156" s="86"/>
+      <c r="C156" s="83"/>
+      <c r="D156" s="83"/>
       <c r="E156" s="23" t="s">
         <v>481</v>
       </c>
@@ -19755,8 +19755,8 @@
       <c r="B157" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C157" s="86"/>
-      <c r="D157" s="86"/>
+      <c r="C157" s="83"/>
+      <c r="D157" s="83"/>
       <c r="E157" s="23" t="s">
         <v>481</v>
       </c>
@@ -19768,8 +19768,8 @@
       <c r="B158" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C158" s="86"/>
-      <c r="D158" s="86"/>
+      <c r="C158" s="83"/>
+      <c r="D158" s="83"/>
       <c r="E158" s="23" t="s">
         <v>481</v>
       </c>
@@ -19781,8 +19781,8 @@
       <c r="B159" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C159" s="86"/>
-      <c r="D159" s="86"/>
+      <c r="C159" s="83"/>
+      <c r="D159" s="83"/>
       <c r="E159" s="23" t="s">
         <v>481</v>
       </c>
@@ -19794,8 +19794,8 @@
       <c r="B160" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C160" s="86"/>
-      <c r="D160" s="86"/>
+      <c r="C160" s="83"/>
+      <c r="D160" s="83"/>
       <c r="E160" s="23" t="s">
         <v>481</v>
       </c>
@@ -19807,8 +19807,8 @@
       <c r="B161" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C161" s="86"/>
-      <c r="D161" s="86"/>
+      <c r="C161" s="83"/>
+      <c r="D161" s="83"/>
       <c r="E161" s="23" t="s">
         <v>481</v>
       </c>
@@ -19820,8 +19820,8 @@
       <c r="B162" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C162" s="86"/>
-      <c r="D162" s="86"/>
+      <c r="C162" s="83"/>
+      <c r="D162" s="83"/>
       <c r="E162" s="23" t="s">
         <v>481</v>
       </c>
@@ -19833,8 +19833,8 @@
       <c r="B163" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="C163" s="87"/>
-      <c r="D163" s="87"/>
+      <c r="C163" s="84"/>
+      <c r="D163" s="84"/>
       <c r="E163" s="28" t="s">
         <v>481</v>
       </c>
@@ -19846,10 +19846,10 @@
       <c r="B164" s="18" t="s">
         <v>557</v>
       </c>
-      <c r="C164" s="88" t="s">
-        <v>348</v>
-      </c>
-      <c r="D164" s="88" t="s">
+      <c r="C164" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="D164" s="82" t="s">
         <v>348</v>
       </c>
       <c r="E164" s="19" t="s">
@@ -19863,8 +19863,8 @@
       <c r="B165" s="22" t="s">
         <v>557</v>
       </c>
-      <c r="C165" s="86"/>
-      <c r="D165" s="86"/>
+      <c r="C165" s="83"/>
+      <c r="D165" s="83"/>
       <c r="E165" s="23" t="s">
         <v>481</v>
       </c>
@@ -19876,8 +19876,8 @@
       <c r="B166" s="27" t="s">
         <v>557</v>
       </c>
-      <c r="C166" s="87"/>
-      <c r="D166" s="87"/>
+      <c r="C166" s="84"/>
+      <c r="D166" s="84"/>
       <c r="E166" s="28" t="s">
         <v>481</v>
       </c>
@@ -19889,10 +19889,10 @@
       <c r="B167" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="C167" s="88" t="s">
-        <v>348</v>
-      </c>
-      <c r="D167" s="88" t="s">
+      <c r="C167" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="D167" s="82" t="s">
         <v>348</v>
       </c>
       <c r="E167" s="19" t="s">
@@ -19906,8 +19906,8 @@
       <c r="B168" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C168" s="86"/>
-      <c r="D168" s="86"/>
+      <c r="C168" s="83"/>
+      <c r="D168" s="83"/>
       <c r="E168" s="23" t="s">
         <v>383</v>
       </c>
@@ -19919,8 +19919,8 @@
       <c r="B169" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C169" s="86"/>
-      <c r="D169" s="86"/>
+      <c r="C169" s="83"/>
+      <c r="D169" s="83"/>
       <c r="E169" s="23" t="s">
         <v>383</v>
       </c>
@@ -19932,8 +19932,8 @@
       <c r="B170" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C170" s="86"/>
-      <c r="D170" s="86"/>
+      <c r="C170" s="83"/>
+      <c r="D170" s="83"/>
       <c r="E170" s="23" t="s">
         <v>383</v>
       </c>
@@ -19945,8 +19945,8 @@
       <c r="B171" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C171" s="86"/>
-      <c r="D171" s="86"/>
+      <c r="C171" s="83"/>
+      <c r="D171" s="83"/>
       <c r="E171" s="23" t="s">
         <v>383</v>
       </c>
@@ -19958,8 +19958,8 @@
       <c r="B172" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C172" s="86"/>
-      <c r="D172" s="86"/>
+      <c r="C172" s="83"/>
+      <c r="D172" s="83"/>
       <c r="E172" s="23" t="s">
         <v>383</v>
       </c>
@@ -19971,8 +19971,8 @@
       <c r="B173" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C173" s="86"/>
-      <c r="D173" s="86"/>
+      <c r="C173" s="83"/>
+      <c r="D173" s="83"/>
       <c r="E173" s="23" t="s">
         <v>383</v>
       </c>
@@ -19984,8 +19984,8 @@
       <c r="B174" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C174" s="86"/>
-      <c r="D174" s="86"/>
+      <c r="C174" s="83"/>
+      <c r="D174" s="83"/>
       <c r="E174" s="23" t="s">
         <v>383</v>
       </c>
@@ -19997,8 +19997,8 @@
       <c r="B175" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C175" s="86"/>
-      <c r="D175" s="86"/>
+      <c r="C175" s="83"/>
+      <c r="D175" s="83"/>
       <c r="E175" s="23" t="s">
         <v>383</v>
       </c>
@@ -20010,8 +20010,8 @@
       <c r="B176" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C176" s="86"/>
-      <c r="D176" s="86"/>
+      <c r="C176" s="83"/>
+      <c r="D176" s="83"/>
       <c r="E176" s="23" t="s">
         <v>383</v>
       </c>
@@ -20023,8 +20023,8 @@
       <c r="B177" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C177" s="86"/>
-      <c r="D177" s="86"/>
+      <c r="C177" s="83"/>
+      <c r="D177" s="83"/>
       <c r="E177" s="23" t="s">
         <v>383</v>
       </c>
@@ -20036,8 +20036,8 @@
       <c r="B178" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C178" s="86"/>
-      <c r="D178" s="86"/>
+      <c r="C178" s="83"/>
+      <c r="D178" s="83"/>
       <c r="E178" s="23" t="s">
         <v>383</v>
       </c>
@@ -20049,8 +20049,8 @@
       <c r="B179" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C179" s="86"/>
-      <c r="D179" s="86"/>
+      <c r="C179" s="83"/>
+      <c r="D179" s="83"/>
       <c r="E179" s="23" t="s">
         <v>383</v>
       </c>
@@ -20062,8 +20062,8 @@
       <c r="B180" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C180" s="86"/>
-      <c r="D180" s="86"/>
+      <c r="C180" s="83"/>
+      <c r="D180" s="83"/>
       <c r="E180" s="23" t="s">
         <v>383</v>
       </c>
@@ -20075,8 +20075,8 @@
       <c r="B181" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C181" s="86"/>
-      <c r="D181" s="86"/>
+      <c r="C181" s="83"/>
+      <c r="D181" s="83"/>
       <c r="E181" s="23" t="s">
         <v>383</v>
       </c>
@@ -20088,8 +20088,8 @@
       <c r="B182" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C182" s="86"/>
-      <c r="D182" s="86"/>
+      <c r="C182" s="83"/>
+      <c r="D182" s="83"/>
       <c r="E182" s="23" t="s">
         <v>383</v>
       </c>
@@ -20101,8 +20101,8 @@
       <c r="B183" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C183" s="86"/>
-      <c r="D183" s="86"/>
+      <c r="C183" s="83"/>
+      <c r="D183" s="83"/>
       <c r="E183" s="23" t="s">
         <v>383</v>
       </c>
@@ -20114,8 +20114,8 @@
       <c r="B184" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C184" s="86"/>
-      <c r="D184" s="86"/>
+      <c r="C184" s="83"/>
+      <c r="D184" s="83"/>
       <c r="E184" s="23" t="s">
         <v>383</v>
       </c>
@@ -20127,8 +20127,8 @@
       <c r="B185" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C185" s="86"/>
-      <c r="D185" s="86"/>
+      <c r="C185" s="83"/>
+      <c r="D185" s="83"/>
       <c r="E185" s="23" t="s">
         <v>383</v>
       </c>
@@ -20140,8 +20140,8 @@
       <c r="B186" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C186" s="86"/>
-      <c r="D186" s="86"/>
+      <c r="C186" s="83"/>
+      <c r="D186" s="83"/>
       <c r="E186" s="23" t="s">
         <v>383</v>
       </c>
@@ -20153,8 +20153,8 @@
       <c r="B187" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="C187" s="87"/>
-      <c r="D187" s="87"/>
+      <c r="C187" s="84"/>
+      <c r="D187" s="84"/>
       <c r="E187" s="28" t="s">
         <v>383</v>
       </c>
@@ -20166,10 +20166,10 @@
       <c r="B188" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="C188" s="88" t="s">
+      <c r="C188" s="82" t="s">
         <v>579</v>
       </c>
-      <c r="D188" s="88" t="s">
+      <c r="D188" s="82" t="s">
         <v>348</v>
       </c>
       <c r="E188" s="19" t="s">
@@ -20183,8 +20183,8 @@
       <c r="B189" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C189" s="86"/>
-      <c r="D189" s="86"/>
+      <c r="C189" s="83"/>
+      <c r="D189" s="83"/>
       <c r="E189" s="23" t="s">
         <v>394</v>
       </c>
@@ -20196,8 +20196,8 @@
       <c r="B190" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C190" s="86"/>
-      <c r="D190" s="86"/>
+      <c r="C190" s="83"/>
+      <c r="D190" s="83"/>
       <c r="E190" s="23" t="s">
         <v>394</v>
       </c>
@@ -20209,8 +20209,8 @@
       <c r="B191" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C191" s="86"/>
-      <c r="D191" s="86"/>
+      <c r="C191" s="83"/>
+      <c r="D191" s="83"/>
       <c r="E191" s="23" t="s">
         <v>394</v>
       </c>
@@ -20222,8 +20222,8 @@
       <c r="B192" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C192" s="86"/>
-      <c r="D192" s="86"/>
+      <c r="C192" s="83"/>
+      <c r="D192" s="83"/>
       <c r="E192" s="23" t="s">
         <v>394</v>
       </c>
@@ -20235,8 +20235,8 @@
       <c r="B193" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C193" s="86"/>
-      <c r="D193" s="86"/>
+      <c r="C193" s="83"/>
+      <c r="D193" s="83"/>
       <c r="E193" s="23" t="s">
         <v>394</v>
       </c>
@@ -20248,8 +20248,8 @@
       <c r="B194" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C194" s="86"/>
-      <c r="D194" s="86"/>
+      <c r="C194" s="83"/>
+      <c r="D194" s="83"/>
       <c r="E194" s="23" t="s">
         <v>394</v>
       </c>
@@ -20261,8 +20261,8 @@
       <c r="B195" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C195" s="86"/>
-      <c r="D195" s="86"/>
+      <c r="C195" s="83"/>
+      <c r="D195" s="83"/>
       <c r="E195" s="23" t="s">
         <v>394</v>
       </c>
@@ -20274,8 +20274,8 @@
       <c r="B196" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C196" s="86"/>
-      <c r="D196" s="86"/>
+      <c r="C196" s="83"/>
+      <c r="D196" s="83"/>
       <c r="E196" s="23" t="s">
         <v>394</v>
       </c>
@@ -20287,8 +20287,8 @@
       <c r="B197" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C197" s="86"/>
-      <c r="D197" s="86"/>
+      <c r="C197" s="83"/>
+      <c r="D197" s="83"/>
       <c r="E197" s="23" t="s">
         <v>394</v>
       </c>
@@ -20300,8 +20300,8 @@
       <c r="B198" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C198" s="86"/>
-      <c r="D198" s="86"/>
+      <c r="C198" s="83"/>
+      <c r="D198" s="83"/>
       <c r="E198" s="23" t="s">
         <v>394</v>
       </c>
@@ -20313,8 +20313,8 @@
       <c r="B199" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C199" s="86"/>
-      <c r="D199" s="86"/>
+      <c r="C199" s="83"/>
+      <c r="D199" s="83"/>
       <c r="E199" s="23" t="s">
         <v>394</v>
       </c>
@@ -20326,8 +20326,8 @@
       <c r="B200" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C200" s="86"/>
-      <c r="D200" s="86"/>
+      <c r="C200" s="83"/>
+      <c r="D200" s="83"/>
       <c r="E200" s="23" t="s">
         <v>394</v>
       </c>
@@ -20339,8 +20339,8 @@
       <c r="B201" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C201" s="86"/>
-      <c r="D201" s="86"/>
+      <c r="C201" s="83"/>
+      <c r="D201" s="83"/>
       <c r="E201" s="23" t="s">
         <v>394</v>
       </c>
@@ -20352,8 +20352,8 @@
       <c r="B202" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C202" s="86"/>
-      <c r="D202" s="86"/>
+      <c r="C202" s="83"/>
+      <c r="D202" s="83"/>
       <c r="E202" s="23" t="s">
         <v>394</v>
       </c>
@@ -20365,8 +20365,8 @@
       <c r="B203" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C203" s="86"/>
-      <c r="D203" s="86"/>
+      <c r="C203" s="83"/>
+      <c r="D203" s="83"/>
       <c r="E203" s="23" t="s">
         <v>394</v>
       </c>
@@ -20378,8 +20378,8 @@
       <c r="B204" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C204" s="86"/>
-      <c r="D204" s="86"/>
+      <c r="C204" s="83"/>
+      <c r="D204" s="83"/>
       <c r="E204" s="23" t="s">
         <v>394</v>
       </c>
@@ -20391,8 +20391,8 @@
       <c r="B205" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C205" s="86"/>
-      <c r="D205" s="86"/>
+      <c r="C205" s="83"/>
+      <c r="D205" s="83"/>
       <c r="E205" s="23" t="s">
         <v>394</v>
       </c>
@@ -20404,8 +20404,8 @@
       <c r="B206" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C206" s="86"/>
-      <c r="D206" s="86"/>
+      <c r="C206" s="83"/>
+      <c r="D206" s="83"/>
       <c r="E206" s="23" t="s">
         <v>394</v>
       </c>
@@ -20417,8 +20417,8 @@
       <c r="B207" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C207" s="86"/>
-      <c r="D207" s="86"/>
+      <c r="C207" s="83"/>
+      <c r="D207" s="83"/>
       <c r="E207" s="23" t="s">
         <v>394</v>
       </c>
@@ -20430,8 +20430,8 @@
       <c r="B208" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C208" s="86"/>
-      <c r="D208" s="86"/>
+      <c r="C208" s="83"/>
+      <c r="D208" s="83"/>
       <c r="E208" s="23" t="s">
         <v>394</v>
       </c>
@@ -20443,8 +20443,8 @@
       <c r="B209" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C209" s="86"/>
-      <c r="D209" s="86"/>
+      <c r="C209" s="83"/>
+      <c r="D209" s="83"/>
       <c r="E209" s="23" t="s">
         <v>394</v>
       </c>
@@ -20456,8 +20456,8 @@
       <c r="B210" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C210" s="86"/>
-      <c r="D210" s="86"/>
+      <c r="C210" s="83"/>
+      <c r="D210" s="83"/>
       <c r="E210" s="23" t="s">
         <v>394</v>
       </c>
@@ -20469,8 +20469,8 @@
       <c r="B211" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C211" s="86"/>
-      <c r="D211" s="86"/>
+      <c r="C211" s="83"/>
+      <c r="D211" s="83"/>
       <c r="E211" s="23" t="s">
         <v>394</v>
       </c>
@@ -20482,8 +20482,8 @@
       <c r="B212" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C212" s="86"/>
-      <c r="D212" s="86"/>
+      <c r="C212" s="83"/>
+      <c r="D212" s="83"/>
       <c r="E212" s="23" t="s">
         <v>394</v>
       </c>
@@ -20495,8 +20495,8 @@
       <c r="B213" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C213" s="86"/>
-      <c r="D213" s="86"/>
+      <c r="C213" s="83"/>
+      <c r="D213" s="83"/>
       <c r="E213" s="23" t="s">
         <v>394</v>
       </c>
@@ -20508,8 +20508,8 @@
       <c r="B214" s="22" t="s">
         <v>510</v>
       </c>
-      <c r="C214" s="86"/>
-      <c r="D214" s="86"/>
+      <c r="C214" s="83"/>
+      <c r="D214" s="83"/>
       <c r="E214" s="23" t="s">
         <v>394</v>
       </c>
@@ -20521,8 +20521,8 @@
       <c r="B215" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="C215" s="87"/>
-      <c r="D215" s="87"/>
+      <c r="C215" s="84"/>
+      <c r="D215" s="84"/>
       <c r="E215" s="28" t="s">
         <v>394</v>
       </c>
@@ -20551,8 +20551,8 @@
       <c r="B217" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C217" s="86"/>
-      <c r="D217" s="86"/>
+      <c r="C217" s="83"/>
+      <c r="D217" s="83"/>
       <c r="E217" s="23" t="s">
         <v>394</v>
       </c>
@@ -20564,8 +20564,8 @@
       <c r="B218" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C218" s="86"/>
-      <c r="D218" s="86"/>
+      <c r="C218" s="83"/>
+      <c r="D218" s="83"/>
       <c r="E218" s="23" t="s">
         <v>394</v>
       </c>
@@ -20577,8 +20577,8 @@
       <c r="B219" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C219" s="86"/>
-      <c r="D219" s="86"/>
+      <c r="C219" s="83"/>
+      <c r="D219" s="83"/>
       <c r="E219" s="23" t="s">
         <v>394</v>
       </c>
@@ -20590,8 +20590,8 @@
       <c r="B220" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C220" s="86"/>
-      <c r="D220" s="86"/>
+      <c r="C220" s="83"/>
+      <c r="D220" s="83"/>
       <c r="E220" s="23" t="s">
         <v>394</v>
       </c>
@@ -20603,8 +20603,8 @@
       <c r="B221" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C221" s="86"/>
-      <c r="D221" s="86"/>
+      <c r="C221" s="83"/>
+      <c r="D221" s="83"/>
       <c r="E221" s="23" t="s">
         <v>394</v>
       </c>
@@ -20616,8 +20616,8 @@
       <c r="B222" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C222" s="86"/>
-      <c r="D222" s="86"/>
+      <c r="C222" s="83"/>
+      <c r="D222" s="83"/>
       <c r="E222" s="23" t="s">
         <v>394</v>
       </c>
@@ -20629,8 +20629,8 @@
       <c r="B223" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C223" s="86"/>
-      <c r="D223" s="86"/>
+      <c r="C223" s="83"/>
+      <c r="D223" s="83"/>
       <c r="E223" s="23" t="s">
         <v>394</v>
       </c>
@@ -20642,8 +20642,8 @@
       <c r="B224" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C224" s="86"/>
-      <c r="D224" s="86"/>
+      <c r="C224" s="83"/>
+      <c r="D224" s="83"/>
       <c r="E224" s="23" t="s">
         <v>394</v>
       </c>
@@ -20655,8 +20655,8 @@
       <c r="B225" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C225" s="86"/>
-      <c r="D225" s="86"/>
+      <c r="C225" s="83"/>
+      <c r="D225" s="83"/>
       <c r="E225" s="23" t="s">
         <v>394</v>
       </c>
@@ -20668,8 +20668,8 @@
       <c r="B226" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C226" s="86"/>
-      <c r="D226" s="86"/>
+      <c r="C226" s="83"/>
+      <c r="D226" s="83"/>
       <c r="E226" s="23" t="s">
         <v>394</v>
       </c>
@@ -20681,8 +20681,8 @@
       <c r="B227" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C227" s="86"/>
-      <c r="D227" s="86"/>
+      <c r="C227" s="83"/>
+      <c r="D227" s="83"/>
       <c r="E227" s="23" t="s">
         <v>394</v>
       </c>
@@ -20694,8 +20694,8 @@
       <c r="B228" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C228" s="86"/>
-      <c r="D228" s="86"/>
+      <c r="C228" s="83"/>
+      <c r="D228" s="83"/>
       <c r="E228" s="23" t="s">
         <v>394</v>
       </c>
@@ -20707,8 +20707,8 @@
       <c r="B229" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C229" s="86"/>
-      <c r="D229" s="86"/>
+      <c r="C229" s="83"/>
+      <c r="D229" s="83"/>
       <c r="E229" s="23" t="s">
         <v>394</v>
       </c>
@@ -20720,8 +20720,8 @@
       <c r="B230" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C230" s="86"/>
-      <c r="D230" s="86"/>
+      <c r="C230" s="83"/>
+      <c r="D230" s="83"/>
       <c r="E230" s="23" t="s">
         <v>394</v>
       </c>
@@ -20733,8 +20733,8 @@
       <c r="B231" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C231" s="86"/>
-      <c r="D231" s="86"/>
+      <c r="C231" s="83"/>
+      <c r="D231" s="83"/>
       <c r="E231" s="23" t="s">
         <v>394</v>
       </c>
@@ -20746,8 +20746,8 @@
       <c r="B232" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C232" s="86"/>
-      <c r="D232" s="86"/>
+      <c r="C232" s="83"/>
+      <c r="D232" s="83"/>
       <c r="E232" s="23" t="s">
         <v>394</v>
       </c>
@@ -20759,8 +20759,8 @@
       <c r="B233" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C233" s="86"/>
-      <c r="D233" s="86"/>
+      <c r="C233" s="83"/>
+      <c r="D233" s="83"/>
       <c r="E233" s="23" t="s">
         <v>394</v>
       </c>
@@ -20772,8 +20772,8 @@
       <c r="B234" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C234" s="86"/>
-      <c r="D234" s="86"/>
+      <c r="C234" s="83"/>
+      <c r="D234" s="83"/>
       <c r="E234" s="23" t="s">
         <v>394</v>
       </c>
@@ -20785,8 +20785,8 @@
       <c r="B235" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C235" s="86"/>
-      <c r="D235" s="86"/>
+      <c r="C235" s="83"/>
+      <c r="D235" s="83"/>
       <c r="E235" s="23" t="s">
         <v>394</v>
       </c>
@@ -20798,8 +20798,8 @@
       <c r="B236" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C236" s="86"/>
-      <c r="D236" s="86"/>
+      <c r="C236" s="83"/>
+      <c r="D236" s="83"/>
       <c r="E236" s="23" t="s">
         <v>394</v>
       </c>
@@ -20811,8 +20811,8 @@
       <c r="B237" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C237" s="86"/>
-      <c r="D237" s="86"/>
+      <c r="C237" s="83"/>
+      <c r="D237" s="83"/>
       <c r="E237" s="23" t="s">
         <v>394</v>
       </c>
@@ -20824,8 +20824,8 @@
       <c r="B238" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C238" s="86"/>
-      <c r="D238" s="86"/>
+      <c r="C238" s="83"/>
+      <c r="D238" s="83"/>
       <c r="E238" s="23" t="s">
         <v>394</v>
       </c>
@@ -20837,8 +20837,8 @@
       <c r="B239" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C239" s="86"/>
-      <c r="D239" s="86"/>
+      <c r="C239" s="83"/>
+      <c r="D239" s="83"/>
       <c r="E239" s="23" t="s">
         <v>394</v>
       </c>
@@ -20850,8 +20850,8 @@
       <c r="B240" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C240" s="86"/>
-      <c r="D240" s="86"/>
+      <c r="C240" s="83"/>
+      <c r="D240" s="83"/>
       <c r="E240" s="23" t="s">
         <v>394</v>
       </c>
@@ -20863,8 +20863,8 @@
       <c r="B241" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C241" s="86"/>
-      <c r="D241" s="86"/>
+      <c r="C241" s="83"/>
+      <c r="D241" s="83"/>
       <c r="E241" s="23" t="s">
         <v>394</v>
       </c>
@@ -20876,8 +20876,8 @@
       <c r="B242" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C242" s="86"/>
-      <c r="D242" s="86"/>
+      <c r="C242" s="83"/>
+      <c r="D242" s="83"/>
       <c r="E242" s="23" t="s">
         <v>394</v>
       </c>
@@ -20889,8 +20889,8 @@
       <c r="B243" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C243" s="86"/>
-      <c r="D243" s="86"/>
+      <c r="C243" s="83"/>
+      <c r="D243" s="83"/>
       <c r="E243" s="23" t="s">
         <v>394</v>
       </c>
@@ -20902,8 +20902,8 @@
       <c r="B244" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C244" s="86"/>
-      <c r="D244" s="86"/>
+      <c r="C244" s="83"/>
+      <c r="D244" s="83"/>
       <c r="E244" s="23" t="s">
         <v>394</v>
       </c>
@@ -20915,8 +20915,8 @@
       <c r="B245" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C245" s="86"/>
-      <c r="D245" s="86"/>
+      <c r="C245" s="83"/>
+      <c r="D245" s="83"/>
       <c r="E245" s="23" t="s">
         <v>394</v>
       </c>
@@ -20928,8 +20928,8 @@
       <c r="B246" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C246" s="86"/>
-      <c r="D246" s="86"/>
+      <c r="C246" s="83"/>
+      <c r="D246" s="83"/>
       <c r="E246" s="23" t="s">
         <v>394</v>
       </c>
@@ -20941,8 +20941,8 @@
       <c r="B247" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C247" s="86"/>
-      <c r="D247" s="86"/>
+      <c r="C247" s="83"/>
+      <c r="D247" s="83"/>
       <c r="E247" s="23" t="s">
         <v>394</v>
       </c>
@@ -20954,8 +20954,8 @@
       <c r="B248" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C248" s="86"/>
-      <c r="D248" s="86"/>
+      <c r="C248" s="83"/>
+      <c r="D248" s="83"/>
       <c r="E248" s="23" t="s">
         <v>394</v>
       </c>
@@ -20967,8 +20967,8 @@
       <c r="B249" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C249" s="86"/>
-      <c r="D249" s="86"/>
+      <c r="C249" s="83"/>
+      <c r="D249" s="83"/>
       <c r="E249" s="23" t="s">
         <v>394</v>
       </c>
@@ -20980,8 +20980,8 @@
       <c r="B250" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C250" s="86"/>
-      <c r="D250" s="86"/>
+      <c r="C250" s="83"/>
+      <c r="D250" s="83"/>
       <c r="E250" s="23" t="s">
         <v>394</v>
       </c>
@@ -20993,8 +20993,8 @@
       <c r="B251" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C251" s="86"/>
-      <c r="D251" s="86"/>
+      <c r="C251" s="83"/>
+      <c r="D251" s="83"/>
       <c r="E251" s="23" t="s">
         <v>394</v>
       </c>
@@ -21006,8 +21006,8 @@
       <c r="B252" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C252" s="86"/>
-      <c r="D252" s="86"/>
+      <c r="C252" s="83"/>
+      <c r="D252" s="83"/>
       <c r="E252" s="23" t="s">
         <v>394</v>
       </c>
@@ -21019,8 +21019,8 @@
       <c r="B253" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C253" s="86"/>
-      <c r="D253" s="86"/>
+      <c r="C253" s="83"/>
+      <c r="D253" s="83"/>
       <c r="E253" s="23" t="s">
         <v>394</v>
       </c>
@@ -21032,8 +21032,8 @@
       <c r="B254" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C254" s="86"/>
-      <c r="D254" s="86"/>
+      <c r="C254" s="83"/>
+      <c r="D254" s="83"/>
       <c r="E254" s="23" t="s">
         <v>394</v>
       </c>
@@ -21045,8 +21045,8 @@
       <c r="B255" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C255" s="86"/>
-      <c r="D255" s="86"/>
+      <c r="C255" s="83"/>
+      <c r="D255" s="83"/>
       <c r="E255" s="23" t="s">
         <v>394</v>
       </c>
@@ -21058,8 +21058,8 @@
       <c r="B256" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C256" s="86"/>
-      <c r="D256" s="86"/>
+      <c r="C256" s="83"/>
+      <c r="D256" s="83"/>
       <c r="E256" s="23" t="s">
         <v>394</v>
       </c>
@@ -21071,8 +21071,8 @@
       <c r="B257" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C257" s="86"/>
-      <c r="D257" s="86"/>
+      <c r="C257" s="83"/>
+      <c r="D257" s="83"/>
       <c r="E257" s="23" t="s">
         <v>394</v>
       </c>
@@ -21084,8 +21084,8 @@
       <c r="B258" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C258" s="86"/>
-      <c r="D258" s="86"/>
+      <c r="C258" s="83"/>
+      <c r="D258" s="83"/>
       <c r="E258" s="23" t="s">
         <v>394</v>
       </c>
@@ -21097,8 +21097,8 @@
       <c r="B259" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C259" s="86"/>
-      <c r="D259" s="86"/>
+      <c r="C259" s="83"/>
+      <c r="D259" s="83"/>
       <c r="E259" s="23" t="s">
         <v>394</v>
       </c>
@@ -21110,8 +21110,8 @@
       <c r="B260" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C260" s="86"/>
-      <c r="D260" s="86"/>
+      <c r="C260" s="83"/>
+      <c r="D260" s="83"/>
       <c r="E260" s="23" t="s">
         <v>394</v>
       </c>
@@ -21123,8 +21123,8 @@
       <c r="B261" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C261" s="86"/>
-      <c r="D261" s="86"/>
+      <c r="C261" s="83"/>
+      <c r="D261" s="83"/>
       <c r="E261" s="23" t="s">
         <v>394</v>
       </c>
@@ -21136,8 +21136,8 @@
       <c r="B262" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C262" s="86"/>
-      <c r="D262" s="86"/>
+      <c r="C262" s="83"/>
+      <c r="D262" s="83"/>
       <c r="E262" s="23" t="s">
         <v>394</v>
       </c>
@@ -21149,8 +21149,8 @@
       <c r="B263" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C263" s="86"/>
-      <c r="D263" s="86"/>
+      <c r="C263" s="83"/>
+      <c r="D263" s="83"/>
       <c r="E263" s="23" t="s">
         <v>394</v>
       </c>
@@ -21162,8 +21162,8 @@
       <c r="B264" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C264" s="86"/>
-      <c r="D264" s="86"/>
+      <c r="C264" s="83"/>
+      <c r="D264" s="83"/>
       <c r="E264" s="23" t="s">
         <v>394</v>
       </c>
@@ -21175,8 +21175,8 @@
       <c r="B265" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C265" s="86"/>
-      <c r="D265" s="86"/>
+      <c r="C265" s="83"/>
+      <c r="D265" s="83"/>
       <c r="E265" s="23" t="s">
         <v>394</v>
       </c>
@@ -21188,8 +21188,8 @@
       <c r="B266" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C266" s="86"/>
-      <c r="D266" s="86"/>
+      <c r="C266" s="83"/>
+      <c r="D266" s="83"/>
       <c r="E266" s="23" t="s">
         <v>394</v>
       </c>
@@ -21201,8 +21201,8 @@
       <c r="B267" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C267" s="86"/>
-      <c r="D267" s="86"/>
+      <c r="C267" s="83"/>
+      <c r="D267" s="83"/>
       <c r="E267" s="23" t="s">
         <v>394</v>
       </c>
@@ -21214,8 +21214,8 @@
       <c r="B268" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C268" s="86"/>
-      <c r="D268" s="86"/>
+      <c r="C268" s="83"/>
+      <c r="D268" s="83"/>
       <c r="E268" s="23" t="s">
         <v>394</v>
       </c>
@@ -21227,8 +21227,8 @@
       <c r="B269" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C269" s="86"/>
-      <c r="D269" s="86"/>
+      <c r="C269" s="83"/>
+      <c r="D269" s="83"/>
       <c r="E269" s="23" t="s">
         <v>394</v>
       </c>
@@ -21240,8 +21240,8 @@
       <c r="B270" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C270" s="86"/>
-      <c r="D270" s="86"/>
+      <c r="C270" s="83"/>
+      <c r="D270" s="83"/>
       <c r="E270" s="23" t="s">
         <v>394</v>
       </c>
@@ -21253,8 +21253,8 @@
       <c r="B271" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C271" s="86"/>
-      <c r="D271" s="86"/>
+      <c r="C271" s="83"/>
+      <c r="D271" s="83"/>
       <c r="E271" s="23" t="s">
         <v>394</v>
       </c>
@@ -21266,8 +21266,8 @@
       <c r="B272" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C272" s="86"/>
-      <c r="D272" s="86"/>
+      <c r="C272" s="83"/>
+      <c r="D272" s="83"/>
       <c r="E272" s="23" t="s">
         <v>394</v>
       </c>
@@ -21279,8 +21279,8 @@
       <c r="B273" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C273" s="86"/>
-      <c r="D273" s="86"/>
+      <c r="C273" s="83"/>
+      <c r="D273" s="83"/>
       <c r="E273" s="23" t="s">
         <v>394</v>
       </c>
@@ -21292,8 +21292,8 @@
       <c r="B274" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C274" s="86"/>
-      <c r="D274" s="86"/>
+      <c r="C274" s="83"/>
+      <c r="D274" s="83"/>
       <c r="E274" s="23" t="s">
         <v>394</v>
       </c>
@@ -21305,8 +21305,8 @@
       <c r="B275" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C275" s="86"/>
-      <c r="D275" s="86"/>
+      <c r="C275" s="83"/>
+      <c r="D275" s="83"/>
       <c r="E275" s="23" t="s">
         <v>394</v>
       </c>
@@ -21318,8 +21318,8 @@
       <c r="B276" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C276" s="86"/>
-      <c r="D276" s="86"/>
+      <c r="C276" s="83"/>
+      <c r="D276" s="83"/>
       <c r="E276" s="23" t="s">
         <v>394</v>
       </c>
@@ -21331,8 +21331,8 @@
       <c r="B277" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C277" s="86"/>
-      <c r="D277" s="86"/>
+      <c r="C277" s="83"/>
+      <c r="D277" s="83"/>
       <c r="E277" s="23" t="s">
         <v>394</v>
       </c>
@@ -21344,8 +21344,8 @@
       <c r="B278" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C278" s="86"/>
-      <c r="D278" s="86"/>
+      <c r="C278" s="83"/>
+      <c r="D278" s="83"/>
       <c r="E278" s="23" t="s">
         <v>394</v>
       </c>
@@ -21357,8 +21357,8 @@
       <c r="B279" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C279" s="86"/>
-      <c r="D279" s="86"/>
+      <c r="C279" s="83"/>
+      <c r="D279" s="83"/>
       <c r="E279" s="23" t="s">
         <v>394</v>
       </c>
@@ -21370,8 +21370,8 @@
       <c r="B280" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C280" s="86"/>
-      <c r="D280" s="86"/>
+      <c r="C280" s="83"/>
+      <c r="D280" s="83"/>
       <c r="E280" s="23" t="s">
         <v>394</v>
       </c>
@@ -21383,8 +21383,8 @@
       <c r="B281" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C281" s="86"/>
-      <c r="D281" s="86"/>
+      <c r="C281" s="83"/>
+      <c r="D281" s="83"/>
       <c r="E281" s="23" t="s">
         <v>394</v>
       </c>
@@ -21396,8 +21396,8 @@
       <c r="B282" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C282" s="86"/>
-      <c r="D282" s="86"/>
+      <c r="C282" s="83"/>
+      <c r="D282" s="83"/>
       <c r="E282" s="23" t="s">
         <v>394</v>
       </c>
@@ -21409,8 +21409,8 @@
       <c r="B283" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C283" s="86"/>
-      <c r="D283" s="86"/>
+      <c r="C283" s="83"/>
+      <c r="D283" s="83"/>
       <c r="E283" s="23" t="s">
         <v>394</v>
       </c>
@@ -21422,8 +21422,8 @@
       <c r="B284" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C284" s="86"/>
-      <c r="D284" s="86"/>
+      <c r="C284" s="83"/>
+      <c r="D284" s="83"/>
       <c r="E284" s="23" t="s">
         <v>394</v>
       </c>
@@ -21435,8 +21435,8 @@
       <c r="B285" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C285" s="86"/>
-      <c r="D285" s="86"/>
+      <c r="C285" s="83"/>
+      <c r="D285" s="83"/>
       <c r="E285" s="23" t="s">
         <v>394</v>
       </c>
@@ -21448,8 +21448,8 @@
       <c r="B286" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C286" s="86"/>
-      <c r="D286" s="86"/>
+      <c r="C286" s="83"/>
+      <c r="D286" s="83"/>
       <c r="E286" s="23" t="s">
         <v>394</v>
       </c>
@@ -21461,8 +21461,8 @@
       <c r="B287" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C287" s="86"/>
-      <c r="D287" s="86"/>
+      <c r="C287" s="83"/>
+      <c r="D287" s="83"/>
       <c r="E287" s="23" t="s">
         <v>394</v>
       </c>
@@ -21474,8 +21474,8 @@
       <c r="B288" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C288" s="86"/>
-      <c r="D288" s="86"/>
+      <c r="C288" s="83"/>
+      <c r="D288" s="83"/>
       <c r="E288" s="23" t="s">
         <v>394</v>
       </c>
@@ -21487,8 +21487,8 @@
       <c r="B289" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C289" s="86"/>
-      <c r="D289" s="86"/>
+      <c r="C289" s="83"/>
+      <c r="D289" s="83"/>
       <c r="E289" s="23" t="s">
         <v>394</v>
       </c>
@@ -21500,8 +21500,8 @@
       <c r="B290" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C290" s="86"/>
-      <c r="D290" s="86"/>
+      <c r="C290" s="83"/>
+      <c r="D290" s="83"/>
       <c r="E290" s="23" t="s">
         <v>394</v>
       </c>
@@ -21513,8 +21513,8 @@
       <c r="B291" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C291" s="86"/>
-      <c r="D291" s="86"/>
+      <c r="C291" s="83"/>
+      <c r="D291" s="83"/>
       <c r="E291" s="23" t="s">
         <v>394</v>
       </c>
@@ -21526,8 +21526,8 @@
       <c r="B292" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C292" s="86"/>
-      <c r="D292" s="86"/>
+      <c r="C292" s="83"/>
+      <c r="D292" s="83"/>
       <c r="E292" s="23" t="s">
         <v>394</v>
       </c>
@@ -21539,8 +21539,8 @@
       <c r="B293" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C293" s="86"/>
-      <c r="D293" s="86"/>
+      <c r="C293" s="83"/>
+      <c r="D293" s="83"/>
       <c r="E293" s="23" t="s">
         <v>394</v>
       </c>
@@ -21552,8 +21552,8 @@
       <c r="B294" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C294" s="86"/>
-      <c r="D294" s="86"/>
+      <c r="C294" s="83"/>
+      <c r="D294" s="83"/>
       <c r="E294" s="23" t="s">
         <v>394</v>
       </c>
@@ -21565,8 +21565,8 @@
       <c r="B295" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C295" s="86"/>
-      <c r="D295" s="86"/>
+      <c r="C295" s="83"/>
+      <c r="D295" s="83"/>
       <c r="E295" s="23" t="s">
         <v>394</v>
       </c>
@@ -21578,8 +21578,8 @@
       <c r="B296" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C296" s="86"/>
-      <c r="D296" s="86"/>
+      <c r="C296" s="83"/>
+      <c r="D296" s="83"/>
       <c r="E296" s="23" t="s">
         <v>394</v>
       </c>
@@ -21591,8 +21591,8 @@
       <c r="B297" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C297" s="86"/>
-      <c r="D297" s="86"/>
+      <c r="C297" s="83"/>
+      <c r="D297" s="83"/>
       <c r="E297" s="23" t="s">
         <v>394</v>
       </c>
@@ -21604,8 +21604,8 @@
       <c r="B298" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C298" s="86"/>
-      <c r="D298" s="86"/>
+      <c r="C298" s="83"/>
+      <c r="D298" s="83"/>
       <c r="E298" s="23" t="s">
         <v>394</v>
       </c>
@@ -21617,8 +21617,8 @@
       <c r="B299" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C299" s="86"/>
-      <c r="D299" s="86"/>
+      <c r="C299" s="83"/>
+      <c r="D299" s="83"/>
       <c r="E299" s="23" t="s">
         <v>394</v>
       </c>
@@ -21630,8 +21630,8 @@
       <c r="B300" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C300" s="86"/>
-      <c r="D300" s="86"/>
+      <c r="C300" s="83"/>
+      <c r="D300" s="83"/>
       <c r="E300" s="23" t="s">
         <v>394</v>
       </c>
@@ -21643,8 +21643,8 @@
       <c r="B301" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C301" s="86"/>
-      <c r="D301" s="86"/>
+      <c r="C301" s="83"/>
+      <c r="D301" s="83"/>
       <c r="E301" s="23" t="s">
         <v>394</v>
       </c>
@@ -21656,8 +21656,8 @@
       <c r="B302" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C302" s="86"/>
-      <c r="D302" s="86"/>
+      <c r="C302" s="83"/>
+      <c r="D302" s="83"/>
       <c r="E302" s="23" t="s">
         <v>394</v>
       </c>
@@ -21669,8 +21669,8 @@
       <c r="B303" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C303" s="86"/>
-      <c r="D303" s="86"/>
+      <c r="C303" s="83"/>
+      <c r="D303" s="83"/>
       <c r="E303" s="23" t="s">
         <v>394</v>
       </c>
@@ -21682,8 +21682,8 @@
       <c r="B304" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C304" s="86"/>
-      <c r="D304" s="86"/>
+      <c r="C304" s="83"/>
+      <c r="D304" s="83"/>
       <c r="E304" s="23" t="s">
         <v>394</v>
       </c>
@@ -21695,8 +21695,8 @@
       <c r="B305" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C305" s="86"/>
-      <c r="D305" s="86"/>
+      <c r="C305" s="83"/>
+      <c r="D305" s="83"/>
       <c r="E305" s="23" t="s">
         <v>394</v>
       </c>
@@ -21708,8 +21708,8 @@
       <c r="B306" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C306" s="86"/>
-      <c r="D306" s="86"/>
+      <c r="C306" s="83"/>
+      <c r="D306" s="83"/>
       <c r="E306" s="23" t="s">
         <v>394</v>
       </c>
@@ -21721,8 +21721,8 @@
       <c r="B307" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C307" s="86"/>
-      <c r="D307" s="86"/>
+      <c r="C307" s="83"/>
+      <c r="D307" s="83"/>
       <c r="E307" s="23" t="s">
         <v>394</v>
       </c>
@@ -21734,8 +21734,8 @@
       <c r="B308" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C308" s="86"/>
-      <c r="D308" s="86"/>
+      <c r="C308" s="83"/>
+      <c r="D308" s="83"/>
       <c r="E308" s="23" t="s">
         <v>394</v>
       </c>
@@ -21747,8 +21747,8 @@
       <c r="B309" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C309" s="86"/>
-      <c r="D309" s="86"/>
+      <c r="C309" s="83"/>
+      <c r="D309" s="83"/>
       <c r="E309" s="23" t="s">
         <v>394</v>
       </c>
@@ -21760,8 +21760,8 @@
       <c r="B310" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C310" s="86"/>
-      <c r="D310" s="86"/>
+      <c r="C310" s="83"/>
+      <c r="D310" s="83"/>
       <c r="E310" s="23" t="s">
         <v>394</v>
       </c>
@@ -21773,8 +21773,8 @@
       <c r="B311" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C311" s="86"/>
-      <c r="D311" s="86"/>
+      <c r="C311" s="83"/>
+      <c r="D311" s="83"/>
       <c r="E311" s="23" t="s">
         <v>394</v>
       </c>
@@ -21786,8 +21786,8 @@
       <c r="B312" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C312" s="86"/>
-      <c r="D312" s="86"/>
+      <c r="C312" s="83"/>
+      <c r="D312" s="83"/>
       <c r="E312" s="23" t="s">
         <v>394</v>
       </c>
@@ -21799,8 +21799,8 @@
       <c r="B313" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C313" s="86"/>
-      <c r="D313" s="86"/>
+      <c r="C313" s="83"/>
+      <c r="D313" s="83"/>
       <c r="E313" s="23" t="s">
         <v>394</v>
       </c>
@@ -21812,8 +21812,8 @@
       <c r="B314" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C314" s="86"/>
-      <c r="D314" s="86"/>
+      <c r="C314" s="83"/>
+      <c r="D314" s="83"/>
       <c r="E314" s="23" t="s">
         <v>394</v>
       </c>
@@ -21825,8 +21825,8 @@
       <c r="B315" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C315" s="86"/>
-      <c r="D315" s="86"/>
+      <c r="C315" s="83"/>
+      <c r="D315" s="83"/>
       <c r="E315" s="23" t="s">
         <v>394</v>
       </c>
@@ -21838,8 +21838,8 @@
       <c r="B316" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C316" s="86"/>
-      <c r="D316" s="86"/>
+      <c r="C316" s="83"/>
+      <c r="D316" s="83"/>
       <c r="E316" s="23" t="s">
         <v>394</v>
       </c>
@@ -21851,8 +21851,8 @@
       <c r="B317" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="C317" s="86"/>
-      <c r="D317" s="86"/>
+      <c r="C317" s="83"/>
+      <c r="D317" s="83"/>
       <c r="E317" s="23" t="s">
         <v>394</v>
       </c>
@@ -21864,8 +21864,8 @@
       <c r="B318" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="C318" s="87"/>
-      <c r="D318" s="87"/>
+      <c r="C318" s="84"/>
+      <c r="D318" s="84"/>
       <c r="E318" s="28" t="s">
         <v>394</v>
       </c>
@@ -21880,7 +21880,7 @@
       <c r="C319" s="85" t="s">
         <v>710</v>
       </c>
-      <c r="D319" s="88" t="s">
+      <c r="D319" s="82" t="s">
         <v>348</v>
       </c>
       <c r="E319" s="19" t="s">
@@ -21894,8 +21894,8 @@
       <c r="B320" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C320" s="86"/>
-      <c r="D320" s="86"/>
+      <c r="C320" s="83"/>
+      <c r="D320" s="83"/>
       <c r="E320" s="23" t="s">
         <v>481</v>
       </c>
@@ -21907,8 +21907,8 @@
       <c r="B321" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C321" s="86"/>
-      <c r="D321" s="86"/>
+      <c r="C321" s="83"/>
+      <c r="D321" s="83"/>
       <c r="E321" s="23" t="s">
         <v>481</v>
       </c>
@@ -21920,8 +21920,8 @@
       <c r="B322" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C322" s="86"/>
-      <c r="D322" s="86"/>
+      <c r="C322" s="83"/>
+      <c r="D322" s="83"/>
       <c r="E322" s="23" t="s">
         <v>481</v>
       </c>
@@ -21933,8 +21933,8 @@
       <c r="B323" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C323" s="86"/>
-      <c r="D323" s="86"/>
+      <c r="C323" s="83"/>
+      <c r="D323" s="83"/>
       <c r="E323" s="23" t="s">
         <v>481</v>
       </c>
@@ -21946,8 +21946,8 @@
       <c r="B324" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C324" s="86"/>
-      <c r="D324" s="86"/>
+      <c r="C324" s="83"/>
+      <c r="D324" s="83"/>
       <c r="E324" s="23" t="s">
         <v>481</v>
       </c>
@@ -21959,8 +21959,8 @@
       <c r="B325" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C325" s="86"/>
-      <c r="D325" s="86"/>
+      <c r="C325" s="83"/>
+      <c r="D325" s="83"/>
       <c r="E325" s="23" t="s">
         <v>481</v>
       </c>
@@ -21972,8 +21972,8 @@
       <c r="B326" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C326" s="86"/>
-      <c r="D326" s="86"/>
+      <c r="C326" s="83"/>
+      <c r="D326" s="83"/>
       <c r="E326" s="23" t="s">
         <v>481</v>
       </c>
@@ -21985,8 +21985,8 @@
       <c r="B327" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C327" s="86"/>
-      <c r="D327" s="86"/>
+      <c r="C327" s="83"/>
+      <c r="D327" s="83"/>
       <c r="E327" s="23" t="s">
         <v>481</v>
       </c>
@@ -21998,8 +21998,8 @@
       <c r="B328" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C328" s="86"/>
-      <c r="D328" s="86"/>
+      <c r="C328" s="83"/>
+      <c r="D328" s="83"/>
       <c r="E328" s="23" t="s">
         <v>481</v>
       </c>
@@ -22011,8 +22011,8 @@
       <c r="B329" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C329" s="86"/>
-      <c r="D329" s="86"/>
+      <c r="C329" s="83"/>
+      <c r="D329" s="83"/>
       <c r="E329" s="23" t="s">
         <v>481</v>
       </c>
@@ -22024,8 +22024,8 @@
       <c r="B330" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C330" s="86"/>
-      <c r="D330" s="86"/>
+      <c r="C330" s="83"/>
+      <c r="D330" s="83"/>
       <c r="E330" s="23" t="s">
         <v>481</v>
       </c>
@@ -22037,8 +22037,8 @@
       <c r="B331" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C331" s="86"/>
-      <c r="D331" s="86"/>
+      <c r="C331" s="83"/>
+      <c r="D331" s="83"/>
       <c r="E331" s="23" t="s">
         <v>481</v>
       </c>
@@ -22050,8 +22050,8 @@
       <c r="B332" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C332" s="86"/>
-      <c r="D332" s="86"/>
+      <c r="C332" s="83"/>
+      <c r="D332" s="83"/>
       <c r="E332" s="23" t="s">
         <v>481</v>
       </c>
@@ -22063,8 +22063,8 @@
       <c r="B333" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C333" s="86"/>
-      <c r="D333" s="86"/>
+      <c r="C333" s="83"/>
+      <c r="D333" s="83"/>
       <c r="E333" s="23" t="s">
         <v>481</v>
       </c>
@@ -22076,8 +22076,8 @@
       <c r="B334" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C334" s="86"/>
-      <c r="D334" s="86"/>
+      <c r="C334" s="83"/>
+      <c r="D334" s="83"/>
       <c r="E334" s="23" t="s">
         <v>481</v>
       </c>
@@ -22089,8 +22089,8 @@
       <c r="B335" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C335" s="86"/>
-      <c r="D335" s="86"/>
+      <c r="C335" s="83"/>
+      <c r="D335" s="83"/>
       <c r="E335" s="23" t="s">
         <v>481</v>
       </c>
@@ -22102,8 +22102,8 @@
       <c r="B336" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C336" s="86"/>
-      <c r="D336" s="86"/>
+      <c r="C336" s="83"/>
+      <c r="D336" s="83"/>
       <c r="E336" s="23" t="s">
         <v>481</v>
       </c>
@@ -22115,8 +22115,8 @@
       <c r="B337" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C337" s="86"/>
-      <c r="D337" s="86"/>
+      <c r="C337" s="83"/>
+      <c r="D337" s="83"/>
       <c r="E337" s="23" t="s">
         <v>481</v>
       </c>
@@ -22128,8 +22128,8 @@
       <c r="B338" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C338" s="86"/>
-      <c r="D338" s="86"/>
+      <c r="C338" s="83"/>
+      <c r="D338" s="83"/>
       <c r="E338" s="23" t="s">
         <v>481</v>
       </c>
@@ -22141,8 +22141,8 @@
       <c r="B339" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C339" s="86"/>
-      <c r="D339" s="86"/>
+      <c r="C339" s="83"/>
+      <c r="D339" s="83"/>
       <c r="E339" s="23" t="s">
         <v>481</v>
       </c>
@@ -22154,8 +22154,8 @@
       <c r="B340" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C340" s="86"/>
-      <c r="D340" s="86"/>
+      <c r="C340" s="83"/>
+      <c r="D340" s="83"/>
       <c r="E340" s="23" t="s">
         <v>481</v>
       </c>
@@ -22167,8 +22167,8 @@
       <c r="B341" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C341" s="86"/>
-      <c r="D341" s="86"/>
+      <c r="C341" s="83"/>
+      <c r="D341" s="83"/>
       <c r="E341" s="23" t="s">
         <v>481</v>
       </c>
@@ -22180,8 +22180,8 @@
       <c r="B342" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C342" s="86"/>
-      <c r="D342" s="86"/>
+      <c r="C342" s="83"/>
+      <c r="D342" s="83"/>
       <c r="E342" s="23" t="s">
         <v>481</v>
       </c>
@@ -22193,8 +22193,8 @@
       <c r="B343" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C343" s="86"/>
-      <c r="D343" s="86"/>
+      <c r="C343" s="83"/>
+      <c r="D343" s="83"/>
       <c r="E343" s="23" t="s">
         <v>481</v>
       </c>
@@ -22206,8 +22206,8 @@
       <c r="B344" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C344" s="86"/>
-      <c r="D344" s="86"/>
+      <c r="C344" s="83"/>
+      <c r="D344" s="83"/>
       <c r="E344" s="23" t="s">
         <v>481</v>
       </c>
@@ -22219,8 +22219,8 @@
       <c r="B345" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C345" s="86"/>
-      <c r="D345" s="86"/>
+      <c r="C345" s="83"/>
+      <c r="D345" s="83"/>
       <c r="E345" s="23" t="s">
         <v>481</v>
       </c>
@@ -22232,8 +22232,8 @@
       <c r="B346" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C346" s="86"/>
-      <c r="D346" s="86"/>
+      <c r="C346" s="83"/>
+      <c r="D346" s="83"/>
       <c r="E346" s="23" t="s">
         <v>481</v>
       </c>
@@ -22245,8 +22245,8 @@
       <c r="B347" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C347" s="86"/>
-      <c r="D347" s="86"/>
+      <c r="C347" s="83"/>
+      <c r="D347" s="83"/>
       <c r="E347" s="23" t="s">
         <v>481</v>
       </c>
@@ -22258,8 +22258,8 @@
       <c r="B348" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="C348" s="87"/>
-      <c r="D348" s="87"/>
+      <c r="C348" s="84"/>
+      <c r="D348" s="84"/>
       <c r="E348" s="28" t="s">
         <v>481</v>
       </c>
@@ -22271,10 +22271,10 @@
       <c r="B349" s="18" t="s">
         <v>709</v>
       </c>
-      <c r="C349" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="D349" s="82" t="s">
+      <c r="C349" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="D349" s="88" t="s">
         <v>737</v>
       </c>
       <c r="E349" s="19" t="s">
@@ -22288,8 +22288,8 @@
       <c r="B350" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C350" s="83"/>
-      <c r="D350" s="83"/>
+      <c r="C350" s="89"/>
+      <c r="D350" s="89"/>
       <c r="E350" s="23" t="s">
         <v>383</v>
       </c>
@@ -22301,8 +22301,8 @@
       <c r="B351" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C351" s="83"/>
-      <c r="D351" s="83"/>
+      <c r="C351" s="89"/>
+      <c r="D351" s="89"/>
       <c r="E351" s="23" t="s">
         <v>383</v>
       </c>
@@ -22314,8 +22314,8 @@
       <c r="B352" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C352" s="83"/>
-      <c r="D352" s="83"/>
+      <c r="C352" s="89"/>
+      <c r="D352" s="89"/>
       <c r="E352" s="23" t="s">
         <v>383</v>
       </c>
@@ -22327,8 +22327,8 @@
       <c r="B353" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C353" s="83"/>
-      <c r="D353" s="83"/>
+      <c r="C353" s="89"/>
+      <c r="D353" s="89"/>
       <c r="E353" s="23" t="s">
         <v>383</v>
       </c>
@@ -22340,8 +22340,8 @@
       <c r="B354" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C354" s="83"/>
-      <c r="D354" s="83"/>
+      <c r="C354" s="89"/>
+      <c r="D354" s="89"/>
       <c r="E354" s="23" t="s">
         <v>383</v>
       </c>
@@ -22353,8 +22353,8 @@
       <c r="B355" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C355" s="83"/>
-      <c r="D355" s="83"/>
+      <c r="C355" s="89"/>
+      <c r="D355" s="89"/>
       <c r="E355" s="23" t="s">
         <v>383</v>
       </c>
@@ -22366,8 +22366,8 @@
       <c r="B356" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C356" s="83"/>
-      <c r="D356" s="83"/>
+      <c r="C356" s="89"/>
+      <c r="D356" s="89"/>
       <c r="E356" s="23" t="s">
         <v>383</v>
       </c>
@@ -22379,8 +22379,8 @@
       <c r="B357" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C357" s="83"/>
-      <c r="D357" s="83"/>
+      <c r="C357" s="89"/>
+      <c r="D357" s="89"/>
       <c r="E357" s="23" t="s">
         <v>383</v>
       </c>
@@ -22392,8 +22392,8 @@
       <c r="B358" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C358" s="83"/>
-      <c r="D358" s="83"/>
+      <c r="C358" s="89"/>
+      <c r="D358" s="89"/>
       <c r="E358" s="23" t="s">
         <v>383</v>
       </c>
@@ -22405,8 +22405,8 @@
       <c r="B359" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C359" s="83"/>
-      <c r="D359" s="83"/>
+      <c r="C359" s="89"/>
+      <c r="D359" s="89"/>
       <c r="E359" s="23" t="s">
         <v>383</v>
       </c>
@@ -22418,8 +22418,8 @@
       <c r="B360" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C360" s="83"/>
-      <c r="D360" s="83"/>
+      <c r="C360" s="89"/>
+      <c r="D360" s="89"/>
       <c r="E360" s="23" t="s">
         <v>383</v>
       </c>
@@ -22431,8 +22431,8 @@
       <c r="B361" s="22" t="s">
         <v>709</v>
       </c>
-      <c r="C361" s="83"/>
-      <c r="D361" s="83"/>
+      <c r="C361" s="89"/>
+      <c r="D361" s="89"/>
       <c r="E361" s="23" t="s">
         <v>383</v>
       </c>
@@ -22444,8 +22444,8 @@
       <c r="B362" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="C362" s="84"/>
-      <c r="D362" s="84"/>
+      <c r="C362" s="90"/>
+      <c r="D362" s="90"/>
       <c r="E362" s="28" t="s">
         <v>383</v>
       </c>
@@ -22457,10 +22457,10 @@
       <c r="B363" s="40" t="s">
         <v>709</v>
       </c>
-      <c r="C363" s="82" t="s">
+      <c r="C363" s="88" t="s">
         <v>752</v>
       </c>
-      <c r="D363" s="82" t="s">
+      <c r="D363" s="88" t="s">
         <v>753</v>
       </c>
       <c r="E363" s="19" t="s">
@@ -22474,8 +22474,8 @@
       <c r="B364" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C364" s="83"/>
-      <c r="D364" s="83"/>
+      <c r="C364" s="89"/>
+      <c r="D364" s="89"/>
       <c r="E364" s="23" t="s">
         <v>754</v>
       </c>
@@ -22487,8 +22487,8 @@
       <c r="B365" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C365" s="83"/>
-      <c r="D365" s="83"/>
+      <c r="C365" s="89"/>
+      <c r="D365" s="89"/>
       <c r="E365" s="23" t="s">
         <v>754</v>
       </c>
@@ -22500,8 +22500,8 @@
       <c r="B366" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C366" s="83"/>
-      <c r="D366" s="83"/>
+      <c r="C366" s="89"/>
+      <c r="D366" s="89"/>
       <c r="E366" s="23" t="s">
         <v>754</v>
       </c>
@@ -22513,8 +22513,8 @@
       <c r="B367" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C367" s="83"/>
-      <c r="D367" s="83"/>
+      <c r="C367" s="89"/>
+      <c r="D367" s="89"/>
       <c r="E367" s="23" t="s">
         <v>754</v>
       </c>
@@ -22526,8 +22526,8 @@
       <c r="B368" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C368" s="83"/>
-      <c r="D368" s="83"/>
+      <c r="C368" s="89"/>
+      <c r="D368" s="89"/>
       <c r="E368" s="23" t="s">
         <v>754</v>
       </c>
@@ -22539,8 +22539,8 @@
       <c r="B369" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C369" s="83"/>
-      <c r="D369" s="83"/>
+      <c r="C369" s="89"/>
+      <c r="D369" s="89"/>
       <c r="E369" s="23" t="s">
         <v>754</v>
       </c>
@@ -22552,8 +22552,8 @@
       <c r="B370" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C370" s="83"/>
-      <c r="D370" s="83"/>
+      <c r="C370" s="89"/>
+      <c r="D370" s="89"/>
       <c r="E370" s="23" t="s">
         <v>754</v>
       </c>
@@ -22565,8 +22565,8 @@
       <c r="B371" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C371" s="83"/>
-      <c r="D371" s="83"/>
+      <c r="C371" s="89"/>
+      <c r="D371" s="89"/>
       <c r="E371" s="23" t="s">
         <v>754</v>
       </c>
@@ -22578,8 +22578,8 @@
       <c r="B372" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C372" s="83"/>
-      <c r="D372" s="83"/>
+      <c r="C372" s="89"/>
+      <c r="D372" s="89"/>
       <c r="E372" s="23" t="s">
         <v>754</v>
       </c>
@@ -22591,8 +22591,8 @@
       <c r="B373" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C373" s="83"/>
-      <c r="D373" s="83"/>
+      <c r="C373" s="89"/>
+      <c r="D373" s="89"/>
       <c r="E373" s="23" t="s">
         <v>754</v>
       </c>
@@ -22604,8 +22604,8 @@
       <c r="B374" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C374" s="83"/>
-      <c r="D374" s="83"/>
+      <c r="C374" s="89"/>
+      <c r="D374" s="89"/>
       <c r="E374" s="23" t="s">
         <v>754</v>
       </c>
@@ -22617,8 +22617,8 @@
       <c r="B375" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C375" s="83"/>
-      <c r="D375" s="83"/>
+      <c r="C375" s="89"/>
+      <c r="D375" s="89"/>
       <c r="E375" s="23" t="s">
         <v>754</v>
       </c>
@@ -22630,8 +22630,8 @@
       <c r="B376" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C376" s="83"/>
-      <c r="D376" s="83"/>
+      <c r="C376" s="89"/>
+      <c r="D376" s="89"/>
       <c r="E376" s="23" t="s">
         <v>754</v>
       </c>
@@ -22643,8 +22643,8 @@
       <c r="B377" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C377" s="83"/>
-      <c r="D377" s="83"/>
+      <c r="C377" s="89"/>
+      <c r="D377" s="89"/>
       <c r="E377" s="23" t="s">
         <v>754</v>
       </c>
@@ -22656,8 +22656,8 @@
       <c r="B378" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C378" s="83"/>
-      <c r="D378" s="83"/>
+      <c r="C378" s="89"/>
+      <c r="D378" s="89"/>
       <c r="E378" s="23" t="s">
         <v>754</v>
       </c>
@@ -22669,8 +22669,8 @@
       <c r="B379" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C379" s="83"/>
-      <c r="D379" s="83"/>
+      <c r="C379" s="89"/>
+      <c r="D379" s="89"/>
       <c r="E379" s="23" t="s">
         <v>754</v>
       </c>
@@ -22682,8 +22682,8 @@
       <c r="B380" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C380" s="83"/>
-      <c r="D380" s="83"/>
+      <c r="C380" s="89"/>
+      <c r="D380" s="89"/>
       <c r="E380" s="23" t="s">
         <v>754</v>
       </c>
@@ -22695,8 +22695,8 @@
       <c r="B381" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C381" s="83"/>
-      <c r="D381" s="83"/>
+      <c r="C381" s="89"/>
+      <c r="D381" s="89"/>
       <c r="E381" s="23" t="s">
         <v>754</v>
       </c>
@@ -22708,8 +22708,8 @@
       <c r="B382" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C382" s="83"/>
-      <c r="D382" s="83"/>
+      <c r="C382" s="89"/>
+      <c r="D382" s="89"/>
       <c r="E382" s="23" t="s">
         <v>754</v>
       </c>
@@ -22721,8 +22721,8 @@
       <c r="B383" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C383" s="83"/>
-      <c r="D383" s="83"/>
+      <c r="C383" s="89"/>
+      <c r="D383" s="89"/>
       <c r="E383" s="23" t="s">
         <v>754</v>
       </c>
@@ -22734,8 +22734,8 @@
       <c r="B384" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C384" s="83"/>
-      <c r="D384" s="83"/>
+      <c r="C384" s="89"/>
+      <c r="D384" s="89"/>
       <c r="E384" s="23" t="s">
         <v>754</v>
       </c>
@@ -22747,8 +22747,8 @@
       <c r="B385" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C385" s="83"/>
-      <c r="D385" s="83"/>
+      <c r="C385" s="89"/>
+      <c r="D385" s="89"/>
       <c r="E385" s="23" t="s">
         <v>754</v>
       </c>
@@ -22760,8 +22760,8 @@
       <c r="B386" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C386" s="83"/>
-      <c r="D386" s="83"/>
+      <c r="C386" s="89"/>
+      <c r="D386" s="89"/>
       <c r="E386" s="23" t="s">
         <v>754</v>
       </c>
@@ -22773,8 +22773,8 @@
       <c r="B387" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C387" s="83"/>
-      <c r="D387" s="83"/>
+      <c r="C387" s="89"/>
+      <c r="D387" s="89"/>
       <c r="E387" s="23" t="s">
         <v>754</v>
       </c>
@@ -22786,8 +22786,8 @@
       <c r="B388" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C388" s="83"/>
-      <c r="D388" s="83"/>
+      <c r="C388" s="89"/>
+      <c r="D388" s="89"/>
       <c r="E388" s="23" t="s">
         <v>754</v>
       </c>
@@ -22799,8 +22799,8 @@
       <c r="B389" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C389" s="83"/>
-      <c r="D389" s="83"/>
+      <c r="C389" s="89"/>
+      <c r="D389" s="89"/>
       <c r="E389" s="23" t="s">
         <v>754</v>
       </c>
@@ -22812,8 +22812,8 @@
       <c r="B390" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C390" s="83"/>
-      <c r="D390" s="83"/>
+      <c r="C390" s="89"/>
+      <c r="D390" s="89"/>
       <c r="E390" s="23" t="s">
         <v>754</v>
       </c>
@@ -22825,8 +22825,8 @@
       <c r="B391" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C391" s="83"/>
-      <c r="D391" s="83"/>
+      <c r="C391" s="89"/>
+      <c r="D391" s="89"/>
       <c r="E391" s="23" t="s">
         <v>754</v>
       </c>
@@ -22838,8 +22838,8 @@
       <c r="B392" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C392" s="83"/>
-      <c r="D392" s="83"/>
+      <c r="C392" s="89"/>
+      <c r="D392" s="89"/>
       <c r="E392" s="23" t="s">
         <v>754</v>
       </c>
@@ -22851,8 +22851,8 @@
       <c r="B393" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C393" s="83"/>
-      <c r="D393" s="83"/>
+      <c r="C393" s="89"/>
+      <c r="D393" s="89"/>
       <c r="E393" s="23" t="s">
         <v>754</v>
       </c>
@@ -22864,8 +22864,8 @@
       <c r="B394" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C394" s="83"/>
-      <c r="D394" s="83"/>
+      <c r="C394" s="89"/>
+      <c r="D394" s="89"/>
       <c r="E394" s="23" t="s">
         <v>754</v>
       </c>
@@ -22877,8 +22877,8 @@
       <c r="B395" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C395" s="83"/>
-      <c r="D395" s="83"/>
+      <c r="C395" s="89"/>
+      <c r="D395" s="89"/>
       <c r="E395" s="23" t="s">
         <v>754</v>
       </c>
@@ -22890,8 +22890,8 @@
       <c r="B396" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C396" s="83"/>
-      <c r="D396" s="83"/>
+      <c r="C396" s="89"/>
+      <c r="D396" s="89"/>
       <c r="E396" s="23" t="s">
         <v>754</v>
       </c>
@@ -22903,8 +22903,8 @@
       <c r="B397" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C397" s="83"/>
-      <c r="D397" s="83"/>
+      <c r="C397" s="89"/>
+      <c r="D397" s="89"/>
       <c r="E397" s="23" t="s">
         <v>754</v>
       </c>
@@ -22916,8 +22916,8 @@
       <c r="B398" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C398" s="83"/>
-      <c r="D398" s="83"/>
+      <c r="C398" s="89"/>
+      <c r="D398" s="89"/>
       <c r="E398" s="23" t="s">
         <v>754</v>
       </c>
@@ -22929,8 +22929,8 @@
       <c r="B399" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C399" s="83"/>
-      <c r="D399" s="83"/>
+      <c r="C399" s="89"/>
+      <c r="D399" s="89"/>
       <c r="E399" s="23" t="s">
         <v>754</v>
       </c>
@@ -22942,8 +22942,8 @@
       <c r="B400" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C400" s="83"/>
-      <c r="D400" s="83"/>
+      <c r="C400" s="89"/>
+      <c r="D400" s="89"/>
       <c r="E400" s="23" t="s">
         <v>754</v>
       </c>
@@ -22955,8 +22955,8 @@
       <c r="B401" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C401" s="83"/>
-      <c r="D401" s="83"/>
+      <c r="C401" s="89"/>
+      <c r="D401" s="89"/>
       <c r="E401" s="23" t="s">
         <v>754</v>
       </c>
@@ -22968,8 +22968,8 @@
       <c r="B402" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C402" s="83"/>
-      <c r="D402" s="83"/>
+      <c r="C402" s="89"/>
+      <c r="D402" s="89"/>
       <c r="E402" s="23" t="s">
         <v>754</v>
       </c>
@@ -22981,8 +22981,8 @@
       <c r="B403" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C403" s="83"/>
-      <c r="D403" s="83"/>
+      <c r="C403" s="89"/>
+      <c r="D403" s="89"/>
       <c r="E403" s="23" t="s">
         <v>754</v>
       </c>
@@ -22994,8 +22994,8 @@
       <c r="B404" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C404" s="83"/>
-      <c r="D404" s="83"/>
+      <c r="C404" s="89"/>
+      <c r="D404" s="89"/>
       <c r="E404" s="23" t="s">
         <v>754</v>
       </c>
@@ -23007,8 +23007,8 @@
       <c r="B405" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C405" s="83"/>
-      <c r="D405" s="83"/>
+      <c r="C405" s="89"/>
+      <c r="D405" s="89"/>
       <c r="E405" s="23" t="s">
         <v>754</v>
       </c>
@@ -23020,8 +23020,8 @@
       <c r="B406" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C406" s="83"/>
-      <c r="D406" s="83"/>
+      <c r="C406" s="89"/>
+      <c r="D406" s="89"/>
       <c r="E406" s="23" t="s">
         <v>754</v>
       </c>
@@ -23033,8 +23033,8 @@
       <c r="B407" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C407" s="83"/>
-      <c r="D407" s="83"/>
+      <c r="C407" s="89"/>
+      <c r="D407" s="89"/>
       <c r="E407" s="23" t="s">
         <v>754</v>
       </c>
@@ -23046,8 +23046,8 @@
       <c r="B408" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C408" s="83"/>
-      <c r="D408" s="83"/>
+      <c r="C408" s="89"/>
+      <c r="D408" s="89"/>
       <c r="E408" s="23" t="s">
         <v>754</v>
       </c>
@@ -23059,8 +23059,8 @@
       <c r="B409" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C409" s="83"/>
-      <c r="D409" s="83"/>
+      <c r="C409" s="89"/>
+      <c r="D409" s="89"/>
       <c r="E409" s="23" t="s">
         <v>754</v>
       </c>
@@ -23072,8 +23072,8 @@
       <c r="B410" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C410" s="83"/>
-      <c r="D410" s="83"/>
+      <c r="C410" s="89"/>
+      <c r="D410" s="89"/>
       <c r="E410" s="23" t="s">
         <v>754</v>
       </c>
@@ -23085,8 +23085,8 @@
       <c r="B411" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C411" s="83"/>
-      <c r="D411" s="83"/>
+      <c r="C411" s="89"/>
+      <c r="D411" s="89"/>
       <c r="E411" s="23" t="s">
         <v>754</v>
       </c>
@@ -23098,8 +23098,8 @@
       <c r="B412" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C412" s="83"/>
-      <c r="D412" s="83"/>
+      <c r="C412" s="89"/>
+      <c r="D412" s="89"/>
       <c r="E412" s="23" t="s">
         <v>754</v>
       </c>
@@ -23111,8 +23111,8 @@
       <c r="B413" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C413" s="83"/>
-      <c r="D413" s="83"/>
+      <c r="C413" s="89"/>
+      <c r="D413" s="89"/>
       <c r="E413" s="23" t="s">
         <v>754</v>
       </c>
@@ -23124,8 +23124,8 @@
       <c r="B414" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C414" s="83"/>
-      <c r="D414" s="83"/>
+      <c r="C414" s="89"/>
+      <c r="D414" s="89"/>
       <c r="E414" s="23" t="s">
         <v>754</v>
       </c>
@@ -23137,8 +23137,8 @@
       <c r="B415" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C415" s="83"/>
-      <c r="D415" s="83"/>
+      <c r="C415" s="89"/>
+      <c r="D415" s="89"/>
       <c r="E415" s="23" t="s">
         <v>754</v>
       </c>
@@ -23150,8 +23150,8 @@
       <c r="B416" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C416" s="83"/>
-      <c r="D416" s="83"/>
+      <c r="C416" s="89"/>
+      <c r="D416" s="89"/>
       <c r="E416" s="23" t="s">
         <v>754</v>
       </c>
@@ -23163,8 +23163,8 @@
       <c r="B417" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C417" s="83"/>
-      <c r="D417" s="83"/>
+      <c r="C417" s="89"/>
+      <c r="D417" s="89"/>
       <c r="E417" s="23" t="s">
         <v>754</v>
       </c>
@@ -23176,8 +23176,8 @@
       <c r="B418" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C418" s="83"/>
-      <c r="D418" s="83"/>
+      <c r="C418" s="89"/>
+      <c r="D418" s="89"/>
       <c r="E418" s="23" t="s">
         <v>754</v>
       </c>
@@ -23189,8 +23189,8 @@
       <c r="B419" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C419" s="83"/>
-      <c r="D419" s="83"/>
+      <c r="C419" s="89"/>
+      <c r="D419" s="89"/>
       <c r="E419" s="23" t="s">
         <v>754</v>
       </c>
@@ -23202,8 +23202,8 @@
       <c r="B420" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C420" s="83"/>
-      <c r="D420" s="83"/>
+      <c r="C420" s="89"/>
+      <c r="D420" s="89"/>
       <c r="E420" s="23" t="s">
         <v>754</v>
       </c>
@@ -23215,8 +23215,8 @@
       <c r="B421" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C421" s="83"/>
-      <c r="D421" s="83"/>
+      <c r="C421" s="89"/>
+      <c r="D421" s="89"/>
       <c r="E421" s="23" t="s">
         <v>754</v>
       </c>
@@ -23228,8 +23228,8 @@
       <c r="B422" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C422" s="83"/>
-      <c r="D422" s="83"/>
+      <c r="C422" s="89"/>
+      <c r="D422" s="89"/>
       <c r="E422" s="23" t="s">
         <v>754</v>
       </c>
@@ -23241,8 +23241,8 @@
       <c r="B423" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C423" s="83"/>
-      <c r="D423" s="83"/>
+      <c r="C423" s="89"/>
+      <c r="D423" s="89"/>
       <c r="E423" s="23" t="s">
         <v>754</v>
       </c>
@@ -23254,8 +23254,8 @@
       <c r="B424" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C424" s="83"/>
-      <c r="D424" s="83"/>
+      <c r="C424" s="89"/>
+      <c r="D424" s="89"/>
       <c r="E424" s="23" t="s">
         <v>754</v>
       </c>
@@ -23267,8 +23267,8 @@
       <c r="B425" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C425" s="83"/>
-      <c r="D425" s="83"/>
+      <c r="C425" s="89"/>
+      <c r="D425" s="89"/>
       <c r="E425" s="23" t="s">
         <v>754</v>
       </c>
@@ -23280,8 +23280,8 @@
       <c r="B426" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C426" s="83"/>
-      <c r="D426" s="83"/>
+      <c r="C426" s="89"/>
+      <c r="D426" s="89"/>
       <c r="E426" s="23" t="s">
         <v>754</v>
       </c>
@@ -23293,8 +23293,8 @@
       <c r="B427" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C427" s="83"/>
-      <c r="D427" s="83"/>
+      <c r="C427" s="89"/>
+      <c r="D427" s="89"/>
       <c r="E427" s="23" t="s">
         <v>754</v>
       </c>
@@ -23306,8 +23306,8 @@
       <c r="B428" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C428" s="83"/>
-      <c r="D428" s="83"/>
+      <c r="C428" s="89"/>
+      <c r="D428" s="89"/>
       <c r="E428" s="23" t="s">
         <v>754</v>
       </c>
@@ -23319,8 +23319,8 @@
       <c r="B429" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C429" s="83"/>
-      <c r="D429" s="83"/>
+      <c r="C429" s="89"/>
+      <c r="D429" s="89"/>
       <c r="E429" s="23" t="s">
         <v>754</v>
       </c>
@@ -23332,8 +23332,8 @@
       <c r="B430" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C430" s="83"/>
-      <c r="D430" s="83"/>
+      <c r="C430" s="89"/>
+      <c r="D430" s="89"/>
       <c r="E430" s="23" t="s">
         <v>754</v>
       </c>
@@ -23345,8 +23345,8 @@
       <c r="B431" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C431" s="83"/>
-      <c r="D431" s="83"/>
+      <c r="C431" s="89"/>
+      <c r="D431" s="89"/>
       <c r="E431" s="23" t="s">
         <v>754</v>
       </c>
@@ -23358,8 +23358,8 @@
       <c r="B432" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C432" s="83"/>
-      <c r="D432" s="83"/>
+      <c r="C432" s="89"/>
+      <c r="D432" s="89"/>
       <c r="E432" s="23" t="s">
         <v>754</v>
       </c>
@@ -23371,8 +23371,8 @@
       <c r="B433" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C433" s="83"/>
-      <c r="D433" s="83"/>
+      <c r="C433" s="89"/>
+      <c r="D433" s="89"/>
       <c r="E433" s="23" t="s">
         <v>754</v>
       </c>
@@ -23384,8 +23384,8 @@
       <c r="B434" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C434" s="83"/>
-      <c r="D434" s="83"/>
+      <c r="C434" s="89"/>
+      <c r="D434" s="89"/>
       <c r="E434" s="23" t="s">
         <v>754</v>
       </c>
@@ -23397,8 +23397,8 @@
       <c r="B435" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C435" s="83"/>
-      <c r="D435" s="83"/>
+      <c r="C435" s="89"/>
+      <c r="D435" s="89"/>
       <c r="E435" s="23" t="s">
         <v>754</v>
       </c>
@@ -23410,8 +23410,8 @@
       <c r="B436" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C436" s="83"/>
-      <c r="D436" s="83"/>
+      <c r="C436" s="89"/>
+      <c r="D436" s="89"/>
       <c r="E436" s="23" t="s">
         <v>754</v>
       </c>
@@ -23423,8 +23423,8 @@
       <c r="B437" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C437" s="83"/>
-      <c r="D437" s="83"/>
+      <c r="C437" s="89"/>
+      <c r="D437" s="89"/>
       <c r="E437" s="23" t="s">
         <v>754</v>
       </c>
@@ -23436,8 +23436,8 @@
       <c r="B438" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C438" s="83"/>
-      <c r="D438" s="83"/>
+      <c r="C438" s="89"/>
+      <c r="D438" s="89"/>
       <c r="E438" s="23" t="s">
         <v>754</v>
       </c>
@@ -23449,8 +23449,8 @@
       <c r="B439" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C439" s="83"/>
-      <c r="D439" s="83"/>
+      <c r="C439" s="89"/>
+      <c r="D439" s="89"/>
       <c r="E439" s="23" t="s">
         <v>754</v>
       </c>
@@ -23462,8 +23462,8 @@
       <c r="B440" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C440" s="83"/>
-      <c r="D440" s="83"/>
+      <c r="C440" s="89"/>
+      <c r="D440" s="89"/>
       <c r="E440" s="23" t="s">
         <v>754</v>
       </c>
@@ -23475,8 +23475,8 @@
       <c r="B441" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C441" s="83"/>
-      <c r="D441" s="83"/>
+      <c r="C441" s="89"/>
+      <c r="D441" s="89"/>
       <c r="E441" s="23" t="s">
         <v>754</v>
       </c>
@@ -23488,8 +23488,8 @@
       <c r="B442" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C442" s="83"/>
-      <c r="D442" s="83"/>
+      <c r="C442" s="89"/>
+      <c r="D442" s="89"/>
       <c r="E442" s="23" t="s">
         <v>754</v>
       </c>
@@ -23501,8 +23501,8 @@
       <c r="B443" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C443" s="83"/>
-      <c r="D443" s="83"/>
+      <c r="C443" s="89"/>
+      <c r="D443" s="89"/>
       <c r="E443" s="23" t="s">
         <v>754</v>
       </c>
@@ -23514,8 +23514,8 @@
       <c r="B444" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C444" s="83"/>
-      <c r="D444" s="83"/>
+      <c r="C444" s="89"/>
+      <c r="D444" s="89"/>
       <c r="E444" s="23" t="s">
         <v>754</v>
       </c>
@@ -23527,8 +23527,8 @@
       <c r="B445" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C445" s="83"/>
-      <c r="D445" s="83"/>
+      <c r="C445" s="89"/>
+      <c r="D445" s="89"/>
       <c r="E445" s="23" t="s">
         <v>754</v>
       </c>
@@ -23540,8 +23540,8 @@
       <c r="B446" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C446" s="83"/>
-      <c r="D446" s="83"/>
+      <c r="C446" s="89"/>
+      <c r="D446" s="89"/>
       <c r="E446" s="23" t="s">
         <v>754</v>
       </c>
@@ -23553,8 +23553,8 @@
       <c r="B447" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C447" s="83"/>
-      <c r="D447" s="83"/>
+      <c r="C447" s="89"/>
+      <c r="D447" s="89"/>
       <c r="E447" s="23" t="s">
         <v>754</v>
       </c>
@@ -23566,8 +23566,8 @@
       <c r="B448" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C448" s="83"/>
-      <c r="D448" s="83"/>
+      <c r="C448" s="89"/>
+      <c r="D448" s="89"/>
       <c r="E448" s="23" t="s">
         <v>754</v>
       </c>
@@ -23579,8 +23579,8 @@
       <c r="B449" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C449" s="83"/>
-      <c r="D449" s="83"/>
+      <c r="C449" s="89"/>
+      <c r="D449" s="89"/>
       <c r="E449" s="23" t="s">
         <v>754</v>
       </c>
@@ -23592,8 +23592,8 @@
       <c r="B450" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C450" s="83"/>
-      <c r="D450" s="83"/>
+      <c r="C450" s="89"/>
+      <c r="D450" s="89"/>
       <c r="E450" s="23" t="s">
         <v>754</v>
       </c>
@@ -23605,8 +23605,8 @@
       <c r="B451" s="42" t="s">
         <v>709</v>
       </c>
-      <c r="C451" s="83"/>
-      <c r="D451" s="83"/>
+      <c r="C451" s="89"/>
+      <c r="D451" s="89"/>
       <c r="E451" s="23" t="s">
         <v>754</v>
       </c>
@@ -23618,32 +23618,14 @@
       <c r="B452" s="27" t="s">
         <v>709</v>
       </c>
-      <c r="C452" s="84"/>
-      <c r="D452" s="84"/>
+      <c r="C452" s="90"/>
+      <c r="D452" s="90"/>
       <c r="E452" s="28" t="s">
         <v>754</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="D2:D9"/>
-    <mergeCell ref="C10:C93"/>
-    <mergeCell ref="D10:D93"/>
-    <mergeCell ref="C94:C121"/>
-    <mergeCell ref="D94:D121"/>
-    <mergeCell ref="C122:C128"/>
-    <mergeCell ref="D122:D128"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="D129:D131"/>
-    <mergeCell ref="C132:C163"/>
-    <mergeCell ref="D132:D163"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="C167:C187"/>
-    <mergeCell ref="D167:D187"/>
-    <mergeCell ref="C188:C215"/>
-    <mergeCell ref="D188:D215"/>
     <mergeCell ref="C363:C452"/>
     <mergeCell ref="D363:D452"/>
     <mergeCell ref="C216:C318"/>
@@ -23652,6 +23634,24 @@
     <mergeCell ref="D319:D348"/>
     <mergeCell ref="C349:C362"/>
     <mergeCell ref="D349:D362"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="C167:C187"/>
+    <mergeCell ref="D167:D187"/>
+    <mergeCell ref="C188:C215"/>
+    <mergeCell ref="D188:D215"/>
+    <mergeCell ref="C122:C128"/>
+    <mergeCell ref="D122:D128"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="D129:D131"/>
+    <mergeCell ref="C132:C163"/>
+    <mergeCell ref="D132:D163"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="D2:D9"/>
+    <mergeCell ref="C10:C93"/>
+    <mergeCell ref="D10:D93"/>
+    <mergeCell ref="C94:C121"/>
+    <mergeCell ref="D94:D121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23663,7 +23663,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
